--- a/news_data/2021_06.xlsx
+++ b/news_data/2021_06.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="74">
   <si>
     <t>naver_news_title</t>
   </si>
@@ -22,6 +22,93 @@
     <t>naver_news_articles</t>
   </si>
   <si>
+    <t>코로나 시대, 제주도 관광 수칙을 알려드립니다</t>
+  </si>
+  <si>
+    <t>제주도, 2021 서울국제관광박람회서 2관왕 달성 쾌거</t>
+  </si>
+  <si>
+    <t>대한민국 관광1번지 제주도에 ‘태권도원’ 광고 뜬다!</t>
+  </si>
+  <si>
+    <t>"롯데관광개발 주식 좋은 매수기회", 제주도 카지노와 호텔 순항</t>
+  </si>
+  <si>
+    <t>제주도, 정부에 '트래블 버블' 공식 건의...외국인 관광시장 회복 '만전'</t>
+  </si>
+  <si>
+    <t>[전문] 文대통령 “‘산티아고 순례길,’ 제주도 올레길 개척…관광 재개, 일...</t>
+  </si>
+  <si>
+    <t>제주도, 대중교통 모니터링...3개월 도민-관광객 대상</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 테마전문여행사 육성사업 공모</t>
+  </si>
+  <si>
+    <t>"떨어진 제주관광공사 위상, 제주도 전출금으로 해결되나"</t>
+  </si>
+  <si>
+    <t>제주특별자치도관광협회 “여름휴가 설문조사 결과 제주도=휴가계획 여행지 1...</t>
+  </si>
+  <si>
+    <t>“관광객 몰린다” 제주도, 정부에 ‘우선 접종’ 공식 건의</t>
+  </si>
+  <si>
+    <t>제주도 카지노 오픈 D-1…롯데관광개발 '신고가' 터치</t>
+  </si>
+  <si>
+    <t>제주도, 중문관광단지 '3개 지구'로 분리 개발 고시</t>
+  </si>
+  <si>
+    <t>제주도·도의회, 관광객 몰리는 제주 우선 백신 접종 건의</t>
+  </si>
+  <si>
+    <t>제주도의회 "관광지 제주, 도민 백신 우선 접종해야"</t>
+  </si>
+  <si>
+    <t>제주도, 외국인 관광객 줄자  '관광진흥기금' 고갈 위기</t>
+  </si>
+  <si>
+    <t>제주도의회, 문화예술 기반의 제주관광 활성화 모색</t>
+  </si>
+  <si>
+    <t>제주도 "코로나19로 짓눌린 관광산업, '웰니스'로 날개“</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 영세관광사업체 위한 '안전 관광 물품 지원'</t>
+  </si>
+  <si>
+    <t>이베스트증권 “롯데관광개발, 제주도 여행 증가·카지노 개장 등에 실적 개선...</t>
+  </si>
+  <si>
+    <t>백신맞고 '집콕탈출'…제주도 카지노 오픈 롯데관광개발 목표가↑</t>
+  </si>
+  <si>
+    <t>제주도의회, 문화예술을 통한 제주관광 '의 새로운 길 모색</t>
+  </si>
+  <si>
+    <t xml:space="preserve">제주도, 제주형 웰니스 관광산업 활성화 사업 추진 </t>
+  </si>
+  <si>
+    <t>[전국네트워크] 제주도, 섬 관광지 특성 감안해 백신 우선 배정해달라</t>
+  </si>
+  <si>
+    <t>제주도, 글로벌 선도 웰니스 관광 도시로 약진</t>
+  </si>
+  <si>
+    <t>광양시관광협의회, 제주도여행사 등 MOU 성과 가시화</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 안전한 관광 환경 조성 힘쓴다</t>
+  </si>
+  <si>
+    <t>제주도, 정부 2차 추경에 관광사업체 지원 특별출연 요청</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 이달의 친절 관광인 4인 선정</t>
+  </si>
+  <si>
     <t>광양시관광협의회+제주도여행사, MOU 성과 가시화</t>
   </si>
   <si>
@@ -31,9 +118,6 @@
     <t>제주도관광협회, '도내 영세관광사업체 경쟁력 강화 지원사업' 추진</t>
   </si>
   <si>
-    <t>제주도관광협회, 이달의 친절 관광인 4인 선정</t>
-  </si>
-  <si>
     <t>[인터뷰] 원창묵 원주시장 "제주도 넘어서는 관광 제일 도시 만들 것"</t>
   </si>
   <si>
@@ -46,34 +130,112 @@
     <t>카드업계 “제주도 관광객 잡아라”…제주 특화카드 눈길</t>
   </si>
   <si>
-    <t>광양시관광협의회+제주도여행사, MOU 성과 가시화 - 투어코리아 - No.1 여행·축제 뉴스 × 전체기사 이슈 전체 정책 지역 사회 피플 여행 전체 국내여행 해외여행 맛집멋집 리조트 펜션 휴양림 호텔레스토랑 Green Tour 여행사 축제 전체 국내인기축제 세계축제 라이프 전체 팁뉴스 문화 패션아웃도어 레포츠 의료관광 관광청 경제 최종편집 : 2022-10-04 11:11 (화) 처음으로 로그인 회원가입 facebook twitter rss post kakaoch instagram in-naver 전체기사 이슈 정책 지역 사회 피플 여행 국내여행 해외여행 맛집멋집 리조트 펜션 휴양림 호텔레스토랑 Green Tour 여행사 축제 국내인기축제 세계축제 라이프 팁뉴스 문화 패션아웃도어 레포츠 의료관광 관광청 경제 기사검색 검색 실시간 정조의 효심과 부국강병 꿈 227년 부활...수원화성문화제 7일 개막 거대 수호신 '진묘수', 공주시 금강에 떴다...인기 만발 고양시, 제20회 대한민국막걸리 축제’ 8~11일개최 대전시, ‘대전 0시 뮤직페스티벌’7~10일 열려 폐광지역 4개 시군 잇는 '운탄고도1330 걷는 길' 개통! 매혹적인 휴양지 발리서 보내는 오붓 달콤한 허니문! 제천한방바이오박람회,유명가수 무대공연 등 볼거리 풍성 곡성군, 남도 숙박 할인 BIG 이벤트 참여 업소 모집 10월 단양은 볼거리‧먹거리‧즐길거리 ‘풍성’ ‘파주시 관광사진 공모전’ 개최...4~7일 작품 접수 '하회선유줄불놀이 아름다움 관광객들 탄성' 음성군 통합 농산물 축제‘음성명작페스티벌’ 5일 개막 핫뉴스 "거 참 재밌네!"...오감이 흥겨운 안동국제탈춤페스티벌 10월엔 경남 축제·문화 따라 가을여행! 올 가을, 우리는 ‘백제문화제 판타지아’에 빠진다 부여의 맛·멋·흥 100% 즐기는 법 11~12월엔 초특가 항공권으로 일본·베트남·필리핀 알뜰여행을! 풍자와 해학 '음성품바축제' 관람객 북적 서울여행 인기...일본 최대 관광박람회서 서울홍보관 북적북적 풍성한 가을축제로 부산 매력에 빠져봐요! 감성 채워주는 공주 힐링스폿! 경주·광양·속초·진주·충주시 등 8곳 예비문화도시 지정 [포토] 핑크뮬리 유혹하는 함평 석두마을 26일부터 실외 마스크 전면 해제…실내는 유지 이전 다음 광양시관광협의회+제주도여행사, MOU 성과 가시화 페이스북 트위터 카카오스토리 카카오톡 URL복사 기사공유하기 상태바 HOME 이슈 정책 광양시관광협의회+제주도여행사, MOU 성과 가시화 김지혜 기자 승인 2021.06.02 12:06 댓글 0 페이스북 트위터 카카오스토리 카카오톡 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 URL복사 × 광양시관광협의회와 제주도여행사의 NOU 성과로 제주에서 관광을 찾은 행객들 기념촬영 전남 광양시관광협의회가 지난해 12월 제주도 여행사, 국내여행안내사협회 등과 맺은 MOU 성과가 나타나고 있다. 2일 광양시관광협의회에 따르면 지난 5월 말 제주도 여행객 16명이 1박 2일 일정으로 광양여행을 즐겼다. 여행 코스는 광양 9경 9미를 중심으로 순천, 남해 등 전남 동부권과 남해안남중권협의회에 속해 있는 시군과 연계했다. 여행자들은 망덕포구, 이순신대교, 구봉산전망대, 서천꽃길, 느랭이골자연휴양림 등 광양 대표 관광지를 둘러보고 광양불고기, 닭숯불구이 등 광양의 맛을 한껏 즐겼다. 광양기정떡, 김부각 등 광양의 특산품 구매 기회도 놓치지 않았다. 한 여행자는 “1년에 한 번씩은 반드시 딸과 여행을 하는데, 지난 광양여행이 인상적이어서 딸과 함께 꼭 다시 오고 싶었다”고 밝혔다. 이어 “혼자만 먹기엔 아까웠던 광양음식을 딸과 함께 먹을 수 있어 흐뭇했고, 친절한 안내도 마음에 들어 뜻깊고 행복한 여행이 됐다”며 만족을 표했다. 박순기 관광과장은 “코로나19가 사그라들고 여행이 다시 활발해지면 제주도 여행사들과 등과 맺은 MOU 성과느가 더욱 커질 것으로 기대하고 있다”고 말했다. 한편 광양시관광협의회는 관광사업자, 관광 관련 사업자와 단체, 시민단체 및 시민 등이 지속 가능한 지역관광 활성화를 위해 조직한 비영리 민간 주도 협의체로, 민관협력 거버넌스 체제로 운영된다. 지난해 10월, 발기인대회와 창립총회를 거쳐, 올 1월부터 본격 운영되고 있으며 문체부‘지역관광 추진조직(DMO) 육성지원’ 공모사업에 선정되는 등 실행역량을 확대하고 있다. 저작권자 © 투어코리아 - No.1 여행·축제 뉴스 무단전재 및 재배포 금지 김지혜 기자 다른기사 보기 페이스북 트위터 카카오스토리 카카오톡 URL복사 기사공유하기 당신만 안 본 뉴스 "거 참 재밌네!"...오감이 흥겨운 안동국제탈춤페스티벌 10월엔 경남 축제·문화 따라 가을여행! 올 가을, 우리는 ‘백제문화제 판타지아’에 빠진다 부여의 맛·멋·흥 100% 즐기는 법 11~12월엔 초특가 항공권으로 일본·베트남·필리핀 알뜰여행을! 풍자와 해학 '음성품바축제' 관람객 북적 서울여행 인기...일본 최대 관광박람회서 서울홍보관 북적북적 "거 참 재밌네!"...오감이 흥겨운 안동국제탈춤페스티벌 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요 에디터 초이스 ENTERTAINMENT ‘제2의 우영우’로 불리는 차기작 위해 연기대상 배우가 내린 결단 ENTERTAINMENT ‘김치 싸대기’ 맞고 대박났던 배우가 8년 만에 공개한 당시 상황 ENTERTAINMENT 새 드라마 촬영 중인 수지, 길거리에서 포착된 모습에 난리난 이유 BIZ 기아 쏘렌토 PHEV, 미국 가격은 7천만 원부터 시작 ENTERTAINMENT 내 꿈은 농구스타! 스크린이 아닌 코트에서 만날 뻔했던 배우들 TRIP 교동도의 새로운 이유, 강화 화개산 모노레일 ENTERTAINMENT 김정현, '가스라이팅 논란' 후 복귀작 '꼭두의 계절'...김정현의 계절 만들까 FOOD Find Dining | 엄선한 가을 보양식 투어코리아 Cover 145호 2022-10-01 구독신청 지난호보기 기사제보 광고문의 기자회원 신청 투어코리아 SNS 주요기사 정조의 효심과 부국강병 꿈 227년 부활...수원화성문화제 7일 개막 거대 수호신 '진묘수', 공주시 금강에 떴다...인기 만발 고양시, 제20회 대한민국막걸리 축제’ 8~11일개최 대전시, ‘대전 0시 뮤직페스티벌’7~10일 열려 폐광지역 4개 시군 잇는 '운탄고도1330 걷는 길' 개통! 매혹적인 휴양지 발리서 보내는 오붓 달콤한 허니문! 투어코리아가 만난사람 [인터뷰] 박일호 밀양시장 “관광객이 감동하는 밀양 만들기 위해 고민” 국내축제 정조의 효심과 부국강병 꿈 227년 부활...수원화성문화제 7일 개막 세계축제 진정한 미식가 축제 ‘싱가포르 푸드 페스티벌’ 팬데믹 이후 첫 대면 개최 국내여행 울산 태화강에서 ‘물억새군락지' 생태관광 즐겨요! 테마여행 올가을, 댕댕이와 크루즈 여행떠나요! 아시아 인스타그램 ‘좋아요’ 부르는 '힙한 홍콩 카페' 어디? 유럽 가을 낭만 더하는 이스탄불의 거리 탑3 미국·캐나다·중남미 배우 이기우 추천 캘리포니아 펫 프렌들리 여행지, '아빌라 비치' 중동·아프리카 로맨스 인 두바이? 사막에서 별빛 샤워, 관람차에서 야경 만끽! 오세아니아 '럭셔리 항공 투어'로 호주의 대자연 색다르게 즐겨봐! 전문가칼럼 [119기고] 공동주택 화재 안전은 피난설비 올바른 숙지부터 시작 최신뉴스 정조의 효심과 부국강병 꿈 227년 부활...수원화성문화제 7일 개막 거대 수호신 '진묘수', 공주시 금강에 떴다...인기 만발 고양시, 제20회 대한민국막걸리 축제’ 8~11일개최 대전시, ‘대전 0시 뮤직페스티벌’7~10일 열려 폐광지역 4개 시군 잇는 '운탄고도1330 걷는 길' 개통! 포토뉴스 정조의 효심과 부국강병 꿈 227년 부활...수원화성문화제 7일 개막 거대 수호신 '진묘수', 공주시 금강에 떴다...인기 만발 고양시, 제20회 대한민국막걸리 축제’ 8~11일개최 대전시, ‘대전 0시 뮤직페스티벌’7~10일 열려 인기뉴스 1 "거 참 재밌네!"...오감이 흥겨운 안동국제탈춤페스티벌 2 10월엔 경남 축제·문화 따라 가을여행! 3 올 가을, 우리는 ‘백제문화제 판타지아’에 빠진다 4 부여의 맛·멋·흥 100% 즐기는 법 5 11~12월엔 초특가 항공권으로 일본·베트남·필리핀 알뜰여행을! 6 풍자와 해학 '음성품바축제' 관람객 북적 7 서울여행 인기...일본 최대 관광박람회서 서울홍보관 북적북적 8 풍성한 가을축제로 부산 매력에 빠져봐요! 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 법인명 : (주)태건미디어 사업자 등록번호 : 105-87-36240 서울특별시 종로구 송월길 136 301호 발행·편집인 : 유경훈 청소년보호책임자 : 조성란 대표전화 : 02-326-0002 이메일 : webmaster@tournews21.com 투어코리아 정기간행물 등록번호 : 종로 라 00420 등록일 : 2009-12-14 투어코리아뉴스 인터넷신문 등록번호 : 서울 아 03491 등록일 : 2014-12-18 발행일 : 2014-12-18 투어코리아 - No.1 여행·축제 뉴스 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 투어코리아 - No.1 여행·축제 뉴스. All rights reserved. mail to webmaster@tournews21.com 위로</t>
+    <t>코로나 시대, 제주도 관광 수칙을 알려드립니다 : 사회일반 : 사회 : 뉴스 : 한겨레 본문 바로가기 광고 전체메뉴보기 전체 정치 정치일반 대통령실 국회·정당 행정·자치 국방·북한 외교 정치BAR 사회 사회일반 여성 노동 환경 장애인 인권·복지 의료·건강 미디어 궂긴소식 인사 엔지오 교육 종교 한겨레아카이브 전국 전국일반 제주 호남 영남 충청 강원 수도권 경제 Weconomy 경제일반 금융·증권 산업·재계 자동차 부동산 쇼핑·소비자 IT 직장·취업 중기·스타트업 기업PR 글로벌워치 국제 국제일반 해외토픽 아시아·태평양 미국·중남미 유럽 중국 일본 중동·아프리카 국제기구·회의 국제경제 문화 문화일반 영화·애니 방송·연예 여행·여가 음악·공연·전시 학술 책&amp;생각 제주&amp; 스포츠 스포츠일반 축구·해외리그 야구·MLB 골프 바둑 올림픽 경기일정 경기결과 미래과학 미래 과학 기술 환경 시각 애니멀피플 야생동물 반려동물 농장동물 인간과동물 생태와진화 기후변화&amp; 기후정책 기후행동 기후과학 기후적응 에너지와기후 기후와사회 오피니언 사설 칼럼 왜냐면 포토에세이 옵스큐라 만화 | ESC | 한겨레S | 한겨레 데이터베이스 | 뉴스그래픽 | 연재 | 이슈 | 함께하는교육 | HERI 이슈 | 탐사보도 | 서울&amp; 스페셜 물바람숲 휴심정 미래 창 기찬몸 사진마을 베이비트리 기후이야기 포토 화보 포토스페셜 최신포토뉴스 카드뉴스 한겨레TV 편성표 한겨레TV 소개 알려드립니다 광고·후원 문의 전체 프로그램 뉴스서비스 많이본기사 날짜별한겨레 지난톱기사 디지털초판 RSS서비스 기사제보 기사투고 매거진 한겨레21 씨네21 이코노미인사이트 사업 한겨레휴센터 한겨레테마여행 한겨레패키지여행 전체메뉴닫기 오피니언 연재 한겨레TV 포토 EN 日本 中文 한겨레21 씨네21 이코노미인사이트 로그인 회원가입 구독신청 한겨레 세상을 바꾸는 벗 후원하기 서비스 메뉴 뉴스레터 감사원 ‘위법감사’ [단독] 감사원, 국민감사본부 만들어 한 일이 ‘KBS 감사’ 뿐 [포토] 감사원 국감 파행…자리 뜨는 김도읍 법사위원장 ‘문자 내통’ 유병호 “송구스럽지만, 그 소통은 정상적인 것” 감사원 국감, 10분 만에 파행…“감사방해!” “착하게 살라” 고성 오가 [단독] “대통령 지원기관”이라는 감사원장, 직원들 해명 요청 거부민주 “‘문자내통’ 캐겠다…이관섭·감사위원 전원 국감 나와야”서해 사건 감사 위법성 논란, 법조계도 “직권남용·강요죄 소지”민주, ‘대감 게이트’ 공세…“권권유착 공수처가 수사하라” 관련 이슈&amp;연재 아베, 피격 사망숨&amp;결세상읽기편집국에서 한겨레S “국가가 정한 말 아니면 틀렸다니” 표준어 없애는 거 어때요? 김정은의 마지막 친서에 등장한 두번의 ‘바보’ 스스로 ‘파묻은’ 윤 대통령, 제발 좀 정치 하는 걸 보고 싶다 ‘피부 안부’ 묻지 마세요…아토피안, 차별·몰이해를 말하다 아름다운 일과 먹고사는 일…감정노동·공짜노동 ‘살아내기’‘환경부=산업부 2중대’ 비아냥 왜?뒤집고 뒤집는 ‘김현숙 여가부’…다음주엔 뭘 뒤집을까울트라스텝, 그게 뭔데? ‘악의 근원’ 고물가를 잡아라 관련 이슈&amp;연재 뉴스AS북 핵실험·미사일 발사멈춰, 직장갑질 성한용의 정치 막전막후 여가부 없애는 정부 ‘일제고사’ 부활 선언…윤 대통령 “원하는 모든 학교 참여” [사설] 고조되는 민생·북핵 위기, 협치로 해법 찾으라 윤 대통령, ‘친일 논란’에 “핵 위협에 어떤 우려 정당화될 수 있나” ‘여가부 폐지’ 여성계 입장 들었다…‘반대 단체’는 빼고 외신들도 비판하는 여가부 폐지…“윤 대통령의 ‘여성 지우기’”윤 대통령 지지율 32%…‘매우 잘못 하고 있다’ 59.6% [리얼미터]‘윤석열차’ 애초 국힘이 시작…‘구둣발’ 부메랑까지 8개월이재명, 여가부 폐지 반대…민주 “이대남 결집, 정쟁 유발 의도” 관련 이슈&amp;연재 아베, 피격 사망숨&amp;결세상읽기편집국에서 책과 생각 비관주의자 김연수의 ‘변심’ “누군가를 기억할 때 바뀐다” 몸은 위태롭다…그래서 변화를 이끌 힘이 있다 나랏말싸미 일본과 다른데…일본어사전 베낀 국어사전, 괜찮나 우리에게 꼭 이름이 필요한가요 허구와 비허구의 교점에서 작가는 무엇을 발견했나당신의 뇌를 읽고 싶다‘균질적 단일언어’ 향해 달려온 우리말 형성사국제정치·외교안보 너머 ‘평화 다원주의’ 관련 이슈&amp;연재 짬황진미의 TV 새로고침정혜윤의 새벽세시 책읽기정인경의 과학 읽기 국민의힘 권력투쟁 ‘성접대 의혹’ 이준석 2차 경찰 조사…증거인멸 교사 조만간 결론 안철수 잡는 김기현, 김기현 때리는 윤상현… 벌써 시작된 당권경쟁 이준석 털어낸 국힘 ‘당권경쟁’…이재명 견제·중도 확장 “내가 적임” 이준석, ‘이순신 출정사’ 언급하며 “탈당 말라”…창당 선긋기 이준석 “누구도 탈당 말라”…이순신 ‘정중여산’ 인용해 첫 입장출마길도 막힐라…이준석 간다는 ‘외롭고 고독한 제 길’은 어디인가하태경 “이준석 윤리위 징계는 정치보복…가처분은 국민 기본권”고립무원 이준석…국힘 윤리위, ‘당원권 정지 1년’ 추가 징계 관련 이슈&amp;연재 아베, 피격 사망숨&amp;결세상읽기편집국에서 미래&amp;과학 인류가 가장 가까이서 본 유로파, 뒤얽힌 얼음 능선 너머엔… ‘지구방어’ 실험, 160m 소행성 충돌에…5만㎞ 먼지꼬리가 생겼다 지구 감싼 피부는 “사람 피부보다 얇다”…경이로운 3겹의 층 누리호 기술 이전 우선협상 기업은 한화에어로스페이스 야식 먹으면 낮에 더 배고프다…비만 부르는 3중 연결고리재난을 경험한 우리는 다른 사람이 된다, 강제로다음 팬데믹 주인공도 ‘변신의 귀재’ RNA 바이러스다돼지의 심장, 인쇄된 혈관이 장기 부족 해결할 수 있을까? 관련 이슈&amp;연재 곽노필의 미래창김준혁의 의학과 서사전치형 과학의 언저리박상준의 과거창 기후변화 오늘 ‘가을 추위’…모레 5도 “얼음 얼고 서리 내리는” 곳도 32만가구 전기·가스 지원 못 받는다…“윤 대통령 약속과 어긋나” 앞서기는커녕 떠넘기기 ‘환경부=산업부 2중대’ 비아냥 왜? 권성동, 4시간 만에 내놓은 해명 “‘혀 깨물고 죽지’, 내 의지 표현” ‘탈석탄법’ 5만명 입법 청원…“최소 신규 석탄발전 철회”‘원전 안전’ 시정 요구에도 8년째 그대로 왜?‘생태법인’을 아시나요?…제주 남방큰돌고래, 법적 권리 논의 시동‘탈석탄법’ 5만명 입법 청원…“최소 신규 석탄발전 철회” 관련 이슈&amp;연재 아베, 피격 사망숨&amp;결세상읽기편집국에서 광고 본문 광고 사회사회일반 코로나 시대, 제주도 관광 수칙을 알려드립니다 등록 :2021-06-25 20:05수정 :2021-06-26 11:02 허호준 기자 사진 허호준 기자 구독 구독중 페이스북 트위터 카카오 링크 스크랩 프린트 글씨 키우기 가 가 가 가 가 [토요판] 친절한 기자들 지난 22일 제주시 협재해수욕장은 피서객들로 붐볐다. 허호준 기자 지난 22일 오후 4시 제주시 애월읍 한담마을을 찾았습니다. 해안이 예쁘고, 아기자기한 유명 카페들이 많아 관광객의 발길이 이어지는 곳입니다. 이곳에서 바라보는 저녁노을은 일품이지요. 이날 한담마을 진입로변 일주도로 양쪽으로 렌터카들이 무질서하게 세워져 있었습니다. 차들이 뒤엉키고, 그 사이로 삼삼오오 한담마을을 오가는 관광객들이 줄을 이었습니다. 내친김에 곽지해수욕장을 거쳐 협재·금릉해수욕장까지 다녀왔습니다. 안녕하세요. 제주도의 모든 것을 취재하는 전국팀 허호준입니다. 23일에는 제주시 동쪽의 함덕과 월정해수욕장을 다녀왔습니다. 해수욕장마다 주변 주차장에는 렌터카들이 가득했고, 마스크를 벗고 햇빛을 받아내는 피서객들도 눈에 띄었습니다. 카페와 해수욕장에서는 관광객들이 저마다 멋진 표정으로 기념사진을 찍기에 바쁜 모습이었습니다. 지금 제주도는 관광객들로 넘쳐납니다. 제주도관광협회의 통계만 보더라도 내국인 기준으로 18일 4만1288명, 19일 4만930명, 20일 4만1335명, 21일 4만1480명이 제주를 찾은 것으로 집계됐습니다. 주 후반부터 주 초반까지는 하루 4만여명 이상이 제주공항을 통해 들어옵니다. 제주공항은 관광객들로 붐비고 있습니다. 사회적 거리두기가 완화되지 않았는데도, 제주지역은 코로나19 시대 이전의 관광세를 회복해가고 있습니다. 다음달부터는 완화된 새로운 사회적 거리두기가 시행됩니다. 정부의 방침에 따라 다음달 1일부터는 비수도권 지역에서는 인원 제한 없는 모임이나 회식이 가능해지고 마스크 착용도 완화될 것으로 보입니다. 이 때문에 지방자치단체들의 고민이 깊어지고 있습니다. 제주도도 마찬가지입니다. 모임이나 회식이 완화되고 코로나19 예방 백신 접종 인구가 늘어나면서 단체나 가족 단위 관광객이 어느 때보다도 많이 제주도에 몰릴 것으로 보입니다. 제주도의 입장에서는 사회적 거리두기 완화를 마냥 기뻐할 수는 없습니다. 지난해 제주지역의 코로나19 확진자는 다른 지역에 견줘 상대적으로 적었지만 올해는 관광객이 늘면서 지역감염으로 확산하고, 5~6월에는 확진자 수가 연일 두 자릿수를 넘기도 했습니다. 이 때문에 제주도는 이달 초순 제주도민 우선 백신 접종을 정부에 건의했을 정도입니다. 그렇다고 도민의 피로도가 큰 시점에서 지금처럼 모임을 금지하고 영업시간을 계속해서 제한할 수도 없습니다. 이달 초순 관광객들이 붐비는 제주공항. 허호준 기자 올해 들어 지난 18일까지 제주를 찾은 내국인 관광객은 500만명이 넘었습니다. 지난해 같은 기간보다 100만명이 더 제주를 방문했습니다. 이 추세대로라면 올해 1천만명은 넘을 듯합니다. 코로나 시대인데도 말입니다. 제주지역 관광업계는 정부의 사회적 거리두기 완화에 기대를 걸고 있습니다. 국내 여행 패키지 상품 등을 준비하는가 하면 전세버스업계는 탑승 인원(20명) 제한을 풀어달라고 건의하고 있습니다. 지역상권들도 사적 모임 인원과 영업시간 제한이 풀리기를 기대합니다. 제주도는 코로나19의 재확산을 우려합니다. 이 때문에 제주도는 이달 말까지 사회적 거리두기 2단계를 시행하고, 다음달에도 ‘실외 노마스크’를 적용하지 않기로 했습니다. 제주도민이나 관광객들은 백신 접종 2주가 지나도 제주도 내에서는 반드시 마스크를 쓰고 다녀야 합니다. 제주도 관계자의 말을 들어보면, 올해 여름에는 많은 관광객이 밀려올 것으로 예상되기 때문에 여름휴가철이 끝나는 8월 말까지는 실외에서도 반드시 마스크를 착용해야 한다고 합니다. 새로운 거리두기가 적용되는 비수도권은 모임에 인원 제한이 없게 되지만, 제주지역은 관광객 유입에 따른 유동인구가 많아 이보다는 강화된 자체 지침을 시행하는 방안도 검토하고 있습니다. 피서객이 몰리는 제주도 내 해수욕장에서는 개장 시간을 제한하고 야간개장을 하지 않기로 했습니다. 음주와 취식을 금지하는 안내문도 설치할 계획입니다. 하지만 얼마나 방역수칙이 잘 지켜질지는 미지수입니다. 제주시내 휴식 공간인 탑동광장은 영업시간이 끝난 뒤 주민과 관광객들이 모임과 술판을 벌이는 바람에 코로나19 확산 우려가 해소될 때까지 아예 폐쇄했을 정도입니다. 파티에 참석할 관광객을 모집하는 제주도 내 게스트하우스들도 있더군요. 기사를 쓰는 동안 서울에서 오신 관광객 2명이 코로나19에 확진됐다는 문자메시지가 들어왔습니다. 어제(23일)도 관광객 1명이 확진됐고요. 이들은 확진자의 접촉자로 분류돼 제주에 관광 온 뒤 진단검사를 받고 확진 판정을 받았습니다. 사회적 피로도 때문인지 요즘은 하루 10~20명의 확진자가 나와도 거리에서는 지난해 이맘때만큼 긴장감은 보이지 않습니다. 그러나 코로나19는 사람들의 그런 피로감을 생각해주지 않겠지요. 올해 여름휴가철이나 방학 때 제주를 찾을 예정이세요? 관광객도 즐겁고 제주도민도 안전한 제주 관광이 되기 위해서는 철저하게 개인 방역수칙을 지키는 수밖에 없습니다. 허호준 ㅣ 전국팀 기자 hojoon@hani.co.kr 연재[한겨레S] 친절한 기자들 “손발 노동은 아프리카나 하는 것” 윤석열 안동대 발언 깊게 들여다보니 &lt;한겨레&gt; 토요판이 다음주 시즌2로 새롭게 단장합니다 한강 사망사건 석달…‘비뚤어진’ 정의의 이름으로 항상 시민과 함께하겠습니다. 한겨레 구독신청 하기 진실을 후원해주세요 용기를 가지고 끈질기게 기사를 쓰겠습니다. 여러분의 후원이 우리 사회에 드리운 어둠을 거둡니다. 후원하기 후원제 소개 두근거리는 미래를 후원해주세요 소외 없이 함께 행복한 세상을 위해 노력하겠습니다. 여러분의 후원이 평등하고 자유로운 사회를 만듭니다. 후원하기 후원제 소개 광고 광고 &gt;Please activate JavaScript for write a comment in LiveRe. 광고 사회 많이 보는 기사 1. [단독] “대통령 지원기관”이라는 감사원장, 직원들 해명 요청 거부 2. ‘왼발로 브레이크’ 양발운전…“면허 뺏어야” vs “더 안전” 3. [단독] ‘경찰국 반대 총경회의’ 주도한 류삼영, 경징계 가닥 4. ‘급식 노동자’ 첫 정년퇴임…“나도 전문직” 하영숙의 긍지 5. [영상] 단상 뛰어올라 폭력 휘두른 보수단체…혐오 판 깔아준 교육부 한겨레와 친구하기 매일 아침, 매주 목요일 낮 뉴스의 홍수에서 당신을 구할 친절한 뉴스레터를 만나보세요 데일리 H:730 구독 위클리 h_weekly 구독 한겨레 공식 인스타그램 Follow @hanitweet 전체기사RSSRSS페이지 목록 한겨레앱 1/ 2/ 3 서비스 전체보기 전체 정치 정치일반 대통령실 국회·정당 행정·자치 국방·북한 외교 정치BAR 사회 사회일반 여성 노동 환경 장애인 인권·복지 의료·건강 미디어 궂긴소식 인사 엔지오 교육 종교 한겨레아카이브 전국 전국일반 제주 호남 영남 충청 강원 수도권 경제 Weconomy 경제일반 금융·증권 산업·재계 자동차 부동산 쇼핑·소비자 IT 직장·취업 중기·스타트업 기업PR 글로벌워치 국제 국제일반 해외토픽 아시아·태평양 미국·중남미 유럽 중국 일본 중동·아프리카 국제기구·회의 국제경제 문화 문화일반 영화·애니 방송·연예 여행·여가 음악·공연·전시 학술 책&amp;생각 제주&amp; 스포츠 스포츠일반 축구·해외리그 야구·MLB 골프 바둑 올림픽 경기일정 경기결과 미래과학 미래 과학 기술 환경 시각 애니멀피플 야생동물 반려동물 농장동물 인간과동물 생태와진화 기후변화&amp; 기후정책 기후행동 기후과학 기후적응 에너지와기후 기후와사회 오피니언 사설 칼럼 왜냐면 포토에세이 옵스큐라 만화 | ESC | 한겨레S | 한겨레 데이터베이스 | 뉴스그래픽 | 연재 | 이슈 | 함께하는교육 | HERI 이슈 | 탐사보도 | 서울&amp; 스페셜 물바람숲 휴심정 미래 창 기찬몸 사진마을 베이비트리 기후이야기 포토 화보 포토스페셜 최신포토뉴스 카드뉴스 한겨레TV 편성표 한겨레TV 소개 알려드립니다 광고·후원 문의 전체 프로그램 뉴스서비스 많이본기사 날짜별한겨레 지난톱기사 디지털초판 RSS서비스 기사제보 기사투고 매거진 한겨레21 씨네21 이코노미인사이트 사업 한겨레휴센터 한겨레테마여행 한겨레패키지여행 회사소개 구독신청 광고안내 채용 기사제보 투고 고충처리 고객센터 face book twitter 사이트 운영 저작권 회원약관 개인정보취급방침 지적재산보호정책 이메일주소 무단수집거부 사이트맵 한겨레 가족 하니누리 한겨레출판 한겨레경제사회연구원 한겨레교육문화센터 한겨레통일문화재단 사람과디지털연구소 한겨레신문 등록번호:서울,아01705 등록일자:2011-7-19 사업자등록번호:105-81-50594 발행인:김현대 편집인:백기철 청소년보호책임자:백기철 주소:서울특별시 마포구 효창목길 6 고객센터:1566-9595 Copyright ⓒ The Hankyoreh. All rights reserved. 뉴스레터, 올해 가장 잘한 일 구독신청 일주일 그만보기 닫기</t>
+  </si>
+  <si>
+    <t>제주도, 2021 서울국제관광박람회서 2관왕 달성 쾌거 &lt; 경제 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 경제 최종편집 2022-10-11 (화) 14:38 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 본문영역 이전 기사보기 다음 기사보기 제주도, 2021 서울국제관광박람회서 2관왕 달성 쾌거 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제 제주도, 2021 서울국제관광박람회서 2관왕 달성 쾌거 기자명 신승은 기자 입력 2021.06.28 15:21 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주도가 지난 24~27일까지 서울 코엑스에서 열린 2021 서울국제관광박람회에서 2관왕을 수상하는 영광을 차지했다. 특히 이번 박람회에 참여한 제주관광홍보관은 최우수 인기부스상을 수상했다. 제주도관광협회가 운영한 제주관광홍보관은 청정하고 안전한 제주여행 홍보 및 탐나오 연계 이벤트 등을 추진해 관람객에게 큰 호응을 얻었다. 또 부대행사로 진행된 B2B 사업설명회에서 열린 '제주여행 트렌드 토크 콘서트'는 베스트 프레젠테이션상을 수상했다. 협회 관계자는 "올해 하반기 개최되는 관광박람회에 참가하고 권역별 제주관광 설명회를 개최하는 등 다양한 제주관광 홍보를 펼칠 예정"이라고 말했다. 신승은 기자 신승은 기자 cococo7272@naver.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 제주대병원 권역정신응급의료센터 개소 [본사내방] 2022년 10월 11일 한경농협, 취약계층 주택용 소방시설 기증 제주, 서울대 지역균형전형 비율 2.4%...전국 최하위 제주타요렌터카, 매월 국·내외 아동에 정기 후원 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 [제민포럼] 테슬라와 한라산소주 5 일본시장 활짝 제주관광 기대감속 우려도 6 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 7 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 8 장 발장 이야기 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>대한민국 관광1번지 제주도에 ‘태권도원’ 광고 뜬다! 공지사항 무카스 리뉴얼에 대한 의견을 남겨주세요&gt; 홈 뉴스 방송 커뮤니티 토론마당 무술지식 무림여론 게시판 중고매매 홍보광장 대회및행사 쇼핑몰 구인/구직 체육관매매 무카스를 시작페이지로 홈 뉴스 방송 커뮤니티 쇼핑몰 구인/구직 대회및행사 체육관매매 홍보/중고매매 회원가입 l 로그인 뉴스홈 전체뉴스 기획/연재 칼럼/기고 포토뉴스 영상뉴스 동정/행사 기록실 태권도 MMA 전통무예 일반무예 라이프 종합 대한민국 관광1번지 제주도에 ‘태권도원’ 광고 뜬다! 발행일자 : 2021-06-28 18:53:21수정일자 : 2021-06-28 18:54:18 [한혜진 / press@mookas.com] 0 태권도진흥재단, 제주특별자치도와 업무협약 통해 광고 후원받기로 2008년 태권도원 개원식을 앞두고 인천공항 멀티 큐브에 방영되고 있는 태권도원 홍보동영상이 소개되고 있다. 대한민국 관광 1번지 제주도에서 태권도를 더욱 친숙하게 만나게 될 전망이다.  코로나19 이전 연간 1천3백만 명 이상이 방문하는 제주공항에 태권도원 광고가 소개된다. 뿐만 아니라 유명 관광지에서도 광고가 선보일 예정이다.  이는 태권도진흥재단(이사장 오응환)이 28일 오후 국기 태권도 활성화를 위해 광역자치단체 중 제주특별자치도와 첫 업무협약을 맺은 성과다.  태권도진흥재단 오응환 이사장은 28일 여의도에 위치한 제주도 서울본부에서 원희룡 도지사와 만나 국기 태권도 진흥 및 보급을 위한 노력, 상호 주요사업 홍보 등에 대한 업무협약을 맺었다. 이 협약으로 제주도는 국내외 수천만 명이 찾는 제주공항을 비롯해 도에서 관리하는 유명 관광지 등 광고판에 태권도원 광고를 무료로 상영하기로 한 것이다. 수억, 수십억원여 가치의 광고를 유명 관광지에 상영해 태권도와 태권도원을 홍보할 절호의 기회를 얻은 것이다.  이 광고를 본 외국인에게는 태권도가 국기인 종주국임을 알려 우리나라 방문에 대한 기대감을 유도하고, 내국인에게는 태권도에 대한 강한 자부심을 갖게 하는 긍정적인 효과로 작용할 것으로 보인다. 이번 협약은 앞서 지난 지난 5월 21일 태권도원(전북 무주군)을 방문한 원희룡 제주특별자치도지사에게 국기 태권도 활성화를 위한 진흥재단과 함께 하자는 오응환 이사장의 제안을 원희룡 지사가 화답하며 진행하게 되었다.태권도진흥재단 오응환 이사장(우)이 28일 여의도 제주 서울본부에서 제주특별자치도 원희룡 도지사와 상호 협력 업무협약을 맺었다. 업무협약식에서 원희룡 지사는 “제주특별자치도와 태권도진흥재단이 협력 관계를 맺게 되어 기쁘게 생각한다” 라며 “국기 태권도는 우리나라의 자랑거리이자 국민들의 자부심으로 한류 콘텐츠의 중심이자 자라나는 청소년들에게는 정신력과 체력, 협동심 등을 기를 수 있는 특별함이 있다”고 말했다.  이어 “제주특별자치도도 국기 태권도가 활성화되고 발전하는데 태권도진흥재단과 함께 노력하겠다”고 그 의지를 밝혔다. 이에 오응환 태권도진흥재단 이사장은 “연간 2천만명 이상의 관광객이 찾는 제주특별자치도가 국기 태권도 활성화에 함께 해주어 감사하다”라며 “태권도를 모태로 한 스포츠 외교 성과를 높일 수 있도록 지속적인 협력을 이어가고 특히 태권도에 대한 지속적인 관심과 애정을 부탁드린다”라고 말했다. 업무 협약을 마친 후 원희룡 지사는 “대한민국이여! 태권도의 힘으로 세계 중심에 서라”는 메시지를 송판에 작성 후 오응환 이사장에게 전달했다. 한편, 진흥재단은 앞으로 서울특별시와 강원도, 경상남도 등 다른 광역도시와 업무협약을 확대해 태권도원을 전국 곳곳에 홍보한다는 계획을 전했다.  [무카스미디어 = 한혜진 기자 ㅣ haeny@mookas.com]&lt;ⓒ무카스미디어 / http://www.mookas.com 무단전재 및 재배포 금지&gt; 한혜진 무카스미디어 편집장. 태권도 경기인 출신의 태권도-무술 전문기자. 이집트에서 KOICA 국제협력요원으로 26개월 활동. 20년여 동안 태권도를 통해 전 세계 46개국에 취재를 통해 태권도 보급 과정을 확인. 취재 이외 다큐멘터리 기획 및 제작, 태권도 대회 캐스터, 태권도 팟캐스트 등 진행. 늘 부족하지만 도전 중. #제주도 #제주특별자치도 #태권도원 #태권도진흥재단 #원희룡 #오응환 #광고 #홍보광고 0 관련 뉴스 제17대 국기원장! 선출 '주체가 완전히 바뀌었다! 태권도 '역사쓰기' 이 정도면 충분! 이제 '역사연구' 현대 태권도 역사의 도발과 발칙한 토론회, 무슨 일이 숨은 태권도원의 매력을 찾아라! 전국 초등학교 교사 대상 태권도 교육을 한다면? 댓글이 허용되지 않는 기사입니다. 댓글 작성하기 자동글 방지를 위해 체크해주세요. 댓글 남기기 AD 로그인 없이 댓글 등록 가능!! 다양한 지식 공유를 원한다면 '무카스 세미나' 인기기사 1제17대 국기원장! 선출 '주체가 완전히 바뀌었다! 2이동섭 국기원 원장 재선 "국기원의 새로운 역사 써 나가겠다” 3태권도 유네스코 등재 기원… 서울-베를린 북콘서트 열린다! 4무예인, 스포츠인을 위한 공제회 설립… 이제는 논의할 때! 5세계태권도연맹, 신임 사무총장에 서정강 내부 승진 임명 논쟁기사 1정체기 전통무예 새 활력소 찾을까? 2국기원장 선거 후보자마감… 역대 최다 9명 출마! 3[정준철 칼럼] 태권도장 고유 문화가 지닌 가치 4이동섭 전 원장, 국기원 선거 등록 후 출마 선언! 5이동섭 국기원 원장 재선 "국기원의 새로운 역사 써 나가겠다” 독자의견 10-10축하 합니다.임기중 세계 태권도의 본부인 국기원을 재 건축 해주시길 빕니다. 10-07품새선수들도 이제 경찰 특채가 생긴다고 하니 신기하고 기쁩니다. 이러한 변화를 몸소 느끼게되어서 신기합니다. 경찰청장기 대회는 겨루기만 있었는데 품새 경기도 생긴다니 품새계도 발전하는것같아 기쁩니다. 대중들에게 상대적으로 덜 알려진 품새 종목이다보니 발전과 알려짐이 필요합니다. 현재 사회는 인터넷 사회다보니 이전보다 보급이 편해졌지만 이만큼까지 알려졌다는게 기쁩니다 10-07대회장을 가게되면 불안감과 긴장을 해소하기 위해 평소보다 더 고강도 훈련을 하여서 대회 당일에 몸이 무거웠던 경험이 있었는데 과학적인 이유가 있었다니 신기할 따름입니다. 지금까지 몸이 혹사되는줄 모르고 운동 해왔고 정답인줄 알았지만 과거엔 품새 종목이 제대로 자리잡지 않았고 현대에 들어서면서 과학적이고 효율적인 운동법과 부상방지법이 나오기 시작하면서 태권도계가 점점 발전해갔으면 좋겠습니다 10-07원장선거, 현역사범님만 투표권 행사할수있게 규정이 있어야 합니다. 아직도 부족합니다. 이유: 국기원 운영위해 세금납부자임.문1. 국내,외국 단체추천자 48명도 투표하려면, 최근2년동안 단증신청자로 추천하면 공정함.문2. 단체추천자는 국내외 추천에서 제외시켜야, 2중투표가 발생치 못하여 공정함. / 현규정에 처벌규정 없음.문3. 국기원 지원팀에서 최근2년간 단증신청자 명단받은 선관위원등은 그 범위내에서 별도의 제3자가 "컴퓨타"에 입력 하면 공정 합니다. (이유 : 말단에 국기원 직원이 개입되면 부정발생 확율많고, 직원의 도움받은분이 원장되면, 그뒷배경 으로, 해외 고참 사범등에게 존경심 없습니다. (본인이 원장님인가요?)태권도수련때 예법을 배우지 못한자 같습니다. (예.22년 7월7월13일 접수, 7월28일 발부, 단증을 9월28일 받었습니다. 왜 발부후 받는날까지, 2개월 소유합니까 ?) 10-06현대사회에서 돈과 사업을 완전히 제거하고 특정 분야가 활성화 될 수 있나요??돈을 벌고 산업과 기업이 육성되는 것 자체가 썩어간다고 표현한다면, 자본주의 사회를 살아가는 우리 대한민국 국민들 모두가 썩어버린 인간들이겠네요.... 전통과 국민건강을 위한 개념 조차도 현대사회에서 자본이 배제되고 어떻게 추진될 수 있을까요? 현실을 완전히 외면한다고 해서 꼭 청렴하고 특별해지는 것이 아닙니다.... 제발 현실을 직시하세요.... 10-05절대로 필요합니다. 뭉치면 삽니다. 10-05대학 학위를 취득했다는것도 열심히 살았다는 증거 같은데 ?저 기자도 학위 취득한걸로 알고 있는데 ?자기 장점 내세우면, 호들갑 인건가 ? ㅋㅋㅋ호들갑은 본인이 떨고 있는듯.현실적으로, 대학 간판 달아서, 관원생 100명.안 달아서, 50명.어떤거 할래 ?누가 지도자들이 비싼 등록금 주고 대학, 대학원 가고 싶노 ㅋㅋ다 자기 발전을 위해서, 가는거지.지도자들이 학위 과정을 하는것도 열심히 살고 있는거다.학위 취득하는게 어디 싶나 ?결론적으로, 문제는 그 학교 출신이 아닌데, 허위로 학위를 표기하는게 문제인거다.그리고, 이 글 적은 사람의 모순된 점이, 대학 간판 문제라고 글 적어놓고, 그 문제의 대학 태권도학과 취재는 왜 그렇게 다니나 ? 문제의 대학을 취재 다니면서, 소개하는것도 간접 홍보가 되고있다는건 생각이 안드는가 ? 본인도 일조하고 있네 ㅋㅋ 본인이나 잘하지 ㅋㅋ나도, 태권도 언론 기자들 취재해서 비판해도 되지 뭐. 10-05당신 닉네임에 당신을 말해준다 ㅋㅋ직업에 귀천 없지.태권도해서 경찰될바에, 태권도 안하고, 공부해서 경찰되는게 나을듯. 10-05아래 개척 사범님 글 중~다른 것은 모르겠지만 애국가 부분은 참~아주 옛날 초기에 그 곡에 애국가를 불렀다는 것은 알고 있지만~아직도 그런 줄 알고 있다니~지금 쯤 이 세상 분은 아니겠네요. 10-04용무도 참 좋은데 협회는 아직 있는건지요. 10-04무예진흥법을 반대하는 몇몇단체와 관장님들도 이제는 동참합시다. 큰 물을 잡아야 합니다. 작은물에 허우적 대지 맙시다. 후세에게 좋은 것을 물려줄때가 되었습니다. 10-04자기단체만 살자고 살아가는 무예단체장들이여 반성하자. 법도 제대로 시행못하는 문체부도 무능을 이제 멈추고 무예진흥을 위해 힘쓰자. 칼럼더보기 제17대 국기원장! 선출 '주체가 완전히 바뀌었다!역대 최다수의 후보들이 출마한 17대 국기원 원장 선거가 요즘 태권도계를  뜨겁게 달구고 있다.  투표 선거인단, 국내 태권도사범 840명, 해외 309명,밈원, 48명 등 총 1197명 정도 된다. 예전 몇몇 대의원에 의한 조직선거가 성행하던 시절에는 후보자들이 협회나 태권도기관의 임원들을 향해 바쁘게 발품을 팔며 선거전략을 짜던 시대였다. 그래서 당선이 된 뒤에도 그들과의 의 관계에 정성을 들였고 정작 태권도사범들에게는 냉소적으로 대하기 짝이 없 [정준철 칼럼] 태권도장 고유 문화가 지닌 가치변화는 중요하지만, 변화를 통해 모든 것이 나아지진 않는다. 인간은 얄팍한 상술보다 좀 더 거룩한 형태로 성장해야 할 것이다. 그것이 태권도를 통해 가능해지려면 조심스러운 이야기지만 태권도장 문화가 있었던 지난날의 형태가 그리고 지금도 누군가는 고집스럽게 지키고 있을 형태가, 그것이 자본시장에 있어 얼마나 큰 가치인지를 소비자에게 말할 수 있어야 할 것이다. 태권도의 역사에서 수박(手搏)과 태껸은 전혀 관련이 없다?양진방 교수는 맨손무예사를 말할 때 4가지 중요한 사실을 담론으로 제시한다. 첫째, 고구려고분벽화, 수박(手搏)의 대한 이야기, 무예도보통지와 권법, 그리고 마지막 넷째가 태껸의 형성이다. 태권도 '역사쓰기' 이 정도면 충분! 이제 '역사연구' 해야 하는 이유?오끼나와 무술이 삼별초에서 왔다는 주장이 틀리냐? 맞냐? 의 문제가 아니라 그렇게 주장하려면 우리는 삼별초의 역사 연구를 해야 한다. 그것 보다는 이제 역사쓰기는 이정도면 충분하니, 역사연구를 차분하게 해야 한다고 주장했다. 회사소개 사옥안내 인재채용 고객문의 이용약관 엠캐쉬정책 개인정보보호정책 이메일무단수집거부 (주)무카스 | MOOKAS | 경기도 파주시 회동길 495, 무카스사옥 301호 | 전화 : 일반 문의 : 031-937-8260(구인구직/체육관매매/온라인 서비스) | 광고 사업 문의 : 031-937-8208(무카스미디어, 광고, 업무 제휴 및 협약 등) | 팩스 : 무카스 대표 팩스 : 070-5133-7196 / 무카스플레이온 팩스 : 031-937-3207(미디어 및 광고 관련) | 경영지원 : 1004@mookas.com | 미디어 및 광고, 사업 관련 : haeny@mookas.com 대표이사: | 사업자등록번호: (주)무카스 130-86-32224(대표이사 이승환) | (주)무카스플레이온 260-86-02619(대표이사 한혜진) | 사업자등록정보 확인 | 통신판매업 : 제2016-경기파주-0783호 | 청소년 보호 정책 책임자: 한혜진 인터넷신문등록번호 : 경기 아51401 | 등록일 : 2007.05.03 | 발행인 : (주)무카스 이승환 | 편집인 : 한혜진 | 기사제보 : press@mookas.com | 카카오톡 : 무카스 Copyright ⓒ [2007] Culturemaker All rights reserved, The MOOKAS™ is a ® Registered Trademark. 모바일 화면</t>
+  </si>
+  <si>
+    <t>"롯데관광개발 주식 좋은 매수기회", 제주도 카지노와 호텔 순항 글로벌 Who is? 기업과산업 금융 시장과머니 시민과경제 정치·사회 인사이트 최신뉴스 검색 검색 닫기 기업과산업  소비자·유통 "롯데관광개발 주식 좋은 매수기회", 제주도 카지노와 호텔 순항 김지효 기자 kjihyo@businesspost.co.kr 2021-06-23 08:56:28 확대 축소 공유하기 롯데관광개발이 제주도 카지노 운영을 성공적으로 시작하면서 실적이 가파르게 증가할 것으로 전망됐다. 이기훈 하나금융투자 연구원은 23일 “제주도에 집중된 여행수요와 카지노 영업이 성공적으로 시작되면서 롯데관광개발의 가파른 성장이 예상된다”며 “최근 코로나19 변이 바이러스 확산 이슈로 10% 이상의 주가 조정이 나타나고 있는데 이럴 때가 좋은 매수기회다”고 바라봤다. ▲ 김기병 롯데관광개발 회장. 롯데관광개발은 11일 제주도 드림타워에 외국인 전용 복합카지노를 열었다. 11일부터 18일까지 카지노 하루 평균 입장객은 400여 명으로 파악됐다. 이 연구원은 “그랜드코리아(GKL)의 4~5월 방문객 수가 각각 3800명, 4천여 명인 점을 고려하면 롯데관광개발의 카지노는 소위 ‘오픈빨’임을 감안해도 매우 성공적으로 시작한 것이다”며 “카지노 하루 매출도 약 3억 원 수준으로 GKL의 4~5월 하루평균 매출에 근접한다”고 분석했다. 2022년부터 중국인 카지노 주요고객(VIP)의 입국이 가능해지면 카지노사업의 실적은 큰 폭으로 개선될 것으로 전망됐다. 호텔부문도 좋은 실적을 거두고 있는 것으로 파악됐다. 롯데관광개발은 올해 2분기 호텔부문에서 객실 5만 실 이상을 판매하면서 매출 250억 원 안팎을 낼 것으로 예상됐다. 이는 1분기 호텔부문 매출 110억 원과 비교해 2배가 넘는 수치다. 3분기에는 10만 실 안팎을 판매해 매출 500억 원 이상을 낼 것으로 전망됐다. 이 연구원은 "최근 제주도의 모든 호텔이 그렇듯 2분기 객실당 연평균 판매가격(ADR)은 약 27~28만 원으로 상승한 것으로 추정된다"며 "3분기 객실당 연평균 판매가격은 30만 원까지 상승할 것이다"고 바라봤다. 이 연구원은 이번 리포트에서 롯데관광개발의 투자의견과 목표주가를 따로 제시하지 않았다. 롯데관광개발 주가는 22일 2만450원에 장을 마감했다. [비즈니스포스트 김지효 기자] &lt;저작권자(c) 비즈니스포스트 무단전재 및 재배포금지&gt; 김지효 기자의 다른기사보기 인기기사 삼성전자 파운드리 생산지 다변화 검토, 경계현 눈길은 유럽과 인도에 나병현 기자 윤석열 20대 지지율 대위기, 여가부 폐지 추진으로 '이대남' 마음 돌릴까 김남형 기자 쌍용차 중형SUV 토레스 판매호조, 곽재선 '전기차 전환' 든든한 기반 허원석 기자 대만 폭스콘 미국 생산 전기차 선보여, 애플 자율주행차 ‘애플카’ 예고편? 김용원 기자 키움증권 "SK바이오사이언스 목표주가 하향, 백신 생산 줄어 실적 부진" 임한솔 기자 댓글 (0) 등록 - 200자까지 쓰실 수 있습니다. (현재 0 byte / 최대 400byte) - 저작권 등 다른 사람의 권리를 침해하거나 명예를 훼손하는 댓글은 관련 법률에 의해 제재를 받을 수 있습니다. - 타인에게 불쾌감을 주는 욕설 등 비하하는 단어가 내용에 포함되거나 인신공격성 글은 관리자의 판단에 의해 삭제 합니다. 신문사소개 윤리강령 기사심의규정 인재채용 기사제보 광고문의 불편신고 이메일무단수집거부 청소년보호정책 개인정보처리방침 서울특별시 강남구 삼성로100길 15 명당빌딩 3-4층 대표전화 : 1800-6522 편집국 070-4010-8512 사업본부 070-4010-7078 팩스 : 070-4015-8658 등록번호 : 서울 아 02897 제호: 비즈니스포스트 등록일: 2013.11.13 발행·편집인 : 강석운 발행일자: 2013년 12월 2일 청소년보호책임자 : 강석운 ISSN : 2636-171X Copyright ? 2013 비즈니스포스트. All rights reserved. 열린보도원칙 당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다. 고충처리인 박상유 1800-6522 bspost@businesspost.co.kr</t>
+  </si>
+  <si>
+    <t>"[전문] 文대통령 “‘산티아고 순례길,’ 제주도 올레길 개척…관광 재개, 일상의 회복 촉진하는 일”"- 헤럴드경제 기후위기시계 × News 정치 경제 사회 국제 IT/과학 생활/문화 연예/스포츠 오피니언 지역뉴스 호남취재본부 대구&amp;경북 PR Newswire Special Section D;Con HeMil(밀리터리) Global Insight ●실시간 뉴스 기획기사 포토 신문구독 뉴스레터 대통령/ 청와대 [전문] 文대통령 “‘산티아고 순례길,’ 제주도 올레길 개척…관광 재개, 일상의 회복 촉진하는 일” 2021.06.17 18:44 한국·스페인, 상호방문의 해 1년 연장 “관광 재개 위한 국제적 협력 필요해” 스페인을 국빈 방문 중인 문재인 대통령이 17일(현지시간) 스페인 바르셀로나 산파우 병원에서 열린 한-스페인 관광산업 라운드테이블에 참석해 발언하고 있다. [연합][헤럴드경제=바르셀로나 공동취재단·서울 문재연 기자] 문재인 대통령은 17일(현지시간) “ 코로나로 가장 큰 타격을 입은 산업 중 하나가 관광산업”이라며 “여행과 관광이 재개돼야 국내 경제뿐 아니라 세계 경제 회복도 빨라질 수 있다”고 강조했다.스페인을 국빈 방문 중인 문 대통령은 이날 한·스페인 관광산업 라운드 테이블에 참석해 신종 코로나 바이러스 감염증(코로나19) 백신 접종이 활발해지면서 국제관광을 재개하기 위한 계획을 추진하고 있다며 이같이 밝혔다.문 대통령은 이날 지난해부터 올해까지인 한·스페인 상호 방문의 해를 1년 더 연장하는 양해각서(MOU)를 체결했다. 문 대통령은 “상호 우호를 증진하는 다양한 사업들이 추진되고, 인적 교류도 더욱 늘어날 수 있을 것”이라며 “오늘 함께하는 전문가와 기업인들도 양국의 관광과 교류확대에 중요한 역할을 해주리라 기대한다”고 했다.문 대통령은 “관광은 단순히 산업을 넘어 그 나라의 살아가는 모습과 정체성을 보여주며, 서로를 이해하는 길”이라며 “스페인과 한국이 앞장서 협력하고, 관광산업의 지속가능한 미래를 함께 열어가길 기대한다”고도 강조했다.이어 “스페인은 세계 2위의 관광대국이자 우리 국민이 많이 찾는 해외여행지”라며 “한국의 서명숙 씨는 50세 생일을 앞두고 삶을 돌아보기 위해 산티아고 순례길을 걸었다. 걷는 동안 ‘너는 너의 길을 만들어라’는 동행자의 말을 듣고 한국에 돌아와 제주도에 올레길을 개척했다”고 소개하기도 했다. 또 “한국에 대한 스페인 국민들의 관심도 커지고 있다”며 “K팝과 한국 영화, 한국 음식을 즐기는 스페인 국민이 많아지고 한국어를 배우고자 하는 열기가 높아져 매우 반갑다”고 스페인 방문 소회를 밝혔다.또 “코로나 이후 관광산업은 ‘인간과 자연의 공존’이라는 원칙 위에서 발전할 것”이라며 “탄소중립을 위한 관광의 녹색전환과 안전한 이동을 위한 국제공조, 비대면·디지털 시대에 대응한 관광산업의 혁신 등 관광산업의 지속가능한 미래를 위한 의미있는 논의가 이뤄지길 기대한다”고 했다.관광산업이 스페인과 한국의 국내총생산(GDP)에서 차지하는 비중은 각각 12%와 2.5%다. 코로나19가 발발하기 직전인 2019년 기준 스페인을 방문한 한국인은 약 63만 명이다. 〈문재인 대통령 한 스페인 관광 라운드 테이블 연설 전문〉 한국과 스페인을 대표해 참석해주신 관광산업 전문가와 기업인 여러분,스페인에서 여러분을 만나게 되어 더욱 반갑습니다.‘한-스페인 관광산업 라운드테이블’을 마련해주신 레예스 로토 스페인 산업통상관광부 장관님,황희 한국 문화체육관광부 장관님과 관계자 여러분의 노고에 깊이 감사드립니다.인류의 몸속에는 여행의 DNA가 새겨져 있습니다.낯선 곳에서 경외감을 느끼면서도,새로운 만남과 경험을 두려워하지 않고 인류는 발전해왔습니다.여행은 자신을 돌아보며 삶에 풍요로움과 깊이를 더해줍니다.휴식을 주고 지혜를 넓힐 뿐 아니라세계가 서로를 이해하는 데 중요한 계기가 됩니다.그러나 코로나로 여행의 즐거움을 뒤로 미룰 수밖에 없었습니다.코로나로 가장 큰 타격을 입은 산업 중 하나가 관광산업입니다.2019년 14억 6000만 명을 넘었던 세계의 관광객이코로나로 인해 2020년 3억 9000만 명으로 줄었습니다.한국 역시, 2019년 1700만 명이었던 방한 관광객이2020년에는 250만 명으로 감소하며,항공뿐 아니라 여행업, 숙박, 외식산업 모두 어려움을 겪고 있습니다.관광산업은 전 세계적으로 에너지, 화학에 이은 세 번째 수출 분야입니다.‘굴뚝 없는 공장’, ‘보이지 않는 무역’이라고 불리며일자리를 만들어 냅니다.스페인에서는 12%, 한국에서는 2.5%국내총생산에 기여할 정도로 비중이 큽니다.또한 연관 산업에 파급효과가 큰 고부가가치 산업이며수많은 비즈니스가 현장방문과 만남으로 이뤄지고 있어,여행과 관광이 재개되어야 국내 경제뿐 아니라 세계 경제 회복도 빨라질 수 있습니다.다행히 세계 각국에서 코로나 백신 접종이 확대되고, 국가 간 이동 제한을 완화하기 위한 움직임도 활발해지고 있습니다. 국제적으로 백신 접종 증명을 활용하는 방안이 논의되고, 일부 국가 간에는 여행안전권역이 시작되었습니다.한국도 여행안전권역 추진방향을 발표하며,국제관광을 재개하기 위한 계획을 추진 중에 있습니다.여행과 관광을 위한 국제적 협력은관광산업의 재개뿐 아니라 일상의 회복을 촉진하는 일입니다.관광은 단순히 산업을 넘어 그 나라의 살아가는 모습과 정체성을 보여주며 서로를 이해하는 길이기도 합니다. 스페인과 한국이 앞장서 협력하고,관광산업의 지속가능한 미래를 함께 열어가길 기대합니다.스페인은 세계 2위의 관광 대국이자, 우리 국민이 많이 찾는 해외 여행지입니다.코로나 직전인 2019년에는 63만 명의 한국 국민이 만 킬로미터나 떨어져 있는 스페인을 찾았습니다.한국인은 스페인을 좋아합니다.많은 사람이 〈돈키호테〉를 읽고, 고야와 피카소에 감동받으며,가우디의 파밀리아 성당을 직접 보고 싶어 합니다.바르셀로나는 특히, 1992년 올림픽에서 한국의 황영조 선수가 마라톤에서 우승을 했던 곳으로 기억되고 있습니다.‘카미노 데 산티아고’ 순례길을 걷고 싶어 하는 한국인이 많습니다.한국의 서명숙 씨는 50세 생일을 앞두고 삶을 돌아보기 위해 산티아고 순례길을 걸었습니다.그 길을 걷는 동안 “너는 너의 길을 만들어라”라는 동행자의 말을 듣고한국에 돌아와 제주도에 올레길을 개척했습니다. 제주도 올레길은 한국인들이 가장 사랑하는 길이 되었고, 전국 각지에 비슷한 걷기코스가 생겼습니다.한국에 대한 스페인 국민들의 관심도 커지고 있습니다.K-팝과 한국 영화, 한국 음식을 즐기는 스페인 국민이 많아지고한국어를 배우고자 하는 열기가 높아져 매우 반갑습니다.마드리드와 바르셀로나, 라스팔마스에 세종학당이 개설되었고,마드리드 대학을 포함해 다섯 곳의 대학에 한국학, 한국어 학과가 개설되었습니다. 서로의 역사와 언어, 문화와 정신을 배우며양국 관계가 더욱 깊어지고 넓어질 것이라 생각합니다.이번 스페인 방문을 계기로 양국 정부는 ‘상호방문의 해’를 1년 연장하기로 합의했습니다. 상호 우호를 증진하는 다양한 사업들이 추진되고, 인적 교류도 더욱 늘어날 수 있을 것입니다.오늘 함께해주신 전문가와 기업인들께서도 양국의 관광과 교류 확대에 중요한 역할을 해주시리라 기대합니다.코로나 이후 관광산업은 ‘인간과 자연의 공존’이라는 원칙 위에서 발전할 것입니다. 오늘 라운드테이블을 통해 탄소중립을 위한 관광의 녹색전환과 안전한 이동을 위한 국제공조, 비대면·디지털 시대에 대응한 관광산업의 혁신 등 관광산업의 지속가능한 미래를 위한 의미 있는 논의가 이루어지기를 기대합니다. 감사합니다.munjae@heraldcorp.com 맞춤 정보 당신을 위한 추천 정보 많이 본 정보 오늘의 인기정보 이슈 &amp; 토픽 비즈 링크 회사소개 광고 및 제휴 안내 구독신청 인재채용 개인정보취급방침 이용약관 저작권규약 고충처리인제도 이메일수집거부 FAMILY SITE FAMILY SITE 코리아헤럴드 헤럴드POP K-POP헤럴드 리얼푸드 헤럴드에코 헤럴드디자인 더인베스터 (주)헤럴드 주소:서울시 용산구 후암로4길 10 헤럴드스퀘어 제호:헤럴드경제 인터넷신문등록번호:서울 아03710 발행인ㆍ편집인:전창협 청소년보호책임자:홍승완 대표전화:02-727-0114 | 독자문의 : 1588-0533 Copyright Herald Corporation. All Rights Reserved.</t>
+  </si>
+  <si>
+    <t>제주도, 대중교통 모니터링...3개월 도민-관광객 대상 &lt; 제주특별자치도 &lt; 행정 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 14:52 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 제주도의회, 인사권 독립 후 첫 사무관 승진 임용 제주도, 유상증자 불참 제주항공 신주인수권 전량 매도 제5회 제주국제현대음악제, 20~21일 제주대서 개최 2022 세계유산축전 ‘제주 화산섬과 용암동굴’, 16일까지 진행 법원, 우도 내 삼륜 이동장치 제한 ‘정당’ 제주도 제한 정책 탄력 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 제주도, 대중교통 모니터링...3개월 도민-관광객 대상 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 행정 제주특별자치도 제주도, 대중교통 모니터링...3개월 도민-관광객 대상 기자명 이승록 기자					(leerevol@naver.com) 입력 2021.06.20 14:36 댓글 11 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 제주도는 대중교통을 이용하는 도민과 관광객들의 만족도를 높이기 위해 오는 7월부터 3개월간 ‘대중교통 도민 모니터링’을 운영한다고 20일 밝혔다.이번 모니터링은 대중교통과 관련된 불편 신고가 지속적으로 접수됨에 따라 대중교통 관련 불편사항을 도민들에게 직접 듣고, 이를 개선하기 위한 방안들을 대중교통 정책에 반영하기 위해 마련됐다.제주도는 버스정책에 관심이 많은 도민을 대상으로 교육과 훈련을 통해 모니터단을 선발할 예정이다.모니터단은 대중교통 버스 서비스 현장에서 △운전자의 친절도, 거동불편 교통약자에 대한 배려 등 승객안내 서비스 관련 △난폭운전, 신호위반 등 안전운행 관련 △운행시간 준수, 무정차 행위, 노선 키패드 작동 등 버스 운행 관련 △버스업체의 운수종사자 편의시설(휴게실, 화장실 등) 관리 및 운영실태 △마스크 착용 등 코로나19 방역지침 준수 여부 등의 내용을 조사·점검하게 된다.특히 제주도는 모니터단의 책임감을 높이고 적극적인 모니터링이 이뤄질 수 있도록 아이디어 제출 등의 주도적 역할을 의무화할 계획이다.또한 책임 공무원을 지정해 매일 현장에서 조사노선 지정 및 조사내용을 검토할 예정이다.이와 함께 모니터단간의 교차 점검을 통해 조사의 신뢰성을 확보하고, 조사결과는 분석 후 대중교통 정책에 반영할 방침이다.더불어 모니터링 기간 ‘베스트 친절기사’를 선정해 표창 등의 인센티브도 제공한다.이학승 도 교통항공국장은 “도민 모니터링을 통해 운수종사자의 책임감을 높이고, 도민들의 생생한 목소리를 반영해 버스 이용객의 만족도를 높여 나가겠다”고 밝혔다. 이승록 기자 leerevol@naver.com 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 인사 제주시 2022년 하반기 사무관 6명 승진 의결 5 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 9 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 10 제주 한림 목조 펜션에서 불…인명피해 없어 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 4 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 5 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 제주 예외 아닌 교권침해, 일방적 희생 강요 안돼 1 선거꾼 하나.. 선거운동 도와주고서 연봉 1억 넘는 자리 꿀꺽했구나.. 여론조사 전문가가 감사 활동 잘 할거다? 목에서 소리를 낸다고 말이 되거나 글자로 표현한다고 글이 되는 것은 아니다. 2 제주답게 만들기를~~ 3 이런 얼치기 주의자들이 판치는 제주를 언제까지 봐줘야 할건지~~ 4 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 5 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 6 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 7 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 8 못간다 9 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 10 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 테마전문여행사 육성사업 공모 &lt; 경제 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 경제 최종편집 2022-10-11 (화) 14:38 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 테마전문여행사 육성사업 공모 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제 제주도관광협회, 테마전문여행사 육성사업 공모 기자명 신승은 기자 입력 2021.06.23 15:49 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 7월 7일까지 국내·일반여행업체 대상 제주도관광협회가 특색있는 관광상품 개발을 통한 도내 여행업계 경쟁력 회복을 위한 '테마전문여행사 육성사업'을 추진한다. 도내 본점 소재지를 둔 국내 및 일반여행업체를 대상으로 23일부터 다음달 7일까지 신청을 접수한다. 신청은 제출 서류 등을 구비해 도관광협회 마케팅부(제주시 첨단로 213-65)로 방문 접수하면 된다. 심사 등을 거쳐 내국인부문 테마전문여행사 총 17개 업체를 선정해 업체(상품)당 600만원 내 온·오프라인 광고(홍보)비, 현지판촉, 팸투어 및 테마상품 관광객 유치 실적에 따른 인센티브 등을 지원할 예정이다. 공모 분야 및 제출 서류 등 자세한 내용은 협회 홈페이지(http://www.visitjeju.or.kr/) 내 공고 또는 전화(064-741-8773)를 통해 확인하면 된다. 신승은 기자 신승은 기자 cococo7272@naver.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 제주대병원 권역정신응급의료센터 개소 [본사내방] 2022년 10월 11일 한경농협, 취약계층 주택용 소방시설 기증 제주, 서울대 지역균형전형 비율 2.4%...전국 최하위 제주타요렌터카, 매월 국·내외 아동에 정기 후원 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 [제민포럼] 테슬라와 한라산소주 5 일본시장 활짝 제주관광 기대감속 우려도 6 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 7 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 8 장 발장 이야기 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>"떨어진 제주관광공사 위상, 제주도 전출금으로 해결되나" 검색 본문 바로가기 회사정보 바로가기 2022.10.11 (화) 실시간뉴스 play puase 실시간 뉴스열기 실시간 뉴스 닫기 실시간뉴스 기사제보 상품소개 노동신문 CONNECT 서비스 해피펫 통합검색 통합검색 통합검색 기자명 제목+내용 제목 내용 검색 정치 국회ㆍ정당 대통령실 총리ㆍ감사원ㆍ위원회 국방ㆍ외교 통일 정치일반 북한 정치ㆍ외교 군사 경제 사회 문화ㆍ스포츠 남북교류ㆍ협력 경제 정책 일반동향 건설ㆍ부동산 농식품 사회 법원ㆍ검찰 사건ㆍ사고 교육 복지ㆍ인권 노동 환경 날씨ㆍ재해 일반 인물 여성가족 IT/과학 모바일 통신ㆍ뉴미디어 인터넷ㆍ플랫폼 IT일반 보안ㆍ해킹 컴퓨터 게임ㆍ리뷰 과학일반 금융/증권 금융일반 금융정책 통화정책 은행 금융투자 보험 카드 핀테크 증권일반 산업 산업일반 재계 전기전자 자동차산업 에너지ㆍ중공업 유통 생활경제 중기ㆍ창업 패션 뷰티 호텔ㆍ관광 의료 식음료 헬스케어 제약ㆍ바이오 취업ㆍ채용 지방 행정자치 서울 경기 인천 강원 세종ㆍ충북 대전ㆍ충남 전북 광주ㆍ전남 대구ㆍ경북 부산ㆍ경남 울산 제주 국제 국제경제 미국ㆍ캐나다 동북아 아시아ㆍ호주 유럽 중동ㆍ아프리카 국제기구 피플&amp;피플 지구촌화제 일반 중남미 생활/문화 공연ㆍ전시 책 종교 문화정책 문화일반 건강정보 여행·레저 운세ㆍ명언 도로ㆍ교통 반려동물 자동차생활ㆍ시승기 음식ㆍ맛집 연예 연예가화제 방송ㆍTV 영화 음악 해외연예 인터뷰 스포츠 야구 해외야구 축구 해외축구 골프 종목일반 농구 배구 여행 국내 해외 바이크 관광 레저 호텔ㆍ크루즈 이벤트 포토 영상 이슈 펫카드 그래픽뉴스 인사 부고 페이스북 트위터 유튜브 인스타그램 네이버 포스트 해피펫 N트래블 뉴스1바이오 N스타일 노동신문 히든메뉴 닫기 글로벌 메뉴 열기 정치북한사회경제IT/과학금융/증권산업지방행정자치서울경기인천강원세종ㆍ충북대전ㆍ충남전북광주ㆍ전남대구ㆍ경북부산ㆍ경남울산제주국제생활/문화연예스포츠여행TVBBC 홈 &gt; 지방 &gt; 제주 "떨어진 제주관광공사 위상, 제주도 전출금으로 해결되나" 제주관광공사, 경영진단 용역 제주도의회 보고 (제주=뉴스1) 홍수영 기자					| 2021-06-17 13:47 송고 댓글 공유 카카오톡으로 공유하기 페이스북으로 공유하기 트위터로 공유하기 이메일로 공유하기 url 복사 축소/확대 가 가 가 가 가 인쇄 제주관광공사 전경.© News1 제주도 산하 기관보다 위상이 떨어진 제주관광공사가 정상화를 위한 경영진단을 진행했지만 부실용역이라는 비판이 나오고 있다.제주도의회 문화관광체육위원회(위원장 안창남)는 17일 제396회 정례회 제1차 회의를 열고 제주관광공사로부터 경영진단 용역 내용을 보고받았다.제주관광공사 경영진단은 지난 2020년 시내면세점 철수와 항만면세점 중단 등으로 겪고 있는 창립 이래 최대 경영위기를 극복하기 위해 진행했다. 용역은 한국능률협회컨설팅이 맡아 2020년 12월21일부터 지난 5월21일까지 수행했다.이날 공개된 경영진단 주요내용을 보면 공사는 2017년 1억7800만원의 순이익 후 2018년 40억8900만원, 2019년 146억9800만원의 적자를 기록했다.재무위기 원인은 △경영목표 설정 미흡, 성과관리체계의 공백 발생 △사업부서별 독립적 전략 및 사업 수행, 조직구조 효율성 저하 △재무관리 조직 및 기능 약화 △경쟁력 확보를 위한 전문인력 육성기반 미흡 △성과제고를 위한 동기부여 및 보상체계 미흡 등이 꼽혔다.특히 2020년 철수한 시내면세점과 관련해서는 당초 예상매출액 산출에 문제가 있었으며 그 타당성에 대한 검증이 미흡했다는 지적이 나왔다.또 대기업에 비해 교섭력이 부족하고 판매촉진비 등 비용이 과다 소요돼 출혈성장이 계속된 데다 재무리스크에 대한 체계적 관리도 미흡했다는 분석이다.현재 운영되고 있는 중문관광단지 내 지정면세점에 대해서도 경쟁력 확보, 원가관리 및 재무리스크 관리 등이 미흡하다고 지적됐다. 17일 열린 제396회 제주도의회 정례회 문화관광체육위원회(위원장 안창남) 제1차 회의에서 박호형 의원(더불어민주당·제주시 일도2동 갑)이 발언하고 있다.2021.6.17/뉴스1 신규 비전으로 ‘제주관광을 견인해 도민 경제에 활력을 불어넣는 글로벌 관광 전문 기관’을 제시한 용역진은 조직개편안을 내놨다.단기안으로는 2본부 9실 4팀으로 조직을 슬림화해 운영 효율성을 제고한다는 계획이다. 면세점 중심의 수익사업본부를 신설하고 처·팀 단위는 폐지하는 내용이 담겼다.또 재무위기를 극복하기 위해 면세영업과 컨트롤타워, 재무관리 등의 주요 기능을 개선하는 방안도 제시됐다.특히 제주도를 대행한 관광진흥사업을 수행할수록 만성 적자 및 재무위기가 발생하고 있다는 주장이 담겼다. 대행사업에 필요한 인건비 등이 안정적으로 지원되지 않고 있다는 분석이다.이와 관련 용역진은 “경상전출금 내 인건비 및 경상전출사업비를 통합해 교부해야 한다”고 제언했다.그러나 근본적인 해결책 없이 제주도의 전출금 지원만 요구하고 있다는 지적이 제기됐다.이날 박호형 의원(더불어민주당·제주시 일도2동 갑)은 “코로나19로 도민 경제가 어려운 상황에서 관광진흥보다는 제주도의 전출금 지원에 대한 논리만 만들었다”고 비판했다.이어 “시내면세점 철수에 따른 미수채권 104억원, 항만면세점 중단 문제 해결 등에 대한 해결책도 제시되지 않았다”고 꼬집었다.박 의원은 또 “현 1본부 체제에서 2본부로 변경하는 것은 시기상조로 보인다”며 “조직 및 정원에 관한 사항은 이사회 의결 후 도지사 승인 사항인데 원희룡 지사의 사퇴가 거론되는 현 시점에서 졸속으로 처리하려는 것이 아니냐”고 비판했다. gwin@news1.kr &lt;저작권자 © 뉴스1코리아, 무단전재 및 재배포 금지&gt; 핫뉴스 "연하 남편·여직원, 시댁서 동거…시모는 며느리 대접" 선우은숙 "만난지 석달…유영재 '나 믿고 함께하자' 말에 결혼" 이지현 "돌싱 둘째남편 시댁서 아이들 거부…살림 못 합쳤다" '음주운전' 신혜성, 측정 거부해 체포 "죄송…차량 절도는 아냐" '남궁민♥' 진아름, 화사한 웨딩드레스 자태 "예쁘게 살 것" 김태희, 직접 올린 근황은…독보적 미모 오늘의 핫 포토 대통령실까지 행진하는 배민 라이더 정진석 "이재명 '日軍 주둔설' 文 '김정은 비핵화 약속'…양대 망언 취업, 그 간절한 마음 'K패션의 미래가 한자리에' [국감]유병호 "문자 송구스러워…소통은 정상적" 꿈새김판 가을편 '지금이 가을이에요' '서울에서 발생한 총기사고, 경찰 조사 중' 탭메뉴 스포츠 연예 스타일 스포츠 9부 능선 넘었어도 긴장 풀지 않은 홍명보 감독 "아직 우승 아닌데…" 프로농구 10개구단 감독들이 뽑은 새 시즌 우승후보는? KT… 2위 SK '2년 간 11승' 박민지, 신지애 기록 넘본다…대상-상금왕 2연패 정조준 IBK기업은행, 여자부서 가장 먼저 외인 교체…산타나 다시 영입 연예 유진·은지원·황제성, '뜨겁게 안녕' 호스트 확정…10월 말 첫방 바타, 화제의 '새삥' 춤 일부 표절?…에이티즈 안무가, 의혹 제기 엑소 첸, 31일 새 미니앨범 '사라지고 있어' 발매…3년 만 솔로 컴백 공효진♥케빈오, 11일 미국 뉴욕서 결혼식…10세 연상연하 부부 스타일 최시원, 완벽 슈트핏에 넘치는 여유..."내 레전드 인물은 이수만" [N화보... 아이유·손석구, 커플 화보...의외의 달달 눈빛 교환 [N화보] 잔나비 최정훈, 바가지 헤어+농염 눈빛…자유분방 매력 [N화보] 레드벨벳 슬기, 궁전에 사는 공주님 비주얼 '세련' [N화보] 이전 다음 회사소개 개인정보취급방침 뉴스1 모바일 제휴광고 콘텐츠 판매 기사제보 고충처리 청소년 보호정책 지방본부 바로가기 경기 인천 강원 세종· 충북 대전· 충남 전북 광주· 전남 대구· 경북 부산· 경남 울산 제주 대표이사/발행인: 이백규 | 편집인: 강호병 | 주소: 서울시 종로구 종로 47 (공평동,SC빌딩17층) | 사업자등록번호: 101-86-62870 고충처리인: 김성환 | 통신판매업신고: 서울종로 0676호 | 등록일: 2011.05.26 | 제호: 뉴스1코리아 문의: 02-397-7000, webmaster@news1.kr Brand Promotional Section 삼성 홍보관 새창열기 현대 홍보관 새창열기 우수 컨텐츠 마크 확인페이지 새창열기 2016 웹 어둬드 방송 신문분야 최우수상 수상 Copyright (c) News1 Korea. All rights reserved. 모바일 버전</t>
+  </si>
+  <si>
+    <t>제주특별자치도관광협회 “여름휴가 설문조사 결과 제주도=휴가계획 여행지 1위” 본문바로가기문장공유트위터카카오톡 전체메뉴 검색 최근검색어 최근 검색어 내역이 없습니다. 검색어 저장 끄기 닫기 읽기모드공유하기북마크로그인공유하기닫기 오피니언 사설 오늘과 내일 횡설수설 동아광장 시론 광화문에서 현장에서 뉴스 정치 경제 국제 사회 문화 연예 스포츠 매거진 신동아 주간동아 여성동아 매거진동아 동아비즈니스리뷰 하버드비즈니스리뷰코리아 어린이동아 과학동아 어린이 과학동아 수학동아 에듀동아 섹션 책의 향기 스타일매거진Q 골든걸 즐거운 인생 edu+ 디 오리지널 헬스동아 실시간 뉴스 이슈 포인트 연재 포인트 트렌드뉴스 뉴스레터 신청 기자 동아APP서비스 오늘의신문 신문보기(PDF) 구독신청 보도자료 보이스뉴스 RSS 동아방송 DBS 채널A 스포츠동아 비즈N MLB파크 보스 VODA IT동아 게임동아 동아닷컴|사회 제주특별자치도관광협회 “여름휴가 설문조사 결과 제주도=휴가계획 여행지 1위” 박해식 동아닷컴 기자 입력 2021-06-15 14:27업데이트 2021-06-15 14:31 글자크기 설정 레이어 열기 뉴스듣기 프린트 글자크기 설정 가 가 가 가 닫기 제주특별자치도관광협회(회장 부동석)는 주식회사 EC21에 의뢰해 지난 4월 26일부터 5월 10일까지 전국 10~50대 SNS 이용 남녀 2779명을 대상으로 올 여름 휴가계획에 관한 설문조사를 온라인에서 진행했다고 15일 밝혔다. 이에 따르면, 올 여름 휴가를 떠날 계획이 있는 여행지로는 ▲제주도 37% ▲강원도 18.8% ▲부산광역시 16.6% 순으로 제주도가 1위를 기록했다. 제주도의 여행지로 선호하는 곳은 바다와 오름·둘레길로 전체 응답의 74.6%를 차지했다. 방문예정 시기로는 △10월 17.8% △8월 15.8% △9월 14.4% 등을 차지했다. 여행 유형으로는 과반(52.3%)이 ‘가족여행’을 꼽았다. 가장 큰 변수인 코로나19와 관련해 방역 단계가 높아지거나 현지 상황이 악화하면 여행을 취소하겠다는 의견이 54.2%를 기록했다. 또, 지역별 방역 현황에 따라 여행지를 선택하겠다는 의견이 25.3%로, 보건 이슈가 휴가계획에 여전히 가장 큰 영향을 미치고 있음을 확인할 수 있었다. 제주도 관광협회 관계자는 “SNS와 유튜브를 통해 제주의 다양하고 올바른 여행 정보를 제공하고 있다”며 “이번 조사결과에 따라 대중이 기대하는 제주의 색다른 모습을 보여드리고 소통하여 지역 활성화에 기여하겠다”고 말했다.​박해식 동아닷컴 기자 pistols@donga.com 좋아요 이미지좋아요 슬퍼요 이미지슬퍼요 화나요 이미지화나요 후속기사 원해요 이미지후속기사 원해요 기사추천 이미지기사추천 공유 이미지공유 공유하기 닫기 Copyright ⓒ 동아일보 &amp; donga.com 오늘의 추천영상 당신이 좋아할 만한 콘텐츠 댓글 0개 의견을 남겨주세요. 동아일보는 독자 여러분의 의견을 경청하겠습니다. 전체 댓글 보기 댓글 0개 닫기 많이 본 뉴스 1 성일종 “인공기는 괜찮은가” vs 이재명 “해방 후 친일파 행태” 2 ‘횡단보도 앞 일시정지’ 계도 끝…내일부터 본격 단속 3 추락 사고 잇따르는 ‘국내 최장’ 인천대교…“특단 대책 시급” 4 [단독]‘제트기류’에 美뉴욕발 직항편 중간 착륙…‘테크니컬 랜딩’ 늘어날수도 5 ‘K-방산(防産)’ 전시관 찾은 해외 軍 관계자 “놀랍다” 6 TSMC 키운 대만… “국가 지켜주는 건 美무기 아닌 반도체” 7 안철수 “유승민·나경원 출마를” vs 홍준표 “배신 경력자는 가라” 8 선우은숙 재혼했다…‘4살 연하’ 유영재와 혼인신고 9 같은 번호판 2개…간적 없는 곳서 주차위반 “7달째 영문 몰라” 10 신혜성 측 “만취해 본인 차 아닌 줄 몰라…변명 여지 없다” 최신기사 아직도 ‘콩나물 교실‘ 많은 현장…중학교 10학급 중 4학급이 ‘과밀학급’ 김주형은 될성부른 나무…한국 무대서도 최연소 기록 지난해 ‘로드킬’ 3만7000건…고양이-고라니가 가장 많아 軍동원령에 러시아 여론 악화…“국민, 전쟁 비용에 눈뜨기 시작” KPGA 김한별, 골프채 부러뜨리고 캐디에 폭언…상벌위 회부 베스트 추천 1 한동훈, 김의겸 ‘美출장 의혹’에 “머릿속 상상 쉽게 말해 주위에 피해” 2 김의겸 “한동훈, 이재명 수사 위해 美출장”…한동훈 “머릿속 상상” 3 ‘마케팅용 공짜 마약’에 20대 초범 양산… 놀이터서 주고받기도 4 선우은숙 재혼했다…‘4살 연하’ 유영재와 혼인신고 5 [단독]‘최대 적자’ 한전, 자회사들은 직원 ‘제주도 가족여행’까지 지원 오피니언 사설 오늘과 내일 횡설수설 동아광장 시론 광화문에서 현장에서 뉴스 정치 경제 국제 사회 문화 연예 스포츠 매거진 신동아 주간동아 여성동아 매거진동아 동아비즈니스리뷰 하버드비즈니스리뷰코리아 어린이동아 과학동아 어린이 과학동아 수학동아 에듀동아 섹션 책의 향기 스타일매거진Q 골든걸 즐거운 인생 edu+ 디 오리지널 헬스동아 실시간 뉴스 이슈 포인트 연재 포인트 트렌드뉴스 뉴스레터 신청 기자 동아APP서비스 오늘의신문 신문보기(PDF) 구독신청 보도자료 보이스뉴스 RSS 동아방송 DBS 채널A 스포츠동아 비즈N MLB파크 보스 VODA IT동아 게임동아 동아일보 회사소개| 문화스포츠사업| 신문박물관| 인촌기념회| 화정 평화재단| 신문광고안내| 구독신청| 독자서비스| 기사제보| 정정보도 신청 주소: 서울특별시 종로구 청계천로 1 | ☎: 02-2020-0114 동아닷컴 회사소개| 광고 (인터넷, 전광판)| 제휴안내| 고객센터| 이용약관| 개인정보처리방침| 청소년보호정책(책임자: 구민회)| 사이트맵| RSS 주소: 서울특별시 서대문구 충정로 29 | Tel: 02-360-0400 | 등록번호: 서울아00741 | 발행일자: 1996.06.18 | 등록일자: 2009.01.16 | 발행·편집인: 박원재 Copyright by dongA.com All rights reserved.</t>
+  </si>
+  <si>
+    <t>“관광객 몰린다” 제주도, 정부에 ‘우선 접종’ 공식 건의-국민일보 시사 시사 &gt; 전체기사 “관광객 몰린다” 제주도, 정부에 ‘우선 접종’ 공식 건의 원희룡 지사, 정부 백신 접종 일정과 별개로 도민 우선 접종 건의 입력 : 2021-06-09 15:44 트위터로 퍼가기 페이스북으로 퍼가기 구글로 퍼가기 인쇄하기 글자 크게 글자 작게 원희룡 제주도지사가 본격적인 여름 휴가철을 앞두고 제주도의 조기 집단면역 형성을 위해 도민 우선 백신 접종을 정부에 공식 건의했다.원 지사는 9일 오후 제주도청에서 제주도민 코로나19 백신 우선 접종 대정부 건의문을 발표했다.지사는 건의문에서 “제주도는 제주도민의 삶의 터전일 뿐 아니라 온 국민에게 사랑 받는 힐링의 공간”이라며 “지금 제주 관광객 규모는 코로나 사태 이전 규모를 회복했고 휴가철을 맞아 그 규모가 확대될 것으로 보인다”고 제주 현황을 설명했다.이어 “그동안 제주도는 전례 없이 감염자가 적었지만 여행객들이 늘면서 지역 감염으로 확산되고 최근에는 확진자 수가 연일 두 자릿수를 넘고 있다”고 건의 배경을 밝혔다.그러면서 “제주도는 우리 국민 전체의 공간이기에 청정 제주의 방역이 흔들리면 심신이 지친 국민들은 갈 곳을 잃게 된다. 집단면역 수준인 도민 70%·49만명 분량을 본격적인 여름휴가가 시작되기 전에 우선 배정해 달라”고 정부에 요청했다.제주도의회도 이날 제395회 임시회 2차 본회의에서 송창권(더불어민주당) 의원이 대표 발의한 ‘안전한 관광지 조성을 위한 제주도민 백신 우선 접종지원 건의안’을 재석의원 40명 전원 찬성으로 가결했다.앞서 5일에는 여권 대선주자인 김두관 더불어민주당 국회의원이 원희룡 도지사와 만나 제주도민 백신 선제 접종에 뜻을 같이 하고 7일 전해철 행정안전부 장관에 관련 내용을 건의했다.국민의힘 제주도당도 “전 도민 백신 접종 제안을 환영하며 실현될 수 있도록 적극적으로 지원하겠다”고 지지의 뜻을 밝혔다.현재까지 제주도민 외에 택배기사, 학원강사 등 대면 접촉 직업군에서 백신 우선 접종을 정부에 건의한 것으로 알려졌다.9일 오전 11시 기준 제주지역 누적확진자 수는 1158명이다. 올 들어 제주 지역 월별 확진자 수는 1월 101명, 2월 48명, 3월 57명, 4월 87명, 5월 328명, 6월 현재까지 116명을 나타내고 있다.제주=문정임 기자 moon1125@kmib.co.kr GoodNews paper ⓒ 국민일보(www.kmib.co.kr), 무단전재 및 수집, 재배포금지 당신이 좋아할 만한 기사 ‘naver.pay’ 주소, 속았다…8천만원 사기친 피싱사이트 “발렛 직원이 준 차 몰았다”…신혜성, 음주운전에 절도 혐의까지 버스타는 女, 신체 만지고 도망…6급 교육공무원이었다 ‘이자 폭탄’ 예고… 38만가구, 집 팔아도 빚 못 갚는다 오토바이와 ‘툭’… “괜찮다”더니 병원 20번 갔다 [영상] “예전 개념”…박수홍 울린 친족상도례, 69년만에 바뀌나 ‘풀소유’ 논란후 2년, 혜민 근황…“따가운 시선에 상처” [영상] 삼성전자 우크라 지사 건물, 러 미사일에 파손 ‘90년대 강남 큰 손’ 조춘자, 또 사기 행각…징역 7년 ‘무주 일가족 중독’ 합동감식 “보일러 연통, 그을음으로 막혀” [단독] 시중은행도 당했다… 신종 전세사기 일당 검거 14살 제자와 성관계 후 “진짜 사랑”… 전문가 “그냥 범죄” 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 실시간 뉴스 스페인에선 주전… 94분 뛴 이강인, 팀내 최고평점 부하 직원 엉덩이 때렸는데 정직 1개월…‘솜방망이’ 논란 김영환 지사 “현금복지 후퇴 없다…양해구한다” 한화 창립 70주년, 김승연 회장 “어제를 경계하고 늘 새로워지자” 3년만의 제약 바이오 채용박람회 “프로농구 우승 후보는?” 감독에게 물었더니…SK·KT 막상막하 과학·미래 가치 담았다…UCLG 총회 ‘대전트랙’ 시작 정진석 ‘식민사관’ 발언 논란…유승민 “천박한 발언, 사퇴해야” 경찰 ‘제2의 n번방’ 18명 검거, 3명 구속 잇따르는 경기침체 경고…JP모건 CEO “미·세계 경제에 침체 올 것” 이재호 연수구청장, MZ세대와 소통…역사·문화 공유 최인호 “코레일·SR, 간부급 경조사비 5년간 14억 지급” 대구서 전국동시조합장선거 관련 첫 고발 전주, 후백제∼조선 유산 묶는 ‘왕의 궁원’ 프로젝트 추진 JP모건 CEO “S&amp;P 20% 더 빠질 수 있다” [3분 미국주식]</t>
+  </si>
+  <si>
+    <t>제주도 카지노 오픈 D-1…롯데관광개발 '신고가' 터치 - 머니투데이 본문영역 바로가기 로그인 전체 뉴스 경제정책 증권 정치 부동산 국제경제 사회 산업 IT 금융 벤처·스타트업 블록체인 문화 포토 포토 더차트 더그래픽 영상 MT 영상 더영상 전체기사 증권 뉴스 시세/공시 코스피 코스닥 코넥스 상승/하락 상하한가 시가총액 거래량상위 신규상장 주요공시 포인트&amp;전략 펀드 펀드IR 국내펀드 해외펀드 유형종합 종목대해부 베스트리포트 MY스톡 정치 법률 유니콘팩토리 칼럼 데스크칼럼 사내칼럼 현장리포트 사외칼럼 SUCCESS SCIENCE 자동차 최신기사 신차소식 시승기 카라이프 연예 연예 스포츠 이슈 핫이슈 전체핫이슈 이슈키워드 연중기획 실시간급상승 베스트클릭 사람&amp; 피플 MT초대석 인터뷰 대표선배 인사 부고 MT리포트 뉴스 경제정책 증권 정치 부동산 국제경제 사회 산업 IT 금융 벤처·스타트업 블록체인 문화 포토 영상 전체기사 증권 뉴스 시세/공시 포인트&amp;전략 펀드 종목대해부 베스트리포트 MY스톡 정치 - the300 법률 - the L 칼럼 데스크칼럼 사내칼럼 현장리포트 사외칼럼 SUCCESS SCIENCE 자동차 최신기사 신차소식 시승기 카라이프 연예 연예 스포츠 이슈 핫이슈 실시간급상승 베스트클릭 사람&amp; VIP VIP Only VIP Story T.O.M 투자디렉터 런치리포트 the L ICT &amp; Tech Culture FULL TEXT 초판/e-신문보기 서비스 신청 전체보기 닫기 속보 광클절, 빅스, 프리블프...대형 쇼핑행사 쏟아진다 나희승 코레일 사장 "KTX 이용 유출 대상 민간인에 사과" "감히 날 신고해?" 앙심 품고 '퍽퍽'…눈 맞은 피해자, 시력 잃었다 포스코홀딩스, 아르헨티나 염수 리튬 2단계 투자 결정 롯데제과 '빵빠레 샌드 카스타드' 회수, 세균수 기준 초과 "'연준 피벗' 없이는 증시 상황 안 바뀔 것…현금 비중 높여라" "용돈 줄게"…여고생 2명 집으로 유인해 추행한 40대 수세 몰리자 '무차별 미사일'…푸틴의 선택이 키운 우려, 다음은? 웰바이오텍, 매니 파퀴아오 vs D.K. YOO 매치 후원 "우크라이나 지원 나선다" 北 저수지 아래 잠수함 없었다…'전대미문 SLBM', 왜 광클절, 빅스, 프리블프...대형 쇼핑행사 쏟아진다 나희승 코레일 사장 "KTX 이용 유출 대상 민간인에 사과" "감히 날 신고해?" 앙심 품고 '퍽퍽'…눈 맞은 피해자, 시력 잃었다 포스코홀딩스, 아르헨티나 염수 리튬 2단계 투자 결정 롯데제과 '빵빠레 샌드 카스타드' 회수, 세균수 기준 초과 "'연준 피벗' 없이는 증시 상황 안 바뀔 것…현금 비중 높여라" "용돈 줄게"…여고생 2명 집으로 유인해 추행한 40대 수세 몰리자 '무차별 미사일'…푸틴의 선택이 키운 우려, 다음은? 웰바이오텍, 매니 파퀴아오 vs D.K. YOO 매치 후원 "우크라이나 지원 나선다" 北 저수지 아래 잠수함 없었다…'전대미문 SLBM', 왜 검색창 열기 통합검색 검색 닫기 전체 뉴스 경제정책 증권 정치 부동산 국제경제 사회 산업 IT 금융 벤처·스타트업 블록체인 문화 포토 영상 전체기사 증권 뉴스 시세/공시 포인트&amp;전략 펀드 종목대해부 베스트리포트 MY스톡 정치 - the300 법률 - the L 칼럼 데스크칼럼 사내칼럼 현장리포트 사외칼럼 SUCCESS SCIENCE 자동차 최신기사 신차소식 시승기 카라이프 연예 연예 스포츠 이슈 핫이슈 실시간급상승 베스트클릭 사람&amp; VIP VIP Only VIP Story T.O.M 투자디렉터 런치리포트 the L ICT &amp; Tech Culture FULL TEXT 초판/e-신문보기 서비스 신청 전체보기 닫기 제주도 카지노 오픈 D-1…롯데관광개발 '신고가' 터치 sns공유 더보기 제주도 카지노 오픈 D-1…롯데관광개발 '신고가' 터치 머니투데이 김하늬 기자 기자 더보기 sns공유 더보기 2021.06.10 16:17 글자크기 글자크기조절 가나다라마 가나다라마 가나다라마 가나다라마 가나다라마 의견 남기기 [제주=뉴시스]우장호 기자 = 제주 최고 높이, 최대 규모 건물인 제주 드림타워 복합리조트가 18일 공식 개장했다. 제주 드림타워 복합리조트는 연면적(30만3737㎡)으로는 여의도 63빌딩의 1.8배에 이를 만큼 매머드급 규모를 자랑한다. 사진은 드림타워 내 K패션 전문몰 HAN 컬렉션 모습. 2020.12.18. woo1223@newsis.com 롯데관광개발의 제주도 드림타워 내 카지노 개장이 하루 앞으로 다가왔다. 국내 외국인 전용 카지노로는 인천 파라다이스 시티와 제주 랜딩카지노에 이서 세번째다. 특히 국내 백신 누적 접종자가 1000만명을 돌파하는 등 빠른 속도로 '포스트 코로나19(COVID-19)' 경제활성화에 대한 기대감이 높아지면서 증권업계는 롯데관광개발에 대한 커버리지(목표주가 제시)를 개시하는 등 기대감을 나타내고 있다. 롯데관광개발 주가도 전날 52주 신고가를 터치한 뒤 숨고르기에 들어가며 개장을 기다리는 모습이다. KB증권은 10일 롯데관광개발 (9,890원 ▼760 -7.14%)에 대해 제주 드림타워 사업 확장으로 추가적인 매출 성장이 기대된다며 투자의견 '매수', 목표주가 2만8000원을 제시했다. 이선화 KB증권 연구원은 "제주 드림타워는 작년 12월 개장 이후 현재 타워1(750객실)만 운영 중"이라며 "11일에는 외국인 카지노를 오픈하고, 7월에는 타워2(850객실)를 오픈하는 만큼 추가적인 매출 성장이 기대된다"며 커버리지 개시 이유를 밝혔다. 제주 드림타워는 올해 1분기 타워1 기준으로 객실 가동률은 34%를 기록했다. 오는 4월에는 60%, 5월과 6월에는 각각 80%, 90%를 기록할 것으로 추정된다. 여름 성수기인 3분기에는 타워1, 2를 모두 운영하는 효과를 누릴 것이라는 게 이 연구원 설명이다. 주가도 지난 2월 이후 최근 누적 상승률이 55%에 달한다. 같은 기간 시장(전체 종목 인덱스)이 54.4% 오른 것에 비해 0.9%포인트를 웃돈다. 이 연구원은 "주가가 강세를 보인 이유는 제주 드림타워 오픈으로 컨센서스 기준 2019~2021년 연평균 매출액 성장률이 70.1%을 기록할 것으로 예상됐다"고 설명했다. KB증권은 롯데관광개발이 내년에 흑자 전환에 성공하고, 2023년에는 지배주주순이익이 전년동기대비 86.8% 증가할 것으로 예상된다면서, 주가가 추가적으로 상승할 여력이 있다고 판단했다. 주가도 기대감에 화답하고 있다. 롯데관광개발은 전날 장중 2만2850원을 터치하며 52주 신고가를 경신했다. 이날 주가는 전날보다 1.97% 하락한 2만2350원으로 약보합을 기록 중이다. 전문가들은 카지노 등 제주 드림타워의 시설이 차례차례 오픈하고 코로나19 유행이 종료된 후 정상 영업이 가능해진다면 롯데관광개발의 매출이 성장하고 손익이 개선될 수 있을 것으로 전망하고 있다. 앞서 이남수 키움증권 연구원은 "올해도 카지노 복합 리조트의 실적은 여전히 코로나19의 영향권에 놓여 있지만 카지노 정상 오픈, 해외 입국자 증가 등이 예상되는 2022년에는 이익이 큰 폭으로 개선될 것으로 기대된다"고 말했다. &lt;저작권자 © ‘돈이 보이는 리얼타임 뉴스’ 머니투데이, 무단전재 및 재배포 금지&gt; 공감 0% 비공감 0% "매일 밤 아내가 보챕니다" 결혼 10년차 남편의 비결은? 머니투데이 댓글 작성을 위해 JavaScript를 활성화해주세요 머니투데이 주요뉴스 "코스피 바닥 근접, 팔지 마라…반등은 내년 2분기 이후" 연준 "4.5% 위에서 금리 인상 중단"…급격한 경기 둔화 위험 언급 미국 연준(연방준비제도)의 주요 인사 2명이 지난달 예고한 대로 금리를 올릴 계획이라고 밝히면서 향후 금리 인상에 주의할 필요가 있다는 점을 인정했다.10일(현지시간) 월스트리트 저널(WSJ)에 따르면 라엘 브레이너드 연준 부의장과 찰스 에반스 시카고 연방준비은행 총재는 이날 시카고에서 열린 전미 실물경제협회(NABE) 연레회의에 참석해 이같이 밝혔다.이들은 인플레이션을 연준의 목표치인 2%로 끌어내리는 데는 시간이 걸리고 지난달 공개된 연준의 금리 전망치에 따라 내년 초까지 금리를 4.5% 위로 올릴 것이라는 입장에는 변함이 없었... 52주 신저가만 470개…코스피 2%대·코스닥 4%대 급락 한은, 내일 빅스텝 유력…기준금리 3% 시대 온다 中 '반도체 굴기' 때린 미국…삼성·SK하이닉스 '호재' 단독 세계 최대 '교육계 다보스포럼', 처음으로 한국서 열린다 "주식 팔고 OO 샀다"…개미도 외국인도 몰려간 곳 단독 맞춤 패키지로 K원전 수출한다 '의문의 죽음' 英 신생아 7명의 공통점은… '아이폰14 프로' 들고 놀이기구 탔더니 911 출동 "삽시간에 쓸어" 베네수엘라 대규모 산사태 실시간 급상승 9.9 베스트클릭 종합 증권 "걸리면 절반 사망, 백신도 없다"…코로나 잠잠해지자 '에볼라 주의보' "횡령 내가 했다" 큰아들 감싼 박수홍 父, 계좌 비밀번호도 몰라 '풀소유 논란'에 사라진 혜민스님, 2년 만에 포착된 근황 "9억 아파트·11억 주택 있다" 대리기사 말에 격분해 폭행한 60대 "돈 많으면 때려" 말에 35차례 종업원 폭행 사망…업주 '징역 7년' '만취' 신혜성 왜 도난車 운전?…"발레파킹 직원이 열쇠 줘서 착각" "클럽서 따라 놓은 술 마셨다가…" 마약의 늪에 빠진 사람들 "이번주 금리 0.5%p 더 올린다"...전문가 10명 만장일치 [속보]사실상 일제고사 부활, 尹 "줄 세우기 비판에 아이들 방치, 미래 어두워" "日지배로 韓 발전했다"던 美하버드대…항의하자 돌아온 답변 이전 다음 '7000만→70억' 번 슈퍼개미 "지금이 기회, 주가 저평가" -73%, -66%, -55% 참혹한 카카오그룹株..또 자회사 상장 논란 카카오그룹株 '대폭락의 날'…-80% 개미들 "살려달라" 아우성 '깜깜이 공매도' 사라지나... 불법 공매도 세력 정보, 어디까지 공개 가능? 돌아온 줄 알았던 '남자의 주식' 흠슬라…HMM, 신저가 찍으며 추락 다시 시작된 유가의 공포…"110달러 찍는다" 암울한 전망도 "비싸다" 거침없는 SELL...韓 증시 흔드는 외국계 리포트 파워 주가 71% 빠진 하이브, 또 신저가…"그래도 괜찮다"는 증권가, 왜 '韓 반도체'만 '쑥' 오른다...5만전자·8만닉스 '찐 반등' 보일까 "카카오 또 무너지네" 그룹주 모조리 신저가…'반토막 목표가'도 등장 이전 다음 MT리포트 '여가부 폐지' 약속 지킨 尹정부…"오히려 기능 강화" 기대와 우려 이슈패키지 2022 국정감사 나희승 코레일 사장 "KTX 이용 유출 대상 민간인에 사과" "농진청 쌀 생산량 예측 능력 정확도 높여야" 野 "금감원, 도이치모터스 경찰 공조 부적절"…이복현 "공식 공문 없었다" 그린비즈니스위크 2022 K-탄소중립 현재·미래 한 눈에, GBW 2022 D-5.."등록하세요" 탄소중립 미래도 보고 일자리도 잡을 기회…그린 전환 잡콘서트 D-7 기후협상 산증인부터 벽안 석학, 글로벌기업까지..GBW 개막총회 총출동 2023년 예산안 "허리띠 졸라매고"...尹정부 첫 예산안, '역대 최대' 24조 칼질 尹대통령은 반도체 초강대국 주문했는데…'기재부' 벽 못넘은 지원 예산 장관 없어도 '100조 부처' 등극한 복지부·교육부 이전 다음 최신뉴스 증권 마켓 "'연준 피벗' 없이는 증시 상황 안 바뀔 것…현금 비중 높여라" [머니 이슈] 갖가지 악재에 얼어붙은 국내증시… 대응법은? 웰바이오텍, 매니 파퀴아오 vs D.K. YOO 매치 후원 "우크라이나 지원 나선다" [경이로운 소문] 러시아-우크라 갈등 최고조! 곡물 가격 확 뛴다? 에이프로젠, 30조원 규모 휴미라 고농도 제형 특허 출원 "생산원가 경쟁력 자신" "주식 팔고 OO 샀다"…개미도 외국인도 몰려간 곳 노장 성장호르몬의 '회춘'…동아에스티 바이오 성장 이끈다 일시적 2주택 미처분 가산세 없애고 하이브리드車 취득세 면제 연장 한올바이오파마 HL161 중국사업권, 하버바이오에서 CSPC로 이전 주가 70% 빠진 카카오…"4만원대로 추락" 장초반 신저가도 오늘의 꿀팁 많이 본 뉴스 일주일 1개월 6개월 1년 박수홍 인터넷뱅킹 ID '조카 이름+생일'…"父 횡령 말도 안된다" "우울증, 술에 의지" 최강희 연예계 떠난 근황…고깃집 '알바' 유혜영, '옥중 이혼' 나한일과 재결합했지만…"따로 산다" 왜? 공감 '방송 퇴출' 조형기, 한국 떠났나…美 한인타운서 찍힌 사진 보니 비공감 최정원, 자궁내막증 진단→자궁 적출…"수술 후 더 큰 문제 발생" "곽도원, 술상 엎고 후배 배우 비하·폭언…가족까지 괴롭혀" 주장 나와 이휘재, 데뷔 30년만에 활동 중단→가족과 캐나다행…무슨 일? "김신영 첫 녹화인데 서럽다"…'전국노래자랑' 대구서 불만 터진 이유 공감 '방송 퇴출' 조형기, 한국 떠났나…美 한인타운서 찍힌 사진 보니 비공감 이휘재, 주요 예능 사실상 퇴출→캐나다행…"큰 상실감 느껴" '쇼미' 출신 래퍼, 다이빙 사고로 전신마비…"대소변도 혼자 못봐" 이휘재, 주요 예능 사실상 퇴출→캐나다행…"큰 상실감 느껴" '故안재환과 사별' 정선희 "나 정도면 미혼…문란하게 살고파" 공감 이효리·이상순 저격한 전여옥 "재벌 못지 않다…꼭 카페 해야하나" 비공감 정유라 6년만의 근황 "깡으로 버텼다…조민이 불쌍하다니" 눈물 정선희 "장례 치르는데 김건모 오빠가 김영철 쫓아냈다"… 왜? 이휘재, 데뷔 30년만에 활동 중단→가족과 캐나다행…무슨 일? 고명환, 교통사고로 시한부 판정→"연매출 13억원" 사업가 변신 공감 김신영, '평생 직장' 전국노래자랑 출연료는?…"회당 OOO만원" 비공감 조형기는 어디에…방송 퇴출→유튜브마저 중단 후 소식 끊겨 오피니언 '복합경제위기' 해법은 없어도 돌파구는 있다 광화문 원희룡, '집값 너무 높다'고 말했을 뿐인데 우리가 보는 세상 포켓몬, 열풍이 역풍 된다? 기자수첩 MoneyS [르포] 제약바이오 채용박람회… 인사담당자가 강조한 '이것'은? IZE “내 맘이다!” 시원하게 외치는 개성만점 여성버디... the300 나희승 코레일 사장 "KTX 이용 유출 대상 민간인에 사과" theL 故 이예람 특검, 수사 결과 13일 오후 발표…전익수 기소 여부 주목 티타임즈 [30년 개발자의 애플 주식강의] 누가 차를 장악할까? 테슬라의 자율주행 vs 애플의 자동차 OS? 더리더 '여야 동수' 경기도의회 … 염종현 의장이 그리는 '협치' 스타일M 선미 vs 모델, 어깨 드러낸 오프숄더 룩…같은 옷 다른 느낌 스타뉴스 음주 재범+상습도박 재조명..신혜성, 하루아침에 날벼락[★NEWSing] 포토 / 영상 7 올가을 최저 기온에 목도리 패딩 등장 6 오늘부터 무비자 일본 관광 재개 30 드림캐쳐 '완벽한 퍼포먼스' 9 전여빈 '4차원 미모' 킹받게 매운 고추, 맵찔이도 외국인도 맛있게 먹을 수 있는 요리법 1020 울리는 댈입 댈구, 연 이자가 무려... '이 번호'로 로또 1등 433명 나온 필리핀 4K 시대에 게임 방송은 720p로 봐야 한다고?! 16 '아이폰14' 국내 출시 6 코스닥 700선 회복, 환율 1402.4원 마감 15 '주먹 쥔 파퀴아오' 9 레드벨벳 예리 '패딩+미니스커트 귀여운 공항패션' 커피 없는 일상, 현실이 될 수 있다고? 할머니도 놀란다는 요즘 애들 입맛 요즘 명품 로고들이 다 똑같아 보이는 이유 Q. 어제는 900원 오늘은 1000원인 것은? 7 '여가부 폐지·보훈부 격상·재외동포청 신설' 6 北, 이틀만에 또 탄도미사일 발사 45 화려한 'TMA 레드카펫' 20 부산국제영화제 찾은 이지은 '아이폰14' 공개 동시에 조롱거리 된 이유 포토카드 하나가 20만원? 팬덤이 키운 포카 시장 '진짜 한국 같아!' 도한놀이에 빠진 일본 MZ들 찍었다하면 인생샷! 핫플레이스의 정체는? 이전 다음 머니투데이 SERVICE 뉴스 경제정책 증권 정치 부동산 국제경제 사회 산업 IT 금융 벤처·스타트업 블록체인 문화 포토 영상 전체기사 증권 뉴스 시세/공시 포인트&amp;전략 펀드 종목대해부 베스트리포트 MY스톡 칼럼 데스크칼럼 사내칼럼 현장리포트 사외칼럼 SUCCESS SCIENCE 자동차 최신기사 신차소식 시승기 카라이프 연예 연예 스포츠 이슈 핫이슈 실시간급상승 베스트클릭 사람&amp; MT리포트 시세판 속보창 전문지·서비스 VIP 머니투데이 스타뉴스 스타일M 스포탈코리아 OSEN 키플랫폼 티타임즈 MnB창업 MT해양 자전거 the300 thebell theL 유니콘팩토리 MTN 노트펫 앱어워드 이로운넷 PIXTA 매거진 머니S 더리더 대학경제 로피시엘 레옹 IZE 캠페인 U클린 쿨머니 머니투데이 공식 SNS 채널 SNS MT 페이스북 MT 인스타그램 MT 트위터 MT 틱톡 MT 네이버포스트 MT 유튜브 싱글파이어 유튜브 부릿지 유튜브 부꾸미 유튜브 MT 비즈센터 머니투데이 회사소개 구독신청 개인정보처리방침 청소년보호정책 이용약관 광고안내 제휴안내 저작권규약 기사제보 고충처리 주소 서울특별시 종로구 청계천로 11 청계한국빌딩 (서린동)   제호 머니투데이   등록번호 서울 아 01084   등록일 2009.12.24사업자등록번호 101-81-50419   발행일 2020.01.01   ISSN 2636-0055대표이사/발행인/편집인 박종면   대표번호 02-724-7700   청소년 보호책임자 신택균 머니투데이의 모든 기사(콘텐츠)는 저작권법의 보호를 받으며, 무단 전재 복사 배포 등을 금지합니다.COPYRIGHT © MONEYTODAY ALL RIGHTS RESERVED. [인증범위]온라인 뉴스 서비스 운영(머니투데이)[유효기간]2020.11.04~2023.11.03</t>
+  </si>
+  <si>
+    <t>제주도, 중문관광단지 '3개 지구'로 분리 개발 고시 - 노컷뉴스 전체메뉴보기 노컷뉴스메인가기 제주도, 중문관광단지 '3개 지구'로 분리 개발 고시 뉴스듣기 0 페이스북 트위터 밴드 카카오톡 URL 폰트사이즈 - + 인쇄 CBS 전국 네트워크 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 닫기 크리스천뉴스 노컷비즈 노컷TV 노컷뉴스 전국 최신 정치 사회 전국 경제 산업 국제 문화 연예 스포츠 오피니언 포토 그래픽 노컷브이 핫이슈 스페셜 기획 제보 네이버 구독 다음 구독 카카오 구독 삭제 검색 자동완성 끄기 뉴스 정치 사회 전국 경제 산업 국제 문화 연예 스포츠 지역 서울 경인 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 일반 이슈 핫이슈 스페셜 기획 딥뉴스 노컷체크 인터랙티브 타임라인 시사 김현정의 뉴스쇼 한판승부 김덕기의 아침뉴스 정다운의 뉴스톡 530 오피니언 칼럼 뒤끝작렬 기고 노컷브이 그래픽 포토 노컷TV 씨리얼 팟캐스트 닫기 전국 제주 제주도, 중문관광단지 '3개 지구'로 분리 개발 고시 제주CBS 박정섭 기자 메일보내기 2021-06-09 12:54 뉴스듣기 0 페이스북 트위터 밴드 카카오톡 URL 폰트사이즈 - + 인쇄 중부지구, 숙박시설과 상가, 운동·오락, 휴양·문화 등 개발 완료동부 1지구, 제주컨벤션센터, 호텔, 휴양·문화, 편익시설 건설 중동부 2지구, 중문·대포 지역 인·허가 절차 이행 중 중문관광단지가 3개 지구로 나뉘어 개발된다. 제주도 제공 제주 중문관광단지 사업지구가 3개 지구로 분리 개발 된다. 제주도는 중문관광단지 사업지구를 기존 1개에서 3개로 분할하는 '중문관광단지 조성사업 분할 시행승인'을 고시했다고 9일 밝혔다.1978년 착공된 중문관광단지는 아직도 개발이 완료되지 않아 사업시행자는 물론 입주업체의 불만과 행정력 낭비 등이 제기돼 왔다.또 지난 97년 중문관광단지 확장계획에 따라 착공된 2단계 지역은 제주국제컨벤션센터와 호텔 등 일부 시설이 운영되고 있을 뿐 나머지 사업예정지는 추진이 부진한 상황이다.이에 따라 제주도와 한국관광공사는 중문관광단지 개발방식을 사업 진척도에 따라 3개 지구로 분리 시행하기로 했다. 분리 시행을 통해 중문관광단지는 중부지구와 동부 1지구, 동부 2지구 등 3개 지구로 나눠진다.중부지구는 최초 관광단지 개발을 시작한 지역으로 현재 숙박시설과 상가, 운동·오락, 휴양·문화 등 개발사업 대부분이 완료된 상태다.동부 1지구는 서귀포시 중문동 일대로 제주컨벤션센터와 호텔, 휴양·문화, 편익시설이 설치돼 운영 중이거나 건설 중인 지역이다.동부 2지구는 서귀포시 중문·대포동 지역으로 사업추진이 안되거나 인·허가 절차를 이행중인 지역이다.김재웅 제주도 관광국장은 "중문관광단지의 체계적인 개발로 지역주민과 관광객의 만족도가 높아질 것으로 기대한다"며 "중문관광단지가 제주지역을 대표하는 관광단지로 거듭날 수 있도록 관광단지 내 관리를 한층 더 강화해 나가겠다"고 밝혔다. 더 클릭 정진석 "조선, 안에서 썩어 망해…日, 조선왕조와 전쟁 한 적 없다" 동료들 보는 앞에서 엉덩이 때려도…'정직 1개월' 지적장애 가진 동거녀 딸 엉덩이 깨물고 학대한 50대 신화 신혜성, 도난 차량서 음주측정 거부 혐의…현행범 체포 손목에 체인 묶은 남녀?…아슬아슬 수위 높이는 연애 예능 승용차 6미터 절벽 추락 나무에 걸려 구조…40대 운전자 음주 혐의 입건 이재명 "종북몰이 공세, 친일파 같아…한미일 훈련, 尹 소명해야" 군 "北 저수지 탄도미사일, 한미 '킬 체인' 의식"…실효성은 글쎄? 정진석, 김용민 '尹정부 퇴진'주장에 "민주당 공식 입장인가" 경찰, 텔레그램 성착취 '엘번방' 18명 검거…유포자 3명 구속 제주CBS 박정섭 기자 메일 0 0 이 시각 주요뉴스 오늘의 기자 많이 본 뉴스 실시간 댓글 투데이 핫포토 오늘의 핫뉴스닫기 / 이전 다음 닫기 노컷뉴스 회사소개 사업 제휴 광고안내 콘텐츠 구매 제보 이용약관 개인정보 취급방침 편집규약 지역노컷 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 인터넷신문 등록번호 : 서울 아00030 | 등록일자 : 2005.08.30(노컷뉴스), 2007.11.05(노컷TV) 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 | ISSN : 2636-0373 노컷뉴스의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2003 CBS M&amp;C, 노컷뉴스 all rights reserved. 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 노컷스포츠 | 인터넷신문 등록번호 : 서울 아04480 | 등록일자 : 2017.04.20 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 노컷스포츠의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2003 CBS M&amp;C, 노컷스포츠 all rights reserved. 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 노컷연예 | 인터넷신문 등록번호 : 서울 아04479 | 등록일자 : 2017.04.20 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 노컷연예의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2017 by CBS M&amp;C, 노컷연예 all rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도·도의회, 관광객 몰리는 제주 우선 백신 접종 건의 : 제주 : 전국 : 뉴스 : 한겨레 본문 바로가기 광고 전체메뉴보기 전체 정치 정치일반 대통령실 국회·정당 행정·자치 국방·북한 외교 정치BAR 사회 사회일반 여성 노동 환경 장애인 인권·복지 의료·건강 미디어 궂긴소식 인사 엔지오 교육 종교 한겨레아카이브 전국 전국일반 제주 호남 영남 충청 강원 수도권 경제 Weconomy 경제일반 금융·증권 산업·재계 자동차 부동산 쇼핑·소비자 IT 직장·취업 중기·스타트업 기업PR 글로벌워치 국제 국제일반 해외토픽 아시아·태평양 미국·중남미 유럽 중국 일본 중동·아프리카 국제기구·회의 국제경제 문화 문화일반 영화·애니 방송·연예 여행·여가 음악·공연·전시 학술 책&amp;생각 제주&amp; 스포츠 스포츠일반 축구·해외리그 야구·MLB 골프 바둑 올림픽 경기일정 경기결과 미래과학 미래 과학 기술 환경 시각 애니멀피플 야생동물 반려동물 농장동물 인간과동물 생태와진화 기후변화&amp; 기후정책 기후행동 기후과학 기후적응 에너지와기후 기후와사회 오피니언 사설 칼럼 왜냐면 포토에세이 옵스큐라 만화 | ESC | 한겨레S | 한겨레 데이터베이스 | 뉴스그래픽 | 연재 | 이슈 | 함께하는교육 | HERI 이슈 | 탐사보도 | 서울&amp; 스페셜 물바람숲 휴심정 미래 창 기찬몸 사진마을 베이비트리 기후이야기 포토 화보 포토스페셜 최신포토뉴스 카드뉴스 한겨레TV 편성표 한겨레TV 소개 알려드립니다 광고·후원 문의 전체 프로그램 뉴스서비스 많이본기사 날짜별한겨레 지난톱기사 디지털초판 RSS서비스 기사제보 기사투고 매거진 한겨레21 씨네21 이코노미인사이트 사업 한겨레휴센터 한겨레테마여행 한겨레패키지여행 전체메뉴닫기 오피니언 연재 한겨레TV 포토 EN 日本 中文 한겨레21 씨네21 이코노미인사이트 로그인 회원가입 구독신청 한겨레 세상을 바꾸는 벗 후원하기 서비스 메뉴 뉴스레터 감사원 ‘위법감사’ [단독] 감사원, 국민감사본부 만들어 한 일이 ‘KBS 감사’ 뿐 [포토] 감사원 국감 파행…자리 뜨는 김도읍 법사위원장 ‘문자 내통’ 유병호 “송구스럽지만, 그 소통은 정상적인 것” 감사원 국감, 10분 만에 파행…“감사방해!” “착하게 살라” 고성 오가 [단독] “대통령 지원기관”이라는 감사원장, 직원들 해명 요청 거부민주 “‘문자내통’ 캐겠다…이관섭·감사위원 전원 국감 나와야”서해 사건 감사 위법성 논란, 법조계도 “직권남용·강요죄 소지”민주, ‘대감 게이트’ 공세…“권권유착 공수처가 수사하라” 관련 이슈&amp;연재 아베, 피격 사망숨&amp;결세상읽기편집국에서 한겨레S “국가가 정한 말 아니면 틀렸다니” 표준어 없애는 거 어때요? 김정은의 마지막 친서에 등장한 두번의 ‘바보’ 스스로 ‘파묻은’ 윤 대통령, 제발 좀 정치 하는 걸 보고 싶다 ‘피부 안부’ 묻지 마세요…아토피안, 차별·몰이해를 말하다 아름다운 일과 먹고사는 일…감정노동·공짜노동 ‘살아내기’‘환경부=산업부 2중대’ 비아냥 왜?뒤집고 뒤집는 ‘김현숙 여가부’…다음주엔 뭘 뒤집을까울트라스텝, 그게 뭔데? ‘악의 근원’ 고물가를 잡아라 관련 이슈&amp;연재 뉴스AS북 핵실험·미사일 발사멈춰, 직장갑질 성한용의 정치 막전막후 여가부 없애는 정부 ‘일제고사’ 부활 선언…윤 대통령 “원하는 모든 학교 참여” [사설] 고조되는 민생·북핵 위기, 협치로 해법 찾으라 윤 대통령, ‘친일 논란’에 “핵 위협에 어떤 우려 정당화될 수 있나” ‘여가부 폐지’ 여성계 입장 들었다…‘반대 단체’는 빼고 외신들도 비판하는 여가부 폐지…“윤 대통령의 ‘여성 지우기’”윤 대통령 지지율 32%…‘매우 잘못 하고 있다’ 59.6% [리얼미터]‘윤석열차’ 애초 국힘이 시작…‘구둣발’ 부메랑까지 8개월이재명, 여가부 폐지 반대…민주 “이대남 결집, 정쟁 유발 의도” 관련 이슈&amp;연재 아베, 피격 사망숨&amp;결세상읽기편집국에서 책과 생각 비관주의자 김연수의 ‘변심’ “누군가를 기억할 때 바뀐다” 몸은 위태롭다…그래서 변화를 이끌 힘이 있다 나랏말싸미 일본과 다른데…일본어사전 베낀 국어사전, 괜찮나 우리에게 꼭 이름이 필요한가요 허구와 비허구의 교점에서 작가는 무엇을 발견했나당신의 뇌를 읽고 싶다‘균질적 단일언어’ 향해 달려온 우리말 형성사국제정치·외교안보 너머 ‘평화 다원주의’ 관련 이슈&amp;연재 짬황진미의 TV 새로고침정혜윤의 새벽세시 책읽기정인경의 과학 읽기 국민의힘 권력투쟁 ‘성접대 의혹’ 이준석 2차 경찰 조사…증거인멸 교사 조만간 결론 안철수 잡는 김기현, 김기현 때리는 윤상현… 벌써 시작된 당권경쟁 이준석 털어낸 국힘 ‘당권경쟁’…이재명 견제·중도 확장 “내가 적임” 이준석, ‘이순신 출정사’ 언급하며 “탈당 말라”…창당 선긋기 이준석 “누구도 탈당 말라”…이순신 ‘정중여산’ 인용해 첫 입장출마길도 막힐라…이준석 간다는 ‘외롭고 고독한 제 길’은 어디인가하태경 “이준석 윤리위 징계는 정치보복…가처분은 국민 기본권”고립무원 이준석…국힘 윤리위, ‘당원권 정지 1년’ 추가 징계 관련 이슈&amp;연재 아베, 피격 사망숨&amp;결세상읽기편집국에서 미래&amp;과학 인류가 가장 가까이서 본 유로파, 뒤얽힌 얼음 능선 너머엔… ‘지구방어’ 실험, 160m 소행성 충돌에…5만㎞ 먼지꼬리가 생겼다 지구 감싼 피부는 “사람 피부보다 얇다”…경이로운 3겹의 층 누리호 기술 이전 우선협상 기업은 한화에어로스페이스 야식 먹으면 낮에 더 배고프다…비만 부르는 3중 연결고리재난을 경험한 우리는 다른 사람이 된다, 강제로다음 팬데믹 주인공도 ‘변신의 귀재’ RNA 바이러스다돼지의 심장, 인쇄된 혈관이 장기 부족 해결할 수 있을까? 관련 이슈&amp;연재 곽노필의 미래창김준혁의 의학과 서사전치형 과학의 언저리박상준의 과거창 기후변화 오늘 ‘가을 추위’…모레 5도 “얼음 얼고 서리 내리는” 곳도 32만가구 전기·가스 지원 못 받는다…“윤 대통령 약속과 어긋나” 앞서기는커녕 떠넘기기 ‘환경부=산업부 2중대’ 비아냥 왜? 권성동, 4시간 만에 내놓은 해명 “‘혀 깨물고 죽지’, 내 의지 표현” ‘탈석탄법’ 5만명 입법 청원…“최소 신규 석탄발전 철회”‘원전 안전’ 시정 요구에도 8년째 그대로 왜?‘생태법인’을 아시나요?…제주 남방큰돌고래, 법적 권리 논의 시동‘탈석탄법’ 5만명 입법 청원…“최소 신규 석탄발전 철회” 관련 이슈&amp;연재 아베, 피격 사망숨&amp;결세상읽기편집국에서 광고 본문 광고 전국제주 제주도·도의회, 관광객 몰리는 제주 우선 백신 접종 건의 등록 :2021-06-09 15:14수정 :2021-06-09 15:17 허호준 기자 사진 허호준 기자 구독 구독중 페이스북 트위터 카카오 링크 스크랩 프린트 글씨 키우기 가 가 가 가 가 원희룡, 정부에 공식 건의…도의회도 건의안 채택 여름 휴가철을 앞두고 제주도와 제주도의회가 코로나19 백신 제주도민 우선 접종을 정부에 건의했다. 제주도와 제주도의회가 본격적인 여름 휴가철을 앞두고 관광객들이 몰리는 제주지역의 코로나19 조기 집단면역 형성을 위해 제주도민 우선 백신 접종을 정부에 건의했다. 원희룡 지사는 9일 오후 도청 브리핑실에서 발표한 제주도민 코로나19 백신 우선 접종 대정부 건의문을 통해 “제주도는 국민 전체의 공간이기에 제주의 방역이 흔들리면 국민은 갈 곳을 잃게 된다. 제주도민 집단면역 수준인 도민 70%(49만명) 분량의 백신을 본격적인 여름휴가가 시작되기 전에 우선 배정해 달라”고 정부에 요청했다. 원 지사는 “지금 제주를 찾는 관광객 규모는 코로나19 사태 이전 규모를 회복했고, 휴가철을 맞아 규모가 확대될 것으로 보인다”며 “그동안 제주도는 감염자가 적었지만 관광객이 늘면서 지역감염으로 퍼지고 최근에는 확진자 수가 연일 두 자릿수를 넘고 있다”며 대정부 건의 배경을 밝혔다. 도의회도 이날 오후 열린 제395회 임시회 제2차 본회의에서 송창권 도의원이 발의한 ‘코로나19 국민 심리방역 및 안전한 관광지 조성을 위한 제주도민 백신 우선 접종지원 건의안’을 상정해 통과시켰다. 도의회는 건의문에서 “제주도는 섬이라는 지리적 여건으로 다수의 코로나19 확진자가 발생하면 치료를 위한 이송과 전문 의료인력 수급 등에 어려움이 나타날 수 있어 예방적 차원의 방역 대책이 절실한 상황이다. 한달 100만명이 넘는 관광객이 찾는 제주도의 안전한 환경 구축을 위해 코로나19 예방접종을 우선 지원해달라”고 요청했다. 최근 제주에는 하루 평균 3만~4만여명에 이르는 관광객이 찾아 코로나19 이전 상황을 사실상 회복했다는 평가를 받고 있다. 허호준 기자 hojoon@hani.co.kr ▶한겨레 제주 기사 더보기 이슈코로나19 백신 접종 내일부터 코로나 겨울 추가접종…오미크론 백신이 기본 자연면역 1년 간다는데…백신 간격·실내 마스크는 이대로? 혹시 모르니…‘오미크론 백신’ 맞고 여행 어때요? 사전예약 시작 항상 시민과 함께하겠습니다. 한겨레 구독신청 하기 진실을 후원해주세요 용기를 가지고 끈질기게 기사를 쓰겠습니다. 여러분의 후원이 우리 사회에 드리운 어둠을 거둡니다. 후원하기 후원제 소개 두근거리는 미래를 후원해주세요 소외 없이 함께 행복한 세상을 위해 노력하겠습니다. 여러분의 후원이 평등하고 자유로운 사회를 만듭니다. 후원하기 후원제 소개 광고 광고 &gt;Please activate JavaScript for write a comment in LiveRe. 광고 전국 많이 보는 기사 1. ‘일가족 참사’ 화장실 기어간 큰딸만 목숨 건져…경찰, 현장 감식 2. 은행잎만 노랗게 빛나도록 남아라, 열매는 10분 줄테니 가라 3. 김진태 등에 업은 ‘학업성취도평가’…“학원에 선물 주는 것” 4. ‘신영복체 직인’ 폐기한 경기교육청…“훈민정음체가 잘 보여” 5. “토건 집착, 공공의료 뒷전” 대구 시민단체의 홍준표 100일 비판 한겨레와 친구하기 매일 아침, 매주 목요일 낮 뉴스의 홍수에서 당신을 구할 친절한 뉴스레터를 만나보세요 데일리 H:730 구독 위클리 h_weekly 구독 한겨레 공식 인스타그램 Follow @hanitweet 전체기사RSSRSS페이지 목록 한겨레앱 1/ 2/ 3 서비스 전체보기 전체 정치 정치일반 대통령실 국회·정당 행정·자치 국방·북한 외교 정치BAR 사회 사회일반 여성 노동 환경 장애인 인권·복지 의료·건강 미디어 궂긴소식 인사 엔지오 교육 종교 한겨레아카이브 전국 전국일반 제주 호남 영남 충청 강원 수도권 경제 Weconomy 경제일반 금융·증권 산업·재계 자동차 부동산 쇼핑·소비자 IT 직장·취업 중기·스타트업 기업PR 글로벌워치 국제 국제일반 해외토픽 아시아·태평양 미국·중남미 유럽 중국 일본 중동·아프리카 국제기구·회의 국제경제 문화 문화일반 영화·애니 방송·연예 여행·여가 음악·공연·전시 학술 책&amp;생각 제주&amp; 스포츠 스포츠일반 축구·해외리그 야구·MLB 골프 바둑 올림픽 경기일정 경기결과 미래과학 미래 과학 기술 환경 시각 애니멀피플 야생동물 반려동물 농장동물 인간과동물 생태와진화 기후변화&amp; 기후정책 기후행동 기후과학 기후적응 에너지와기후 기후와사회 오피니언 사설 칼럼 왜냐면 포토에세이 옵스큐라 만화 | ESC | 한겨레S | 한겨레 데이터베이스 | 뉴스그래픽 | 연재 | 이슈 | 함께하는교육 | HERI 이슈 | 탐사보도 | 서울&amp; 스페셜 물바람숲 휴심정 미래 창 기찬몸 사진마을 베이비트리 기후이야기 포토 화보 포토스페셜 최신포토뉴스 카드뉴스 한겨레TV 편성표 한겨레TV 소개 알려드립니다 광고·후원 문의 전체 프로그램 뉴스서비스 많이본기사 날짜별한겨레 지난톱기사 디지털초판 RSS서비스 기사제보 기사투고 매거진 한겨레21 씨네21 이코노미인사이트 사업 한겨레휴센터 한겨레테마여행 한겨레패키지여행 회사소개 구독신청 광고안내 채용 기사제보 투고 고충처리 고객센터 face book twitter 사이트 운영 저작권 회원약관 개인정보취급방침 지적재산보호정책 이메일주소 무단수집거부 사이트맵 한겨레 가족 하니누리 한겨레출판 한겨레경제사회연구원 한겨레교육문화센터 한겨레통일문화재단 사람과디지털연구소 한겨레신문 등록번호:서울,아01705 등록일자:2011-7-19 사업자등록번호:105-81-50594 발행인:김현대 편집인:백기철 청소년보호책임자:백기철 주소:서울특별시 마포구 효창목길 6 고객센터:1566-9595 Copyright ⓒ The Hankyoreh. All rights reserved. 뉴스레터, 올해 가장 잘한 일 구독신청 일주일 그만보기 닫기</t>
+  </si>
+  <si>
+    <t>제주도의회 "관광지 제주, 도민 백신 우선 접종해야" 검색 본문 바로가기 회사정보 바로가기 2022.10.11 (화) 실시간뉴스 play puase 실시간 뉴스열기 실시간 뉴스 닫기 실시간뉴스 기사제보 상품소개 노동신문 CONNECT 서비스 해피펫 통합검색 통합검색 통합검색 기자명 제목+내용 제목 내용 검색 정치 국회ㆍ정당 대통령실 총리ㆍ감사원ㆍ위원회 국방ㆍ외교 통일 정치일반 북한 정치ㆍ외교 군사 경제 사회 문화ㆍ스포츠 남북교류ㆍ협력 경제 정책 일반동향 건설ㆍ부동산 농식품 사회 법원ㆍ검찰 사건ㆍ사고 교육 복지ㆍ인권 노동 환경 날씨ㆍ재해 일반 인물 여성가족 IT/과학 모바일 통신ㆍ뉴미디어 인터넷ㆍ플랫폼 IT일반 보안ㆍ해킹 컴퓨터 게임ㆍ리뷰 과학일반 금융/증권 금융일반 금융정책 통화정책 은행 금융투자 보험 카드 핀테크 증권일반 산업 산업일반 재계 전기전자 자동차산업 에너지ㆍ중공업 유통 생활경제 중기ㆍ창업 패션 뷰티 호텔ㆍ관광 의료 식음료 헬스케어 제약ㆍ바이오 취업ㆍ채용 지방 행정자치 서울 경기 인천 강원 세종ㆍ충북 대전ㆍ충남 전북 광주ㆍ전남 대구ㆍ경북 부산ㆍ경남 울산 제주 국제 국제경제 미국ㆍ캐나다 동북아 아시아ㆍ호주 유럽 중동ㆍ아프리카 국제기구 피플&amp;피플 지구촌화제 일반 중남미 생활/문화 공연ㆍ전시 책 종교 문화정책 문화일반 건강정보 여행·레저 운세ㆍ명언 도로ㆍ교통 반려동물 자동차생활ㆍ시승기 음식ㆍ맛집 연예 연예가화제 방송ㆍTV 영화 음악 해외연예 인터뷰 스포츠 야구 해외야구 축구 해외축구 골프 종목일반 농구 배구 여행 국내 해외 바이크 관광 레저 호텔ㆍ크루즈 이벤트 포토 영상 이슈 펫카드 그래픽뉴스 인사 부고 페이스북 트위터 유튜브 인스타그램 네이버 포스트 해피펫 N트래블 뉴스1바이오 N스타일 노동신문 히든메뉴 닫기 글로벌 메뉴 열기 정치북한사회경제IT/과학금융/증권산업지방행정자치서울경기인천강원세종ㆍ충북대전ㆍ충남전북광주ㆍ전남대구ㆍ경북부산ㆍ경남울산제주국제생활/문화연예스포츠여행TVBBC 홈 &gt; 지방 &gt; 제주 제주도의회 "관광지 제주, 도민 백신 우선 접종해야" 9일 건의안 채택 예정 (제주=뉴스1) 홍수영 기자					| 2021-06-08 14:41 송고 댓글 공유 카카오톡으로 공유하기 페이스북으로 공유하기 트위터로 공유하기 이메일로 공유하기 url 복사 축소/확대 가 가 가 가 가 인쇄 8일 열린 제주도의회 제395회 임시회 예산결산특별위원회(위원장 문종태) 제2차 회의.(제주도의회 제공)2021.6.8/뉴스1 제주도의회가 제주지역 신종 코로나바이러스 감염증(코로나19) 백신 우선 접종을 주장하고 나섰다.제주도의회는 9일 열리는 제395회 임시회 제2차 본회의에서 ‘코로나19 국민 심리방역 및 안전한 관광지 조성을 위한 제주도민 백신 우선 접종 지원 건의안’을 채택할 예정이다.도의회는 건의안을 통해 제주도민에 대한 선제적 백신 접종으로 집단면역을 형성할 수 있도록 정부의 지원을 요구할 계획이다.제안 이유로는 “제주 방문 관광객이 증가함에 따라 지역경제가 회복세를 보이는 긍정적 효과도 있지만 코로나19 지역사회 감염 확산에 대한 우려와 공포 역시 급격히 커지고 있다”고 밝혔다.특히 “제주는 섬이라는 지리적 여건으로 다수의 감염병 환자가 발생해도 치료를 위한 이송 및 전문의료인력 수급 등에 심각한 어려움이 발생할 수 있다”고 우려했다.아울러 “전 국민이 안심하고 쉴 수 있는 관광지 ‘그린제주’ 환경을 구축하고 활용해야 한다”고 제안했다.이같은 주장은 8일 도의회 예산결산특별위원회(위원장 문종태) 제2차 회의에서도 제기됐다.강성균 의원(더불어민주당·제주시 애월읍)은 “제주의 상황은 특수하기 때문에 백신 확보 노력을 더 적극적으로 해야 한다”고 주장했다. 이어 “제주는 섬이라는 지리적 여건상 코로나19가 한번 퍼지면 걷잡을 수 없다”며 “관광객들이 수도 없이 밀려오고 있는데 도민 안전을 위해 백신 접종률을 높여야 한다”고 말했다.답변에 나선 임태봉 국장은 “7~8월 여름 휴가철을 맞아 많은 관광객들이 제주를 찾을 것으로 보인다”고 우려했다.임 국장은 “그에 맞춰 제주가 집단면역을 갖추게 되면 국민들이 충분히 힐링도 하고 코로나 블루에서도 해방될 수 있을 것”이라며 “조만간 정부에 제주도민의 선제적 백신 접종을 정식 요청할 계획”이라고 밝혔다.앞서 원희룡 제주도지사와 김두관 국회의원(더불어민주당·경남 양산시을)은 지난 5일 비공개 면담을 갖고 안전한 제주관광 환경을 조성하기 위해 제주도민의 선제적 백신 접종에 협력하기로 했다.이 자리에서 김 의원은 “제주도민의 70%가 백신을 선제적으로 접종하자고 제안한 친서를 청와대와 행정안전부, 보건복지부에 전달했다”고 밝혔다.이에 원 지사도 “제주도만 특혜를 받겠다는 것이 아니라 제주에서 5인 이상 집합금지 제한을 해제한다면 국민이 원하는 욕구를 채워줄 수 있을 것”이라고 화답했다. gwin@news1.kr &lt;저작권자 © 뉴스1코리아, 무단전재 및 재배포 금지&gt; 핫뉴스 "연하 남편·여직원, 시댁서 동거…시모는 며느리 대접" 선우은숙 "만난지 석달…유영재 '나 믿고 함께하자' 말에 결혼" 이지현 "돌싱 둘째남편 시댁서 아이들 거부…살림 못 합쳤다" '음주운전' 신혜성, 측정 거부해 체포 "죄송…차량 절도는 아냐" '남궁민♥' 진아름, 화사한 웨딩드레스 자태 "예쁘게 살 것" 김태희, 직접 올린 근황은…독보적 미모 오늘의 핫 포토 대통령실까지 행진하는 배민 라이더 정진석 "이재명 '日軍 주둔설' 文 '김정은 비핵화 약속'…양대 망언 취업, 그 간절한 마음 'K패션의 미래가 한자리에' [국감]유병호 "문자 송구스러워…소통은 정상적" 꿈새김판 가을편 '지금이 가을이에요' '서울에서 발생한 총기사고, 경찰 조사 중' 탭메뉴 스포츠 연예 스타일 스포츠 9부 능선 넘었어도 긴장 풀지 않은 홍명보 감독 "아직 우승 아닌데…" 프로농구 10개구단 감독들이 뽑은 새 시즌 우승후보는? KT… 2위 SK '2년 간 11승' 박민지, 신지애 기록 넘본다…대상-상금왕 2연패 정조준 IBK기업은행, 여자부서 가장 먼저 외인 교체…산타나 다시 영입 연예 유진·은지원·황제성, '뜨겁게 안녕' 호스트 확정…10월 말 첫방 바타, 화제의 '새삥' 춤 일부 표절?…에이티즈 안무가, 의혹 제기 엑소 첸, 31일 새 미니앨범 '사라지고 있어' 발매…3년 만 솔로 컴백 공효진♥케빈오, 11일 미국 뉴욕서 결혼식…10세 연상연하 부부 스타일 최시원, 완벽 슈트핏에 넘치는 여유..."내 레전드 인물은 이수만" [N화보... 아이유·손석구, 커플 화보...의외의 달달 눈빛 교환 [N화보] 잔나비 최정훈, 바가지 헤어+농염 눈빛…자유분방 매력 [N화보] 레드벨벳 슬기, 궁전에 사는 공주님 비주얼 '세련' [N화보] 이전 다음 회사소개 개인정보취급방침 뉴스1 모바일 제휴광고 콘텐츠 판매 기사제보 고충처리 청소년 보호정책 지방본부 바로가기 경기 인천 강원 세종· 충북 대전· 충남 전북 광주· 전남 대구· 경북 부산· 경남 울산 제주 대표이사/발행인: 이백규 | 편집인: 강호병 | 주소: 서울시 종로구 종로 47 (공평동,SC빌딩17층) | 사업자등록번호: 101-86-62870 고충처리인: 김성환 | 통신판매업신고: 서울종로 0676호 | 등록일: 2011.05.26 | 제호: 뉴스1코리아 문의: 02-397-7000, webmaster@news1.kr Brand Promotional Section 삼성 홍보관 새창열기 현대 홍보관 새창열기 우수 컨텐츠 마크 확인페이지 새창열기 2016 웹 어둬드 방송 신문분야 최우수상 수상 Copyright (c) News1 Korea. All rights reserved. 모바일 버전</t>
+  </si>
+  <si>
+    <t>제주도, 외국인 관광객 줄자  '관광진흥기금' 고갈 위기 한국일보 제주도, 외국인 관광객 줄자  '관광진흥기금' 고갈 위기 이전기사 검색 읽기모드 흰색 배경 회색 배경 검은색 배경 가나다라 가나다라 가나다라 가나다라 가나다라 인쇄 공유 카카오 페이스북 트위터 이메일 URL 기사 URL이 복사되었습니다. 기사저장 기사가 저장 되었습니다. 기사저장이 취소 되었습니다. 닫기 제주도, 외국인 관광객 줄자  '관광진흥기금' 고갈 위기 입력 2021.06.16 04:00 수정 2021.07.08 13:32 좋아요 0 0 0 댓글달기 0 기금 주수입원 외국인 카지노 매출 급감2년 새 전체 기금 80% 소진 "곧 고갈될 것"제주도 "고갈 막으려고 면세점에 부과 검토" 제주신화월드 내 랜딩카지노 입구 전경. 김영헌 기자신종 코로나바이러스 감염증(코로나19) 사태로 해외여행이 막히면서 월 100만 명 이상의 내국인 관광객들이 제주도로 밀려들고 있지만, 외국인 관광시장이 회복하지 못하면서 '제주관광진흥기금’이 고갈 위기를 맞고 있다. 관광진흥기금은 주로 외국인들이 카지노에서 쓴 돈으로 충당된다. 관광객이 늘어도 기금 고갈이 우려되자, 제주도는 시내 면세점 매출에서 기금을 충당하는 방안을 논의하고 있다.15일 제주도에 따르면 지난해 관광진흥기금 조성액은 49억 원을 기록, 올해 말 예상 누적액은 101억 원으로 추정됐다. 이는 지난해 318억 원에 비해 70%가량 줄어든 금액이다.제주도 관계자는 “올해 관광진흥기금 예상 지출액(427억 원)이 예상 수입액(211억 원) 보다 2배 이상 많기 때문”이라며 “코로나19 사태 이전인 2019년 누적액 592억 원과 비교하면 2년 사이에 무려 80% 넘게 급감한 셈”이라고 말했다. 제주관광진흥기금은 제주도가 도내 관광산업을 육성하고 지원하기 위해 조성하는 기금으로, 제주도 차원의 출연금과 함께 제주를 찾는 관광객들이 쓰는 돈으로 구성된다. 제주관광진흥기금 조성액 현황관광진흥기금이 대폭 줄어든 것은 지난해 제주 무사증 제도 중단 등으로 인한 ‘외국인 관광시장 초토화’ 때문이다. 외국인 관광객 없이는 운영이 불가능한 도내 외국인 전용 카지노들이 매출의 1~10%를 기금으로 내왔고, 이들이 내는 출국납부금도 관광진흥기금으로 들어왔지만 지난해부터 사실상 끊겼다. 현재 도내 카지노 8곳 중 5곳은 휴업 중이다.제주도 관계자는 “관광진흥기금 고갈 위기를 해소하기 위해 정부에 130억 원을 출연해 줄 것을 건의했다”며 “그러나 지자체 기금에 대한 지원 근거가 없다는 이유로 난색을 표하고 있다”고 밝혔다.이에 따라 제주도는 관광진흥기금 납부 대상을 확대하는 방안을 검토하고 있다. 재원으로는 도내 시내면세점 3곳을 대상으로 부과하는 방안이 추진된다. 제주도 관계자는 “현재 제주지역 시내 면세점 매출액의 일부를 기금으로 조성하는 방안을 포함해 기금 확보를 위한 대책을 검토 중”이라고 말했다.제주의 청정 환경을 보전할 재원 확충을 위해 관광객들을 대상으로 징수하는 입도세 성격의 ‘환경보전기여금’ 도입 가능성도 제기됐지만, 관광 진흥은 환경 보호와는 성격이 달라 입도세 도입 문제는 논의에서 배제된 것으로 알려졌다.환경보전기여금은 오염 원인자 부담 원칙에 근거해 생활폐기물·하수·대기오염 등을 유발하는 사람에게 처리 비용 일부를 부담시키는 제도로, 원희룡 제주지사는 지난해 10월 제주 관광객 급증으로 폐기물과 하수 발생량이 늘면서 환경보전기여금 도입을 공식화했다. 하지만 관광객들에게 부담을 줄 경우, 제주관광 경쟁력 약화를 우려한 도내 관광업계의 반발로 진척을 보지 못하고 있다. 제주= 김영헌 기자 tamla@hankookilbo.com 0 0 공유 카카오 페이스북 트위터 이메일 URL 기사 URL이 복사되었습니다. 기사저장 기사가 저장 되었습니다. 기사저장이 취소 되었습니다. 댓글 쓰기 세상을 보는 균형, 한국일보Copyright ⓒ Hankookilbo 신문 구독신청 당신이 관심 있을만한 이슈 지역 많이 본 뉴스 라이브 이슈 댓글0 댓글을 입력해 주세요. 등록 0 / 250 등록 좋아요순 최신순 새로고침 댓글 신고 닫기 신고 사유를 선택해주세요. 불쾌감 조성 (비방/욕설/인신공격) 불법 광고 또는 스팸 음란성 게시글 사생활 침해 또는 명예훼손 취소 확인 삭제 확인 작성하신 글을 삭제하시겠습니까? 아니오 네 한국일보에 로그인하면 다양한 편의 기능을 제공 받을 수 있습니다. 읽던 기사 이어보기 댓글 반응 및 추천기사 제공 연재 기사 정기 구독 기능 로그인 페이스북 로그인 카카오 로그인 아이디 또는 비밀번호를 잘못 입력했습니다.(연속 1회) 아래 이미지를 보이는 대로 입력해주세요. 스피커로 들리는 내용을 숫자로 입력해 주세요. 새로고침 음성으로 듣기 새로고침 이미지로 보기 로그인 자동 로그인 회원가입 아이디 찾기 비밀번호 찾기 중복 가입 요청 이미 가입된 회원입니다. 확인 자동 로그인 공공장소에서 사용하는 컴퓨터에서는 자동 로그인 기능 사용에 유의 바랍니다. 확인 아이디 찾기 휴대폰 인증 비밀번호를 잊으셨나요? 아이디 찾기 손흥민/01012345678 으로 찾은 아이디 입니다. user@hankookilbo.com 로그인 비밀번호 찾기 인증방법 선택 등록된 이메일로 인증하기 휴대폰으로 인증하기 인증메일 발송 휴대폰 인증 아이디를 잊으셨나요? 계정 정보 없음 입력하신 사용자가 존재하지 않습니다. 확인 인증메일 발송 인증메일이 발송되었습니다. 해당 메일 계정 확인바랍니다. (유효시간:15분) 확인 아이디 입력 요청 비밀번호를 찾으실 아이디를 입력해주세요. 확인 비밀번호 재설정 비밀번호가 일치합니다. 확인 회원 정보 수정 비밀번호가 변경되었습니다. 확인 재시도 요청 유효 시간이 종료되었습니다. 다시 인증메일을 발송해주세요. 확인 로그인 5회 연속 실패 보안을 위해 비밀번호와 자동입력 방지문자를 함께 입력 바랍니다. 네 아이디 찾기 휴대폰 인증 비밀번호를 잊으셨나요? 약관동의 전체동의 (선택포함) 한국일보 이용약관 (필수) 제 1 조 (목적) 이 이용약관 (이하 ‘약관’이라 합니다)은 ㈜한국일보사 (이하 ‘회사’라 합니다)가 제공하는 한국일보닷컴(hankookilbo.com) 관련 제반 서비스의 이용과 관련하여 회사와 회원 간 권리와 의무 및 책임, 기타 필요한 사항을 규정함을 목적으로 합니다. 제 2 조 (용어의 정의) 1. 이 약관에서 사용하는 용어의 정의는 다음과 같습니다. ① ‘회원’ 이라 함은 이 약관에 동의하고 이용자 아이디(ID)와 비밀번호를 부여 받아 이 회사가 제공하는 서비스를 이용하는 이용자를 말합니다. ② ‘이용계약’ 이라 함은 이 약관을 포함하여 서비스 이용과 관련하여 회사와 회원간에 체결하는 모든 계약을 말합니다. ③ ‘가입’ 이라 함은 회원이 되고자 하는 이용자가 이 약관에 동의하고 회사의 서비스 신청 양식에 필요 정보를 기입하고, 서비스 이용 계약을 신청, 회사의 승인을 얻는 것을 말합니다. ④ ‘탈퇴’라 함은 회원이 이용계약을 해약하는 것을 말합니다. ⑤ ‘이용자 아이디(ID)’라 함은 회원의 식별 및 서비스 이용을 위하여 회원이 정하고 회사가 승인한 문자와 숫자의 조합을 말합니다. ⑥ ‘비밀번호’라 함은 이용자 아이디(ID)로 식별되는 회원의 본인 여부를 검증하기 위하여 회원 자신이 정하여 등록한 문자와 숫자의 조합을 말합니다. ⑦ ‘단말기’라 함은 서비스에 접속하기 위해 회원이 이용하는 개인용 컴퓨터, PDA, 휴대전화, IPTV 등의 전산장치를 말합니다. ⑧ ‘게시물’ 이라 함은 회원이 서비스 이용을 하면서 게시한 글, 사진, 동영상 및 각종 파일과 링크 등을 말합니다. 2. 이 약관에서 사용하는 용어 중 제1항에서 정하지 아니한 것은 관계 법령 및 서비스별 안내에서 정하는 바에 따르며, 그 외에는 일반 관례에 따릅니다. 제 3 조 (약관의 게시 및 개정) 1. 회사는 이 약관을 회원들이 쉽게 알 수 있도록 한국일보닷컴 초기화면에 게시합니다. 2. 회사는 ‘약관의규제에관한법률’ ‘정보통신망이용촉진및정보보호등에관한법률(이하 ‘정보통신망법’) 등 관련 법을 위배하지 않는 범위 안에서 이용 약관을 개정할 수 있습니다. 3. 회사가 약관을 개정할 경우에는 적용일자 및 개정사유를 명시하여 현행약관과 함께 제1항의 방식에 따라 개정약관의 적용일자 30일 전부터 적용일자 전일까지 공지합니다. 다만 회원에게 불리한 개정의 경우에는 공지 외에도 전자우편, 전자쪽지, 로그인 시 동의 창 등 전자적 수단을 통해 따로 통지합니다. 4. 회원이 약관 개정에 동의하지 않을 경우 당 회원과 이용계약을 해지할 수 있습니다. 5. 회원이 개정된 약관의 효력이 발생한지 15일 후에도 거부 의사를 표명하지 않은 채 계속 서비스를 이용할 경우 개정된 약관에 동의한 것으로 간주합니다. 제 4 조 (약관 외 준칙) 1. 회사는 필요한 경우 서비스별로 개별약관 또는 운영원칙을 둘 수 있으며, 이 약관과 운영원칙의 내용이 상충되는 경우에는 서비스별 개별약관과 운영원칙을 우선하여 적용합니다. 2. 이 약관에 명시되어 있지 않은 사항은 관련 법령 또는 상관례에 따릅니다. 제 5 조 (이용계약의 성립) 1. 이용계약은 회원이 되고자 하는 자(이하 ‘가입신청자)가 약관 내용에 ‘동의’를 한 후 회원가입 신청을 하고 회사가 이러한 신청을 승낙함으로써 체결됩니다. 2. 회사는 가입신청자의 신청에 대해 서비스 이용을 승낙함을 원칙으로 합니다. 다만 회사는 다음 각 호에 해당하는 신청에 대하여는 승낙을 하지 않거나 사후에 이용계약을 해지할 수 있습니다. ① 가입신청자가 이 약관에 의하여 이전에 회원자격을 상실한 적이 있는 경우. 다만 ‘회사’의 재가입 승낙을 얻은 경우는 예외로 함 ② 타인의 명의, 이메일 주소, 휴대전화 번호 등 개인정보를 도용하여 가입한 경우 ③ 허위 정보를 기재하거나 회사가 필수적으로 요구하는 사항을 기재하지 않은 경우 ④ 이용자 귀책사유로 인하여 승인이 불가능하거나 기타 규정한 제반 사항을 위반하며 신청하는 경우 ⑤ 관계법령에 위배되거나 사회의 안녕질서 혹은 미풍양속을 저해할 수 있는 목적으로 신청한 경우 ⑥ 영리목적 기타 부정한 용도로 본 서비스를 이용하고자 하는 경우 3. 회사는 제2항에 따라 회원가입신청의 승낙을 하지 않거나 유보한 경우 이를 가입신청자에게 알려야 합니다. 4. 회사는 서비스 이용신청이 다음 각 호에 해당하는 경우에는 그 신청에 대하여 승낙 제한사유가 해소될 때까지 승낙을 유보할 수 있습니다. ① 회사의 서비스 관련 설비의 여유가 없는 경우 ② 회사의 기술상 또는 업무상 문제가 있는 경우 ③ 기타 이용승낙이 곤란한 경우 5. 회사는 이용신청 고객이 관계법령에서 규정하는 미성년자일 경우에 서비스별 안내에서 정하는 바에 따라 승낙을 보류할 수 있습니다. 6. 회사는 회원을 대상으로 서비스별, 이용시간, 이용횟수 등을 통해 등급을 구분하여 이용에 차등을 둘 수 있습니다. 제 6 조 (개인정보 보호 의무 및 사용) 1. 회사는 ‘정보통신망법’ 등 관계 법령이 정하는 바에 따라 회원의 개인정보를 보호하기 위해 최선을 다합니다. 개인정보의 보호와 사용에 대해서는 관련 법령 및 회사의 개인정보취급방침이 적용됩니다. 다만 회사의 공식사이트 이외의 링크된 사이트에서는 회사의 개인정보취급방침이 적용되지 않습니다. 2. 회원은 이용자 아이디(ID) 및 비밀번호 등 개인정보가 타인에게 노출되지 않도록 철저히 관리해야 하며, 회사는 회원의 귀책사유로 인해 노출된 정보에 대해서는 책임을 지지 않습니다. 3. 회원은 아이디 및 비밀번호가 도용되거나 제3자가 사용하고 있음을 인지한 경우 이를 즉시 회사에 통지하고 회사의 안내에 따라야 합니다. 4. 회사는 다음과 같은 경우에 법이 허용하는 범위 내에서 회원의 개인정보를 제3자에게 제공할 수 있습니다. ① 수사기관이나 기타 정부기관으로부터 적법한 절차에 따라 정보제공을 요청 받은 경우 ② 회원의 법령 또는 약관의 위반을 포함하여 부정행위 확인 등의 정보보호 업무를 위해 필요한 경우 ③ 기타 법률에 의해 요구되는 경우 5. 회사는 회원에게 보다 다양한 정보 서비스 및 관련 혜택을 제공할 목적으로 회원의 정보를 이용할 수 있습니다. 또한, 회사는 회원정보를 제휴사에게 제공할 경우 제휴사, 목적, 이용될 회원정보 내용 등을 사전에 공지하고 회원 동의를 받아야 합니다. 6. 회사가 타사와 합병, 분할 시 회원의 정보는 공유될 수 있습니다. 7. 회사는 서비스 제공시 회원의 단말기로 쿠키를 전송할 수 있습니다. 이 경우 회원은 사용하는 단말기의 브라우저가 쿠키의 수신을 거부하거나 쿠키의 수신에 대하여 경고하도록 설정을 변경할 수 있습니다. 8. 회원이 이용신청서에 회원정보를 기재하고 본 약관에 동의 이용신청을 하는 것은 기재된 회원정보를 수집, 이용 및 제공하는 것에 동의하는 것으로 간주합니다. 9. 회사는 관련 법령과 이용 약관, 개인정보보호방침이 정하는 한계 내에서 회원 전체 또는 일부 정보를 업무와 관련된 통계자료로 사용할 수 있습니다. 제 7 조 (회사의 의무) 1. 회사는 관련법과 이 약관이 금지하거나 미풍양속에 반하는 행위를 하지 않으며, 계속적이고 안정적으로 서비스를 제공하기 위하여 최선을 다하여 노력합니다. 2. 회사는 회원이 안전하게 서비스를 이용할 수 있도록 개인정보 보호를 위해 보안시스템을 갖추어야 하며 개인정보취급방침을 공시하고 준수합니다. 3. 회사는 서비스 이용과 관련하여 발생하는 이용자의 불만 또는 피해 구제 요청을 적절하게 처리할 수 있도록 필요한 인력 및 시스템을 구비합니다. 4. 회사는 서비스 이용과 관련하여 회원으로부터 제기된 의견이나 불만이 정당하다고 인정할 경우에는 이를 처리하여야 합니다. 제 8 조 (회원의 의무) 1. 회원은 다음 행위를 하여서는 안 됩니다. ① 신청 또는 변경 시 허위 내용의 등록 ② 타인의 정보 도용 ③ 회사가 게시한 정보의 변경 ④ 회사가 정한 정보 이외의 정보(컴퓨터 프로그램 등)를 송신 또는 게시 ⑤ 회사와 기타 제 3자의 저작권 등 지적재산권에 대한 침해 ⑥ 회사 및 기타 제3자의 명예를 손상시키거나 업무를 방해하는 행위 ⑦ 외설 또는 폭력적인 메시지, 화상, 음성 등의 정보를 서비스에 공개 또는 게시하는 행위 ⑧ 회사의 동의 없이 영리를 목적으로 서비스를 사용하는 행위 ⑨ 기타 불법적이거나 부당한 행위 2. 회원은 관계 법령과 이 약관의 규정, 회사가 통지하는 사항 등을 준수하여야 하며, 기타 회사의 업무에 방해되는 행위를 해서는 안 됩니다. 3. 회원은 이용 신청시 기재한 주소, 연락처, 전자우편주소 등 개인정보와 이용계약 사항의 변경이 있을 경우 즉시 수정하여야 하며, 미변경으로 인해 발생하는 문제에 대해서 회사는 책임지지 않습니다. 4. 회원은 회사의 명시적 동의가 없는 한 서비스를 이용한 영업활동을 할 수 없으며, 그 영업활동의 결과에 대해 회사는 책임을 지지 않습니다. 또한 회원은 이와 같이 영업활동으로 회사가 손해를 입은 경우 회원은 회사에 대해 손해배상 의무를 지며, 회사는 해당 회원에 대해 서비스 이용제한 및 적절한 절차를 거쳐 손해배상 등을 청구할 수 있습니다. 제 9 조 (이용자 아이디 부여 및 변경) 1. 회사는 회원에 대하여 약관에 정하는 바에 따라 이용자 아이디(ID)를 부여합니다. 2. 이용자 아이디(ID)는 원칙적으로 변경이 불가하며 부득이한 사유로 인하여 변경하고자 하는 경우에는 해당 아이디(ID)를 해지하고 재가입 해야 합니다. 3. 이용자 아이디(ID)는 회원 본인의 동의 하에 회사 또는 자회사, 제휴사에서 운영하는 사이트의 회원 아이디(ID)와 연결될 수 있습니다. 4. 이용자 아이디(ID)는 다음 각호에 해당하는 경우에는 회원의 요청 또는 회사의 직권으로 변경 또는 이용을 정지할 수 있습니다. ① 이용자 아이디(ID)가 전화번호 또는 주민등록번호로 등록되어 사생활 침해가 우려되는 경우 ② 타인에게 혐오감을 주거나 미풍양속에 어긋나는 경우 ③ 회사, 회사의 서비스 또는 서비스 운영자 등의 명칭과 동일하거나 오인 등의 우려가 있는 경우 ④ 기타 합리적인 사유가 있는 경우 5. 이용자 아이디(ID) 및 비밀번호 관리책임은 회원에게 있습니다. 이를 소홀히 관리하여 발생하는 서비스 이용상의 손해 또는 제3자에 의한 부정이용 등에 대한 책임은 회원에게 있으며 회사는 그에 대한 책임을 지지 않습니다. 6. 이용자 아이디(ID) 및 비밀번호를 도난 당하거나 제3자가 사용하고 있음을 인지한 경우에는 바로 회사에 통보하고 안내에 있는 경우에는 그에 따라야 하며, 이러한 통지를 하지 아니하거나 회사의 조치에 응하지 아니하여 발생한 모든 불이익에 대한 책임은 회원에게 있습니다. 7. 기타회원 개인정보 관리 및 변경 등에 관한 사항은 서비스별 안내에 정하는 바에 의합니다. 제 10 조 (서비스 이용) 1. 서비스는 회사의 업무상 또는 기술상 특별한 지장이 없는 한 연중무휴, 1일 24시간 운영을 원칙으로 합니다. 단 천재지변 및 비상사태를 비롯한 부득이한 상황이 발생한 경우에는 서비스를 일시 중단할 수 있습니다. 2. 회사는 컴퓨터 등 정보통신설비의 보수점검, 교체 및 고장, 통신두절 또는 운영상 상당한 이유가 있는 경우 서비스의 제공을 일시적으로 중단할 수 있습니다. 이 경우 회사는 회원들에 사이트를 통해 사전 공지합니다. 다만 긴급한 시스템 점검, 증설 및 교체, 설비의 장애, 서비스 이용자 폭주, 국가비상사태, 정전 등 부득이한 사유가 발생한 경우에는 사전 예고 없이 일시적으로 서비스의 전부 또는 일부를 중단할 수 있습니다. 3. 회사는 서비스 개편 등 서비스 운영 상 필요한 경우 회원에게 사전 예고 후 서비스의 전부 또는 일부의 제공을 중단할 수 있습니다. 제 11 조 (회원 게시물의 관리) 1. 회원의 게시물이 정보통신망법 및 저작권법 등 관련법에 위반되는 내용을 포함하는 경우, 회사는 관련법이 정한 절차에 따라 해당 게시물의 게시중단 및 삭제 등을 요청할 수 있습니다. 2. 회원이 서비스에 등록하는 게시물 등으로 인하여 본인 또는 타인에게 손해나 기타 문제가 발생하는 경우 전적으로 회원은 이에 대한 책임을 지며, 회사의 고의가 아닌 한 회사는 이에 대하여 책임을 지지 않습니다. 3. 회사는 다음 각호에 해당하는 게시물 등을 회원의 사전 동의 없이 임시게시 중단, 수정, 삭제, 이동 또는 등록거부 등 관련조치를 취할 수 있습니다. ① 다른 회원 또는 제3자에게 욕설 및 비방, 인신공격으로 불쾌감 및 모욕을 주거나 명예를 훼손하는 내용인 경우 ② 다른 회원 또는 제3자의 저작권을 침해하거나 불법정보 유출과 관련된 글을 올리는 경우 ③ 다른 회원 또는 제3자의 사생활 침해 및 개인정보를 유출하는 경우 ④ 공공질서 및 미풍양속에 위반되는 내용을 유포하거나 링크시키는 경우 ⑤ 불법복제 또는 해킹을 조장하는 내용인 경우 ⑥ 영리를 목적으로 하는 광고 또는 사이트를 홍보하는 내용인 경우 ⑦ 범죄와 결부된다고 객관적으로 인정되는 내용인 경우 ⑧ 사적인 판단이나 지역감정 조성, 종교적 견해의 내용으로 회사가 서비스 성격에 부합하지 않는다고 판단하는 경우 ⑨ 회사에서 규정한 게시물 운영원칙에 어긋나거나 게시판 성격에 부합하지 않는 경우 ⑩ 기타 관계법령에 위배된다고 판단되는 경우 3. 회사는 광고성 게시물 차단 및 안정된 게시물 운영을 위해 일부 서비스에 대해 게시물 이용시간을 제한할 수 있습니다. 다만 이런 경우 이용시간을 해당 서비스에서 공지합니다. 4. 회사는 일부 서비스에 대해서 회원이 등록하는 게시물에 대해 사전 심의 후 게시 여부를 결정할 수 있습니다. 제 12 조 (게시물의 저작권) 1. 회원이 등록한 게시물에 대한 저작권은 해당 저작권자에게 귀속됩니다. 2. 회사가 작성한 게시물 또는 저작물에 대한 저작권, 기타 지적재산권은 회사에 귀속되므로 회원이 서비스를 이용하면서 얻은 저작물은 회사의 사전 승낙 없이 복제, 송신, 출판, 전송, 배포, 방송, 기타 방법에 의하여 영리목적으로 이용하거나 제3자에게 이용하게 해서는 안됩니다. 3. 회사는 서비스의 운영, 전시, 전송, 배포, 홍보의 목적으로 회원의 별도의 허락 없이 무상으로 저작권법에 규정하는 공정한 관행에 맞게 합리적인 범위 내에서 다음과 같이 회원이 등록한 게시물을 사용할 수 있습니다. ① 서비스 내에서 회원 게시물의 복제, 수정, 개조, 전시, 전송, 배포 및 원저작물을 해치지 않는 범위 내에서의 편집 저작물 작성하는 경우 ② 서비스 제휴 파트너에게 회원의 게시물 내용을 제공, 전시 혹은 홍보하게 하는 경우 ③ 휴대폰, PDA, IPTV 등 단말기에서 회원의 게시물 내용을 제공, 전시 혹은 홍보하게 하는 경우 4. 회사는 전항 이외의 방법으로 회원의 게시물을 이용하고자 하는 경우 전화, 팩스, 전자우편 등의 방법을 통해 사전에 회원의 동의를 얻어야 합니다. 5. 게시물에 대해 제3자로부터 저작권 및 기타 권리의 침해 또는 명예훼손, 음란성 등의 이유로 이의가 제기된 경우 회사는 당해 게시물을 임시 삭제할 수 있습니다. 이 경우 회사는 이의를 제기한 자와 게시물 등록자 간의 법적 문제가 종결된 후, 게시 요청이 있는 경우에는 삭제된 게시물을 재등록 할 수 있습니다. 제 13 조 (정보의 제공) 1. 회사는 회원의 서비스 이용에 필요하다고 인정되는 다양한 정보를 공지사항이나 전자우편, SMS, SNS 등의 방법으로 회원에게 제공할 수 있습니다. 다만 회원은 관련법에 따른 거래관련 정보 및 고객문의 등에 대한 답변 등을 제외하고는 언제든지 전자우편에 대해서 수신 거절을 할 수 있습니다 2. 회사는 서비스 개선 및 회원 대상의 서비스 제공 등을 목적으로 회원의 동의 하에 관련 법령에 따라 추가적인 개인정보를 수집할 수 있습니다. 제 14 조 (광고 게재) 1. 회사가 회원에게 서비스를 제공하기 위한 수익기반의 일부인 광고게재 및 판촉활동에 대해서 회원은 서비스 이용 시 제공되는 광고에 대해 동의합니다. 2. 회사는 회원 가입 시 광고메일 발송에 동의한 한 회원에 한해서 회사의 판단에 따라 이메일 광고를 회원의 이메일 주소로 발송, 제공합니다. 3. 회사는 서비스상에 게재되어 있거나 서비스를 통한 광고주의 판촉활동에 회원이 참여하거나 교신 또는 거래를 함으로써 발생하는 일체의 손실과 손해에 대해 책임을 지지 않습니다. 제 15 조 (계약 해지) 1. 회원이 이용계약을 해지하고자 할 경우에는 회원 본인이 회사에서 제공한 서비스 내 영역을 통해 가입 해지를 해야 합니다. 회사는 관련법 등이 정하는 바에 따라 이를 즉시 처리해야 합니다. 2. 회원이 이용계약을 해지할 경우, 회사가 회원정보를 보유하는 경우를 제외하고는 관련법 및 개인정보취급방침에 따라 해지 즉시 회원의 모든 데이터는 소멸됩니다. 3. 회원이 이용계약 해지를 한 경우 본인 계정에 등록된 게시물 일체는 삭제됩니다. 다만 제3자에 의한 스크랩, 담기 등으로 재게시되거나, 복제된 게시물과 타인의 게시물과 결합되어 제공되는 게시물 등은 그러하지 않습니다. 제 16 조 (서비스 이용제한) 1. 회사는 회원이 이 약관의 의무를 위반하거나 서비스의 정상적인 운영을 방해한 경우, 이용을 단계적으로 제한할 수 있습니다. 2. 회사는 주민등록법을 위반한 명의도용 및 결제도용, 저작권법 및 컴퓨터프로그램보호법을 위반한 불법프로그램의 제공 및 운영방해, 정보통신망법을 위반한 불법통신 및 해킹, 악성프로그램의 배포, 접속권한 초과행위 등과 같이 관련법령을 위반한 경우에는 즉시 영구이용정지를 할 수 있습니다. 3. 회사는 본 조의 제한의 조건 및 세부내용은 이용제한정책 및 개별 서비스상의 운영정책에서 정하는 바에 의합니다. 제 18 조 (손해배상) 1. 회사와 이용자는 서비스 이용과 관련하여 고의 또는 과실로 상대방에게 손해를 끼친 경우에는 이를 배상해야 합니다. 2. 단, 회사는 무료로 제공하는 서비스의 이용과 관련하여 개인정보취급방침에서 정하는 내용에 위반하지 않는 한 어떠한 손해도 책임지지 않습니다. 제 19 조 (책임제한) 1. 회사는 천재지변 또는 이에 준하는 불가항력 기타 이 약관에서 정한 정당한 사유로 인하여 서비스를 제공할 수 없게 된 경우에는 서비스 제공에 관한 책임이 면제됩니다. 2. 회사는 회원의 귀책사유로 인한 서비스 이용의 장애 또는 손해에 대해서는 책임을 지지 않습니다. 3. 회사는 회원간 또는 회원과 제3자 상호간에 서비스를 매개로 하여 거래 등을 한 경우에는 책임이 면제됩니다. 4. 회사는 제공하는 서비스에 포함된 모든 정보, 소프트웨어, 제품 등에 부정확함과 인쇄상의 오류로 인해 발생하는 정보의 부정확성에 대해서는 책임을 지지 않습니다. 5. 회사는 회원의 게시물을 등록 전에 상시적으로 사전심사 하거나 게시물의 내용을 확인 또는 검토할 의무가 없으므로 그 결과에 대한 책임은 지지 않습니다. 6. 회사에서 회원에게 무료로 제공하는 서비스의 이용과 관련해서는 어떠한 손해도 책임을 지지 않습니다. 제 20 조 (통지) 1. 회사는 회원에 대하여 통지를 하는 경우 회원이 회사에 등록한 전자우편 주소로 할 수 있습니다. 2. 회사는 불특정다수 회원에게 통지를 해야 할 경우 회사 게시판을 통해 7일 이상 게시함으로써 개별통지에 갈음할 수 있습니다. 제 21 조 (준거법 및 재판관할) 1. 이 약관에 명시되지 않은 사항은 대한민국 관계법령과 상관습에 따릅니다. 2. 서비스 이용으로 인한 분쟁에 대해 소송이 제기될 경우 회사의 본사 소재지를 관할하는 법원을 관할법원으로 합니다. [부칙] 1. 이 약관은 2014년 5월 7일부터 시행합니다. 개인정보처리 방침 (필수) 한국일보닷컴(이하 ‘회사’)은 정보통신망 이용촉진 및 정보보호 등에 관한 법률, 개인정보보호법, 통신비밀보호법, 전기통신사업법, 등 정보통신서비스제공자가 준수하여야 할 관련 법령상의 개인정보보호 규정 및 방송통신위원회가 제정한 「개인정보보호지침」을 준수하고 있으며, 관련 법령에 의거한 개인정보취급방침을 정하여 이용자 권익 보호에 최선을 다하고 있습니다. 회사는 회원님들의 개인정보가 남용되거나 유출되지 않도록 최선을 다할 것이며, 이에 다음과 같이 회사의 개인정보 보호를 위한 방침에 대하여 알려드리고자 합니다. 단, 본 개인정보취급방침은 정부의 법령 및 지침의 변경, 또는 보다 나은 서비스의 제공을 위하여 그 내용이 변경될 수 있으니, 회원님들께서는 사이트 방문시 수시로 그 내용을 확인하여 주시기 바랍니다. 본 개인정보취급방침은 회사가 제공하는 서비스 (모바일 웹 포함) 이용에 적용되며 다음과 같은 내용을 담고 있습니다. 1. 수집하는 개인정보의 항목 및 수집방법 회사는 회원가입, 원활한 고객 상담, 각종 서비스의 제공을 위해 최초 회원가입 당시 아래와 같은 최소한의 개인정보를 필수항목으로 수집하고 있습니다. 가. 수집하는 개인정보의 항목 필수항목 : 이름, 생년월일, 아이디, 비밀번호, 메일주소, 휴대폰 번호, 주소, 가입인 증정보(참고로, 아동 관련 서비스를 제공할 때까지 만14세 미만 아동 회원은 가입을 불허합니다) 다만, 서비스 이용과정이나 사업처리 과정에서 IP Address, 쿠키, 방문 일시, 서비스 이용 기록, 불량 이용 기록, 결제기록 등이 자동으로 생성 되어 수집될 수 있습니다. 선택항목: 기존 아이디를 이용한 부가 서비스 및 맞춤식 서비스 이용 또는 이벤트 응모 과정에서 해당 서비스의 이용자에 한해서만 주민등록번호, 주소, 전 화번호, 직업 등의 정보들이 수집될 수 있습니다. 나. 개인정보 수집방법 회사는 다음과 같은 방법으로 개인정보를 수집합니다. - 홈페이지, 서면양식, 팩스, 전화, 상담 게시판, 이메일, 이벤트 응모, 배송요청 2. 개인정보의 수집 및 이용목적 회사는 수집한 개인정보를 다음의 목적을 위해 활용합니다. 가. 서비스 제공 서비스 제공에 관한 계약 이행 및 서비스 제공에 따른 요금정산, 컨텐츠 제공, 특정 맞춤 서비스 제공, 물품배송 또는 청구서 등 발송, 본인인증, 구매 및 요금 결제, 요금추심 나. 회원관리 회원제 서비스 이용에 따른 본인확인, 개인식별, 한국일보닷컴 이용약관 위반 회원에 대한 이용제한 조치, 서비스의 원활한 운영에 지장을 미치는 행위 및 서비스 부정이용 행위 제재, 가입의사 확인, 가입 및 가입횟수 제한, 추후 아동 관련 서비스제공으로 인한 만14세 미만 아동 개인정보 수집 시 법정 대리인 동의여부 확인, 추후 법정 대리인 본인확인, 분쟁 조정을 위한 기록보존, 불만처리 등 민원처리, 고지사항 전달, 회원탈퇴 의사의 확인 다. 신규 서비스 개발 및 마케팅·광고에의 활용 신규 서비스 개발 및 맞춤 서비스 제공, 통계학적 특성에 따른 서비스 제공 및 광고 게재, 서비스의 유효성 확인, 이벤트 정보 및 참여기회 제공, 광고성 정보 제공, 접속빈도 파악, 회원의 서비스이용에 대한 통계 3. 개인정보의 공유 및 제공 회사는 이용자들의 개인정보를 "2. 개인정보의 수집목적 및 이용목적"에서 고지한 범위내에서 사용하며, 이용자의 사전 동의 없이는 동 범위를 초과하여 이용하거나 원칙적으로 이용자의 개인정보를 외부에 공개하지 않습니다. 다만, 아래의 경우에는 예외로 합니다. - 이용자가 사전에 동의한 경우 - 법령의 규정에 의거하거나, 수사 목적으로 법령에 정해진 절차와 방법에 따라 수사기관의 요구가 있는 경우 4. 개인정보의 보유 및 이용기간 이용자의 개인정보는 원칙적으로 개인정보의 수집 및 이용목적이 달성되면 지체 없이 파기합니다. 단, 다음의 정보에 대해서는 아래의 이유로 명시한 기간 동안 보존합니다. 가. 회사 내부 방침에 의한 정보보유 사유 - 부정이용기록(부정가입, 징계기록 등의 비정상적 서비스 이용기록) 보존 이유 : 부정 이용 방지 보존 기간 : 15일 나. 관련법령에 의한 정보보유 사유 상법, 전자상거래 등에서의 소비자보호에 관한 법률 등 관계법령의 규정에 의하여 보존할 필요가 있는 경우 회사는 관계법령에서 정한 일정한 기간 동안 회원정보를 보관합니다. 이 경우 회사는 보관하는 정보를 그 보관의 목적으로만 이용하며 보존기간은 아래와 같습니다. - 표시, 광고에 관한 기록 보존이유 : 전자상거래등에서의 소비자보호에 관한 법률 보존기간 : 6개월 - 계약 또는 청약철회 등에 관한 기록 보존이유 : 전자상거래등에서의 소비자보호에 관한 법률 보존기간 : 5년 - 대금결제 및 재화 등의 공급에 관한 기록 보존 이유 : 전자상거래 등에서의 소비자보호에 관한 법률 보존 기간 : 5년 - 소비자의 불만 또는 분쟁처리에 관한 기록 보존이유 : 전자상거래등에서의 소비자보호에 관한 법률 보존기간 : 3년 - 웹사이트 방문기록 보존이유 : 통신비밀보호법 보존기간 : 3개월 5. 개인정보 파기절차 및 방법 이용자의 개인정보는 원칙적으로 개인정보의 수집 및 이용목적이 달성되면 지체 없이 파기합니다. 회사의 개인정보 파기절차 및 방법은 다음과 같습니다. 가. 파기절차 - 이용자가 회원가입 등을 위해 입력한 정보는 목적이 달성된 후 별도의 DB로 옮겨져(종이의 경우 별도의 서류함) 내부 방침 및 기타 관련 법령에 의한 정보보호 사유에 따라(보유 및 이용기간 참조)일정 기간 저장된 후 파기됩니다. - 동 개인정보는 법률에 의한 경우가 아니고서는 보유되는 이외의 다른 목적으로 이용되지 않습니다. 나. 파기방법 - 종이에 출력된 개인정보는 분쇄기로 분쇄하거나 소각을 통하여 파기합니다. - 전자적 파일 형태로 저장된 개인정보는 기록을 재생할 수 없는 기술적 방법을 사용하여 삭제합니다. 6. 이용자 및 법정대리인의 권리와 그 행사방법 - 이용자는 언제든지 등록되어 있는 자신의 개인정보를 조회하거나 수정할 수 있으며, 회사의 개인정보의 처리에 동의하지 않는 경우 동의를 거부하거나 가입해지(회원탈퇴)를 요청하실 수 있습니다. 다만, 그러한 경우 서비스의 일부 또는 전부 이용이 어려울 수 있습니다. - 이용자의 개인정보 조회, 수정을 위해서는 '개인정보변경'(또는 '회원정보수정' 등)을, 가입해지(동의철회)를 위해서는 "회원탈퇴"를 클릭하여 본인 확인 절차를 거치신 후 직접 열람, 정정 또는 탈퇴가 가능합니다. - 혹은 개인정보관리책임자에게 서면, 전화 또는 이메일로 연락하시면 지체 없이 조치하겠습니다. - 이용자가 개인정보의 오류에 대한 정정을 요청하신 경우에는 정정을 완료하기 전까지 당해 개인정보를 이용 또는 제공하지 않습니다. 또한 잘못된 개인정보를 제3 자에게 이미 제공한 경우에는 정정 처리결과를 제3자에게 지체 없이 통지하여 정정이 이루어지도록 하겠습니다. - 회사는 이용자 혹은 법정 대리인의 요청에 의해 해지 또는 삭제된 개인정보는 "5. 개인정보의 보유 및 이용기간"에 명시된 바에 따라 처리하고 그 외의 용도로 열람 또는 이용할 수 없도록 처리하고 있습니다. 7. 개인정보 자동 수집 장치의 설치/운영 및 거부에 관한 사항 - 회사는 개인화되고 맞춤화된 서비스를 제공하기 위해서 이용자의 정보를 저장하고 수시로 불러오는 '쿠키(cookie)'를 사용합니다. - 쿠키는 웹사이트를 운영하는데 이용되는 서버가 이용자의 브라우저에게 보내는 아주 작은 텍스트 파일로 이용자 컴퓨터의 하드디스크에 저장됩니다. 이후 이용자가 웹 사이트에 방문할 경우 웹 사이트 서버는 이용자의 하드 디스크에 저장되어 있는 쿠키의 내용을 읽어 이용자의 환경설정을 유지하고 맞춤화된 서비스를 제공하기 위해 이용됩니다. - 쿠키는 개인을 식별하는 정보를 자동적/능동적으로 수집하지 않으며, 이용자는 언제든지 이러한 쿠키의 저장을 거부하거나 삭제할 수 있습니다. 가. 쿠키 사용 목적 회원과 비회원의 접속 빈도나 방문 시간 등을 분석, 이용자의 취향과 관심분야를 파악 및 자취 추적, 각종 이벤트 참여 정도 및 방문 회수 파악 등을 통한 타킷 마케팅 및 맞춤형 정보를 제공하기 위해 사용합니다. 다. 쿠키의 설치·운영 및 거부 - 이용자는 쿠키 설치에 대한 선택권을 가지고 있습니다. 따라서 이용자는 웹브라우저에서 옵션을 설정함으로써 모든 쿠키를 허용하거나, 쿠키가 저장될 때마다 확인을 거치거나, 아니면 모든 쿠키의 저장을 거부할 수도 있습니다. - 다만, 쿠키의 저장을 거부할 경우에는 로그인이 필요한 일부 서비스는 이용에 어려움이 있을 수 있습니다. - 쿠키 설치 허용 여부를 지정하는 방법(Internet Explorer의 경우)은 다음과 같습니다. ① [도구] 메뉴에서 [인터넷 옵션]을 선택합니다. ② [개인정보 탭]을 클릭합니다. ③ [개인정보취급 수준]을 설정하시면 됩니다. 8. 개인정보의 기술적·관리적 보호 대책 회사는 이용자들의 개인정보를 취급함에 있어 개인정보가 분실, 도난, 누출, 변조 또는 훼손되지 않도록 안전성 확보를 위하여 다음과 같은 기술적·관리적 대책을 강구하고 있습니다. 가. 비밀번호 암호화 회원 아이디(ID)의 비밀번호는 암호화되어 저장 및 관리되고 있어 본인만이 알고 있으며, 개인정보의 확인 및 변경도 비밀번호를 알고 있는 본인에 의해서만 가능합니다. 나. 해킹 등에 대비한 대책 회사는 해킹이나 컴퓨터 바이러스 등에 의해 이용자의 개인정보가 유출되거나 훼손되는 것을 막기 위해 외부로부터 접근이 통제된 구역에 시스템을 설치하고, 침입 차단장치 이용 및 침입탐지시스템을 설치하여 감시하고 있습니다. 그리고 백신 프로그램을 주기적으로 업데이트하며 갑작스런 바이러스가 출현할 경우 백신이 나오는 즉시 이를 적용함으로써 개인정보가 침해 방지를 위해 노력하고 있습니다. 다. 개인정보처리시스템 접근 제한 회사는 개인정보를 처리할 수 있도록 체계적으로 구성한 데이터베이스시스템에 대한 접근권한의 부여, 변경, 말소 등에 관한 기준을 수립하고 비밀번호의 생성 방법, 변경 주기 등을 규정 운영하며 기타 개인정보에 대한 접근통제를 위해 필요한 조치를 다하고 있습니다. 라. 개인정보 취급 직원의 교육 개인정보관련 취급 직원은 담당자에 한정시켜 최소화 하고 새로운 보안기술의 습득 및 개인정보보호 의무에 관해 정기적인 교육을 실시하며 별도의 비밀번호를 부여하여 접근 권한을 관리하는 등 관리적 대책을 시행하고 있습니다. 9. 개인정보관리책임자 및 담당자의 연락처 회사는 개인정보를 보호하고 개인정보와 관련한 불만을 처리하기 위하여 아래와 같이 개인정보관리책임자를 지정하고 있습니다. 이용자는 서비스를 이용하면서 발생하는 모든 개인정보보호 관련 민원을 개인정보관리책임자로 신고하실 수 있습니다. 회사는 이용자들의 신고사항에 대해 신속하게 충분한 답변을 드릴 것입니다. 개인정보 관리책임자 성명: 정진황 국장 소속: 디지털콘텐츠국 전화: 02-724-2427 이메일: jhchung@hankookilbo.com 개인정보 관리담당자 성명: 안경모 부장 소속: 디지털미디어부 전화: 02-724-2293 이메일: zuckbox@hankookilbo.com 기타 개인정보침해에 대한 신고나 상담이 필요하신 경우에는 아래 기관에 문의하시기 바랍니다. - 개인정보침해신고센터 ( www.118.or.kr / 국번없이 118) - 대검찰청 사이버범죄수사단 ( www.spo.go.kr / 02-3480-3571) - 경찰청 사이버테러대응센터 ( www.ctrc.go.kr / 국번없이 182) 10. 고지의 의무 현 개인정보취급방침 내용 추가, 삭제 및 수정이 있을 시에는 개정 최소 7일전부터 홈페이지의 공지사항을 통해 고지할 것입니다. - 공고일자 : 2014년 5월 8일 - 시행일자 : 2014년 5월 15일 이벤트/프로모션 등 정보 수신 동의 (선택) 이메일 SMS 뉴스레터 이용약관 및 개인정보 처리 방침은 필수 항목 입니다. 다음 약관 동의 필수 이용약관에 동의 하셔야 합니다. 확인 약관 동의 필수 개인정보처리 방침에 동의 하셔야 합니다. 확인 회원가입 아이디(이메일) 중복확인 사용 가능한 아이디 입니다. 비밀번호 비밀번호 확인 3~10자 영문 대소문자, 숫자 및 특수문자를 사용해주세요. 이름 필명 중복확인 댓글 작성 시 필명이 노출 됩니다. 사용 가능한 필명입니다. 확인 필명 중복확인 댓글 작성 시 필명이 노출됩니다. 사용 가능한 필명입니다. 확인 회원가입 완료 한국일보 회원가입이 완료 되었습니다. 확인 로그인 요청 로그인 한 후 이용 가능합니다. 로그인 하시겠습니까? 아니오 네 이메일로 기사 공유하기 보내는 기사 제주도, 외국인 관광객 줄자  '관광진흥기금' 고갈 위기 받으실 분 이메일 여러사람에게 보낼 경우 메일주소는 세미콜론(;)으로 구분해 주세요.(최대 5개) 보내는 분 이름 보내는 분의 이름을 입력해주세요. 이메일 올바른 이메일 형식이 아닙니다. 함께 보내는 메세지 메일 전송 전송 완료 기사가 메일로 전송 되었습니다. 확인 구독 취소 구독을 취소하시겠습니까? 아니오 네 중복 선택 불가 안내 이미 공감 표현을 선택하신 기사입니다. 변경을 원하시면 취소 후 다시 선택해주세요. 확인</t>
+  </si>
+  <si>
+    <t>제주특별자치도관광협회 “여름휴가 설문조사 결과 제주도=휴가계획 여행지 1위” 본문바로가기문장공유트위터카카오톡 전체메뉴 검색 최근검색어 최근 검색어 내역이 없습니다. 검색어 저장 끄기 닫기 읽기모드공유하기북마크로그인공유하기닫기 오피니언 사설 오늘과 내일 횡설수설 동아광장 시론 광화문에서 현장에서 뉴스 정치 경제 국제 사회 문화 연예 스포츠 매거진 신동아 주간동아 여성동아 매거진동아 동아비즈니스리뷰 하버드비즈니스리뷰코리아 어린이동아 과학동아 어린이 과학동아 수학동아 에듀동아 섹션 책의 향기 스타일매거진Q 골든걸 즐거운 인생 edu+ 디 오리지널 헬스동아 실시간 뉴스 이슈 포인트 연재 포인트 트렌드뉴스 뉴스레터 신청 기자 동아APP서비스 오늘의신문 신문보기(PDF) 구독신청 보도자료 보이스뉴스 RSS 동아방송 DBS 채널A 스포츠동아 비즈N MLB파크 보스 VODA IT동아 게임동아 동아닷컴|사회 제주특별자치도관광협회 “여름휴가 설문조사 결과 제주도=휴가계획 여행지 1위” 박해식 동아닷컴 기자 입력 2021-06-15 14:27업데이트 2021-06-15 14:31 글자크기 설정 레이어 열기 뉴스듣기 프린트 글자크기 설정 가 가 가 가 닫기 제주특별자치도관광협회(회장 부동석)는 주식회사 EC21에 의뢰해 지난 4월 26일부터 5월 10일까지 전국 10~50대 SNS 이용 남녀 2779명을 대상으로 올 여름 휴가계획에 관한 설문조사를 온라인에서 진행했다고 15일 밝혔다. 이에 따르면, 올 여름 휴가를 떠날 계획이 있는 여행지로는 ▲제주도 37% ▲강원도 18.8% ▲부산광역시 16.6% 순으로 제주도가 1위를 기록했다. 제주도의 여행지로 선호하는 곳은 바다와 오름·둘레길로 전체 응답의 74.6%를 차지했다. 방문예정 시기로는 △10월 17.8% △8월 15.8% △9월 14.4% 등을 차지했다. 여행 유형으로는 과반(52.3%)이 ‘가족여행’을 꼽았다. 가장 큰 변수인 코로나19와 관련해 방역 단계가 높아지거나 현지 상황이 악화하면 여행을 취소하겠다는 의견이 54.2%를 기록했다. 또, 지역별 방역 현황에 따라 여행지를 선택하겠다는 의견이 25.3%로, 보건 이슈가 휴가계획에 여전히 가장 큰 영향을 미치고 있음을 확인할 수 있었다. 제주도 관광협회 관계자는 “SNS와 유튜브를 통해 제주의 다양하고 올바른 여행 정보를 제공하고 있다”며 “이번 조사결과에 따라 대중이 기대하는 제주의 색다른 모습을 보여드리고 소통하여 지역 활성화에 기여하겠다”고 말했다.​박해식 동아닷컴 기자 pistols@donga.com 좋아요 이미지좋아요 슬퍼요 이미지슬퍼요 화나요 이미지화나요 후속기사 원해요 이미지후속기사 원해요 기사추천 이미지기사추천 공유 이미지공유 공유하기 닫기 Copyright ⓒ 동아일보 &amp; donga.com 오늘의 추천영상 당신이 좋아할 만한 콘텐츠 댓글 0개 의견을 남겨주세요. 동아일보는 독자 여러분의 의견을 경청하겠습니다. 전체 댓글 보기 댓글 0개 닫기 많이 본 뉴스 1 성일종 “인공기는 괜찮은가” vs 이재명 “해방 후 친일파 행태” 2 ‘횡단보도 앞 일시정지’ 계도 끝…내일부터 본격 단속 3 추락 사고 잇따르는 ‘국내 최장’ 인천대교…“특단 대책 시급” 4 ‘K-방산(防産)’ 전시관 찾은 해외 軍 관계자 “놀랍다” 5 [단독]‘제트기류’에 美뉴욕발 직항편 중간 착륙…‘테크니컬 랜딩’ 늘어날수도 6 TSMC 키운 대만… “국가 지켜주는 건 美무기 아닌 반도체” 7 안철수 “유승민·나경원 출마를” vs 홍준표 “배신 경력자는 가라” 8 같은 번호판 2개…간적 없는 곳서 주차위반 “7달째 영문 몰라” 9 선우은숙 재혼했다…‘4살 연하’ 유영재와 혼인신고 10 외국인 고액체납자 절반, 이미 출국… 강제 징수할 방법 없어 최신기사 아직도 ‘콩나물 교실‘ 많은 현장…중학교 10학급 중 4학급이 ‘과밀학급’ 김주형은 될성부른 나무…한국 무대서도 최연소 기록 지난해 ‘로드킬’ 3만7000건…고양이-고라니가 가장 많아 軍동원령에 러시아 여론 악화…“국민, 전쟁 비용에 눈뜨기 시작” KPGA 김한별, 골프채 부러뜨리고 캐디에 폭언…상벌위 회부 베스트 추천 1 한동훈, 김의겸 ‘美출장 의혹’에 “머릿속 상상 쉽게 말해 주위에 피해” 2 김의겸 “한동훈, 이재명 수사 위해 美출장”…한동훈 “머릿속 상상” 3 ‘마케팅용 공짜 마약’에 20대 초범 양산… 놀이터서 주고받기도 4 선우은숙 재혼했다…‘4살 연하’ 유영재와 혼인신고 5 [단독]‘최대 적자’ 한전, 자회사들은 직원 ‘제주도 가족여행’까지 지원 오피니언 사설 오늘과 내일 횡설수설 동아광장 시론 광화문에서 현장에서 뉴스 정치 경제 국제 사회 문화 연예 스포츠 매거진 신동아 주간동아 여성동아 매거진동아 동아비즈니스리뷰 하버드비즈니스리뷰코리아 어린이동아 과학동아 어린이 과학동아 수학동아 에듀동아 섹션 책의 향기 스타일매거진Q 골든걸 즐거운 인생 edu+ 디 오리지널 헬스동아 실시간 뉴스 이슈 포인트 연재 포인트 트렌드뉴스 뉴스레터 신청 기자 동아APP서비스 오늘의신문 신문보기(PDF) 구독신청 보도자료 보이스뉴스 RSS 동아방송 DBS 채널A 스포츠동아 비즈N MLB파크 보스 VODA IT동아 게임동아 동아일보 회사소개| 문화스포츠사업| 신문박물관| 인촌기념회| 화정 평화재단| 신문광고안내| 구독신청| 독자서비스| 기사제보| 정정보도 신청 주소: 서울특별시 종로구 청계천로 1 | ☎: 02-2020-0114 동아닷컴 회사소개| 광고 (인터넷, 전광판)| 제휴안내| 고객센터| 이용약관| 개인정보처리방침| 청소년보호정책(책임자: 구민회)| 사이트맵| RSS 주소: 서울특별시 서대문구 충정로 29 | Tel: 02-360-0400 | 등록번호: 서울아00741 | 발행일자: 1996.06.18 | 등록일자: 2009.01.16 | 발행·편집인: 박원재 Copyright by dongA.com All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도의회, 문화예술 기반의 제주관광 활성화 모색 - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; 제주도의회, 문화예술 기반의 제주관광 활성화 모색 파이낸셜뉴스입력 2021.06.10 20:20수정 2021.06.10 20:20 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 ‘제주관광 미래성장포럼’ 6차 정책 토론회 개최 제주도의회 '제주관광 미래성장포럼' 6차 정책 토론회 [제주=좌승훈 기자] 제주도의회 의원 연구모임 ‘제주관광 미래성장포럼(대표 오영희·국민의힘)’은 10일 오후 도의회 대회의실에서 6차 정책 토론회를 가졌다. 오영희 의원은 이날 인사말을 통해 "'문화예술을 통한 제주관광'과 '예술여행도시 사례'라는 2가지 주제로 미래 제주관광의 새로운 길을 모색하는 자리를 갖게 됐다"며 이번 토론회의 취지를 밝혔다. 오영희 의원 이승택 제주문화예술재단 이사장 오 의원은 "제주도는 문화자원의 매력을 간직한 곳이 많음에도 불구하고, 정책 부재로 이를 적극 활용할 수 있는 지원 대책 마련이 필요하다"고 지적했다. 이어 "적극적인 관광객 유치와 홍보활동을 통해 문화관광 거점 시설을 중심으로 지역문화관광이 활성화될 수 있도록 민관 협업이 적극 모색돼야 한다"고 밝혔다. 제주문화예술재단 이승택 이사장이 '문화예술을 통한 제주관광'을 주제로 발표를 했고, 이어 쥬스컴퍼니 이한호 대표의 '예술여행도시‘ 사례 발표가 마련됐다. 고은숙 제주관광공사 사장, 고선영 재주상회 대표, 박선주 동덕여자대학교 실용음악과 교수, 김광수 미디어 연구소 소장은 토론자로 나섰다. 제주도의회 '제주관광 미래성장포럼' 6차 정책 토론회 한편 제주관광 미래성장포럼은 미래지향적인 융·복합 관광산업 육성을 위한 정책 연구조사와 신규 정책 발굴, 법·제도적 기반 마련을 위해 지난 1월 출범했다. 오영희·양병우·고태순·이경용·강연호·김창식 의원이 활동하고 있다. jpen21@fnnews.com 좌승훈 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도 "코로나19로 짓눌린 관광산업, '웰니스'로 날개“ - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; 제주도 "코로나19로 짓눌린 관광산업, '웰니스'로 날개“ 파이낸셜뉴스입력 2021.06.05 07:38수정 2021.06.05 07:38 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 전국에서 처음 ‘웰니스관광 육성·지원 조례’ 제정민·관·학 공동 선언문…웰니스 관광지 45곳 선정 제주도·제주관광공사 선정 웰니스관광지 15선(여름편). 제주관광공사는 제주도와 함께 제주만의 특별하고 청정한 자연환경과 어우러져 치유와 힐링을 제공하는 웰니스관광지로 총 45곳을 선정했다. [제주관광공사 제공] ■ 제주형 웰니스관광 인증제 도입·관광상품 품질 개선 [제주=좌승훈 기자] 조례로 웰니스 관광에 대한 법적 지원 근거를 마련한 제주도가 제주형 웰니스 관광상품 발굴과 육성에 역량을 집중하고 있다. 웰니스관광은 웰빙(Wellbing)과 건강(Fitness) 또는 행복(Happiness)을 의미하는 웰니스(Wellness)와 관광이 결합된 개념이다. ‘건강 증진을 달성할 수 있는 여행’을 하는 것이라고 보면 되겠다. 제주도는 이미 2016년부터 제주형 웰니스 관광산업을 민선 7기 공약사업으로 선정해 추진하고 있다. 그동안 전문가 세미나 개최와 관광업계·지역주민 의견수렴 과정을 거쳐 제주형 웰니스관광에 대한 사회적 기반을 마련하고, ▷자연·숲치유 ▷힐링·명상 ▷뷰티·스파 ▷만남·즐김치유를 제주형 웰니스 4대 관광분야로 선정했다. 서귀포시 성산읍 해맞이해안로에 있는 취다선리조트 [제주관광공사 제공] 특히 코로나19로 짓눌린 제주관광 활성화를 위해 웰니스·실외·안전·언택트(비대면)·개별관광, 도로유랑(차박), 힐링, 스테이케이션(staycation)와 같은 변화된 관광 트렌드를 반영한 ‘안전과 일상으로의 회복’에 도움이 될 제주형 웰니스 관광지 45곳을 선정했다. 또 관광·경제·연구 분야의 국가 또는 지방공기업, 도내 출자·출연기관, 학계, 민간단체가 참여하는 제주형 웰니스 관광산업 육성을 위한 공동 선언문도 채택했다. 이들은 ▷제주 웰니스 관광산업 육성을 위한 제도 개선 ▷새로운 환경변화에 대응하기 위한 연구조사 강화 ▷제주형 웰니스 관광기업 육성 지원 ▷지속 가능한 생태계 조성을 위한 맞춤형 인력 양성 ▷신규 사업 기획과 국비 발굴을 위한 예산 확보에 적극 협력하기로 했다. 붉은오름 자연휴양림 [제주관광공사 제공] 아울러 지난 5월 전국 처음 ‘웰니스관광'을 지원하는 조례도 만들어졌다. 이 조례는 ▷웰니스관광 협의체 구성 ▷웰니스관광 인증제 도입 방안 ▷웰니스관광을 통한 상품개발 ▷지역연계 주민소득 창출을 위한 행·재정적 지원 사항들이 담겨 있다. 해당 조례를 대표 발의한 제주도의회 포스트 코로나 대응특별위 소속 박호형 의원(제주시 일도2동 갑·더불어민주당)은 "웰니스관광은 코로나19 사태로 인해 점차 시장 규모가 커지고 있지만, 제주도정의 제주형 웰니스 관광상품 개발육성 추진 의지는 미흡하다"며 "제주가 웰니스 관광의 선도지역으로 나서기 위해 법 제도적 지원 근거 마련과 같은 전폭적인 지원이 필요하다"고 조례 제정 취지를 설명했다. 제주도는 이를 근거로 올해 하반기에 웰니스 관광인증제를 운영해 제주형 웰니스 관광지 품질제고와 홍보를 강화할 계획이다. 웰니스 관광 사업체에 대한 체계적 조사와 정책도 발굴해 나가기로 했다. 제주시 조천읍 와흘리에 있는 제주여가마을 [제주관광공사 제공] 김재웅 도 관광국장은 "웰니스관광의 연평균 성장률은 전체 관광 성장률(3.2%)보다 2배 이상* 빠른 속도로 성장하는 고부가가치 관광 상품으로 자리 잡았다"며 “제주형 웰니스관광 경쟁력을 끌어올리고, 지역과 마을관광 협력을 통한 도민의 소득 증대를 도모함으로써, 제주도가 대한민국과 전 세계의 웰니스 관광을 선도하는 지역이 될 수 있도록 노력해 나가겠다”고 밝혔다. jpen21@fnnews.com 좌승훈 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>이베스트증권 “롯데관광개발, 제주도 여행 증가·카지노 개장 등에 실적 개선” - 조선비즈</t>
+  </si>
+  <si>
+    <t>백신맞고 '집콕탈출'…제주도 카지노 오픈 롯데관광개발 목표가↑ - 머니투데이 본문영역 바로가기 로그인 전체 뉴스 경제정책 증권 정치 부동산 국제경제 사회 산업 IT 금융 벤처·스타트업 블록체인 문화 포토 포토 더차트 더그래픽 영상 MT 영상 더영상 전체기사 증권 뉴스 시세/공시 코스피 코스닥 코넥스 상승/하락 상하한가 시가총액 거래량상위 신규상장 주요공시 포인트&amp;전략 펀드 펀드IR 국내펀드 해외펀드 유형종합 종목대해부 베스트리포트 MY스톡 정치 법률 유니콘팩토리 칼럼 데스크칼럼 사내칼럼 현장리포트 사외칼럼 SUCCESS SCIENCE 자동차 최신기사 신차소식 시승기 카라이프 연예 연예 스포츠 이슈 핫이슈 전체핫이슈 이슈키워드 연중기획 실시간급상승 베스트클릭 사람&amp; 피플 MT초대석 인터뷰 대표선배 인사 부고 MT리포트 뉴스 경제정책 증권 정치 부동산 국제경제 사회 산업 IT 금융 벤처·스타트업 블록체인 문화 포토 영상 전체기사 증권 뉴스 시세/공시 포인트&amp;전략 펀드 종목대해부 베스트리포트 MY스톡 정치 - the300 법률 - the L 칼럼 데스크칼럼 사내칼럼 현장리포트 사외칼럼 SUCCESS SCIENCE 자동차 최신기사 신차소식 시승기 카라이프 연예 연예 스포츠 이슈 핫이슈 실시간급상승 베스트클릭 사람&amp; VIP VIP Only VIP Story T.O.M 투자디렉터 런치리포트 the L ICT &amp; Tech Culture FULL TEXT 초판/e-신문보기 서비스 신청 전체보기 닫기 속보 글로벌 모빌리티 플랫폼 무브, '혁신기업 국가대표 1000' 선정 광클절, 빅스, 프리블프...대형 쇼핑행사 쏟아진다 나희승 코레일 사장 "KTX 이용 유출 대상 민간인에 사과" "감히 날 신고해?" 앙심 품고 '퍽퍽'…눈 맞은 피해자, 시력 잃었다 포스코홀딩스, 아르헨티나 염수 리튬 2단계 투자 결정 롯데제과 '빵빠레 샌드 카스타드' 회수, 세균수 기준 초과 "'연준 피벗' 없이는 증시 상황 안 바뀔 것…현금 비중 높여라" "용돈 줄게"…여고생 2명 집으로 유인해 추행한 40대 수세 몰리자 '무차별 미사일'…푸틴의 선택이 키운 우려, 다음은? 웰바이오텍, 매니 파퀴아오 vs D.K. YOO 매치 후원 "우크라이나 지원 나선다" 글로벌 모빌리티 플랫폼 무브, '혁신기업 국가대표 1000' 선정 광클절, 빅스, 프리블프...대형 쇼핑행사 쏟아진다 나희승 코레일 사장 "KTX 이용 유출 대상 민간인에 사과" "감히 날 신고해?" 앙심 품고 '퍽퍽'…눈 맞은 피해자, 시력 잃었다 포스코홀딩스, 아르헨티나 염수 리튬 2단계 투자 결정 롯데제과 '빵빠레 샌드 카스타드' 회수, 세균수 기준 초과 "'연준 피벗' 없이는 증시 상황 안 바뀔 것…현금 비중 높여라" "용돈 줄게"…여고생 2명 집으로 유인해 추행한 40대 수세 몰리자 '무차별 미사일'…푸틴의 선택이 키운 우려, 다음은? 웰바이오텍, 매니 파퀴아오 vs D.K. YOO 매치 후원 "우크라이나 지원 나선다" 검색창 열기 통합검색 검색 닫기 전체 뉴스 경제정책 증권 정치 부동산 국제경제 사회 산업 IT 금융 벤처·스타트업 블록체인 문화 포토 영상 전체기사 증권 뉴스 시세/공시 포인트&amp;전략 펀드 종목대해부 베스트리포트 MY스톡 정치 - the300 법률 - the L 칼럼 데스크칼럼 사내칼럼 현장리포트 사외칼럼 SUCCESS SCIENCE 자동차 최신기사 신차소식 시승기 카라이프 연예 연예 스포츠 이슈 핫이슈 실시간급상승 베스트클릭 사람&amp; VIP VIP Only VIP Story T.O.M 투자디렉터 런치리포트 the L ICT &amp; Tech Culture FULL TEXT 초판/e-신문보기 서비스 신청 전체보기 닫기 백신맞고 '집콕탈출'…제주도 카지노 오픈 롯데관광개발 목표가↑ sns공유 더보기 백신맞고 '집콕탈출'…제주도 카지노 오픈 롯데관광개발 목표가↑ 머니투데이 김하늬 기자 기자 더보기 sns공유 더보기 2021.06.01 10:06 글자크기 글자크기조절 가나다라마 가나다라마 가나다라마 가나다라마 가나다라마 의견 남기기 코로나19(COVID-19) 장기화로 그늘이 드리웠던 레저산업도 하반기 회복 기대감이 높아지고 있다. 백신 보급 확대와 정부의 코로나19 방역 대응에 맞춰 시장 확장 모멘텀이 가시화 되면서다. 키움증권은 이달 제주도 제주드림타워 복합리조트 내 외국인 카지노를 개장하는 롯데관광개발 (9,890원 ▼760 -7.14%)에 대해 목표주가를 상향조정한 2만9000원을 제시했다. 이남수 키움증권 연구원은 "카지노, 여행, 엔터에서의 컨택트 파워는 미디어, 광고 보다 우위를 점할 것으로 보여진다"며 "하반기로 접어들수록 컨택트 비즈니스에 대한 집중력이 필요한 시기다"고 진단했다. 특히 카지노 산업에 대해 "수요 측면에서의 회복성과 회복 후 지속성을 감안할 때, 카지노 VIP의 소비 개선이 여행 수요보다 더욱 빠르게 나타날 것으로 전망한다"며 "백신 접종 등에 의한 인센티브 등이 지원되고 있지만 글로벌 이동제한이 전면적으로 해제된 것이 아니기에 일반 여행 수요 보다는 카지노와 같은 특수목적 수요에 먼저 관심이 쏠릴 것"이라고 분석했다. 이 연구원은 유망종목으로 꼽은 롯데관광개발에 대해 "1분기 호텔 타워1 750객실이 오픈된 가운데 객실별단가(ADR) 25만5000원, 객실이용률(OCC) 34%로 객실 및 F&amp;B 매출 109억원을 달성했다"며 "여전히 여행 및 크루즈 부진은 지속됐고, 호텔 오픈에 따른 감가상각비 및 차입에 대한 이자비용이 부담으로 작용했다"고 설명했다. 2분기부터 휴가시즌과 카지노 오픈 등 실적성장 모멘텀이 나타나고 있다. 이 연구원은 "2분기 내 그랜드 오픈을 준비 중인 카지노는 호텔 부문의 견조함 덕분에 로컬VIP의 제한적 상황에도 불구하고 이익 실현이 가능할 것"이라며 "휴장 리스크는 3주로 줄어들어서 일평균 카지노 매출액이 현재와 유사한 20억원을 유지할 경우 1500억원 수준의 카지노 매출액 달성이 유력하다"고 분석했다. 이어 "7월부터 백신접종 등을 고려해 사회적 거리두기 기 단계 체계가 완화된 내용으로 적용될 가능성이 높아 휴장 리스크가 현저히 낮아지며 영업을 통한 실적 개선을 전망한다"고 덧붙였다. 이 연구원은 "카지노VIP 외 전략적 정켓(단체고객)VIP 모객을 통한 성장을 거듭할 것으로 보여 카지노 오픈은 더욱 기다려지는 상황"이라며 "올해 연결 기준 매출액은 2943억원, 영업손실 173억원(적자)의 실적전망에 비해 2022년에는 호텔 부문의 손익분기점(BEP) 레벨 달성이 어렵지 않을 것"이라고 전망했다. &lt;저작권자 © ‘돈이 보이는 리얼타임 뉴스’ 머니투데이, 무단전재 및 재배포 금지&gt; 공감 0% 비공감 0% "매일 밤 아내가 보챕니다" 결혼 10년차 남편의 비결은? 머니투데이 댓글 작성을 위해 JavaScript를 활성화해주세요 머니투데이 주요뉴스 "코스피 바닥 근접, 팔지 마라…반등은 내년 2분기 이후" 연준 "4.5% 위에서 금리 인상 중단"…급격한 경기 둔화 위험 언급 미국 연준(연방준비제도)의 주요 인사 2명이 지난달 예고한 대로 금리를 올릴 계획이라고 밝히면서 향후 금리 인상에 주의할 필요가 있다는 점을 인정했다.10일(현지시간) 월스트리트 저널(WSJ)에 따르면 라엘 브레이너드 연준 부의장과 찰스 에반스 시카고 연방준비은행 총재는 이날 시카고에서 열린 전미 실물경제협회(NABE) 연레회의에 참석해 이같이 밝혔다.이들은 인플레이션을 연준의 목표치인 2%로 끌어내리는 데는 시간이 걸리고 지난달 공개된 연준의 금리 전망치에 따라 내년 초까지 금리를 4.5% 위로 올릴 것이라는 입장에는 변함이 없었... 52주 신저가만 470개…코스피 2%대·코스닥 4%대 급락 한은, 내일 빅스텝 유력…기준금리 3% 시대 온다 中 '반도체 굴기' 때린 미국…삼성·SK하이닉스 '호재' 단독 세계 최대 '교육계 다보스포럼', 처음으로 한국서 열린다 "주식 팔고 OO 샀다"…개미도 외국인도 몰려간 곳 단독 맞춤 패키지로 K원전 수출한다 '의문의 죽음' 英 신생아 7명의 공통점은… '아이폰14 프로' 들고 놀이기구 탔더니 911 출동 "삽시간에 쓸어" 베네수엘라 대규모 산사태 실시간 급상승 9.9 베스트클릭 종합 증권 "걸리면 절반 사망, 백신도 없다"…코로나 잠잠해지자 '에볼라 주의보' "횡령 내가 했다" 큰아들 감싼 박수홍 父, 계좌 비밀번호도 몰라 '풀소유 논란'에 사라진 혜민스님, 2년 만에 포착된 근황 "9억 아파트·11억 주택 있다" 대리기사 말에 격분해 폭행한 60대 "돈 많으면 때려" 말에 35차례 종업원 폭행 사망…업주 '징역 7년' '만취' 신혜성 왜 도난車 운전?…"발레파킹 직원이 열쇠 줘서 착각" "클럽서 따라 놓은 술 마셨다가…" 마약의 늪에 빠진 사람들 "이번주 금리 0.5%p 더 올린다"...전문가 10명 만장일치 [속보]사실상 일제고사 부활, 尹 "줄 세우기 비판에 아이들 방치, 미래 어두워" "日지배로 韓 발전했다"던 美하버드대…항의하자 돌아온 답변 이전 다음 '7000만→70억' 번 슈퍼개미 "지금이 기회, 주가 저평가" -73%, -66%, -55% 참혹한 카카오그룹株..또 자회사 상장 논란 카카오그룹株 '대폭락의 날'…-80% 개미들 "살려달라" 아우성 '깜깜이 공매도' 사라지나... 불법 공매도 세력 정보, 어디까지 공개 가능? 돌아온 줄 알았던 '남자의 주식' 흠슬라…HMM, 신저가 찍으며 추락 다시 시작된 유가의 공포…"110달러 찍는다" 암울한 전망도 "비싸다" 거침없는 SELL...韓 증시 흔드는 외국계 리포트 파워 주가 71% 빠진 하이브, 또 신저가…"그래도 괜찮다"는 증권가, 왜 '韓 반도체'만 '쑥' 오른다...5만전자·8만닉스 '찐 반등' 보일까 "카카오 또 무너지네" 그룹주 모조리 신저가…'반토막 목표가'도 등장 이전 다음 MT리포트 '여가부 폐지' 약속 지킨 尹정부…"오히려 기능 강화" 기대와 우려 이슈패키지 2022 국정감사 나희승 코레일 사장 "KTX 이용 유출 대상 민간인에 사과" "농진청 쌀 생산량 예측 능력 정확도 높여야" 野 "금감원, 도이치모터스 경찰 공조 부적절"…이복현 "공식 공문 없었다" 그린비즈니스위크 2022 K-탄소중립 현재·미래 한 눈에, GBW 2022 D-5.."등록하세요" 탄소중립 미래도 보고 일자리도 잡을 기회…그린 전환 잡콘서트 D-7 기후협상 산증인부터 벽안 석학, 글로벌기업까지..GBW 개막총회 총출동 2023년 예산안 "허리띠 졸라매고"...尹정부 첫 예산안, '역대 최대' 24조 칼질 尹대통령은 반도체 초강대국 주문했는데…'기재부' 벽 못넘은 지원 예산 장관 없어도 '100조 부처' 등극한 복지부·교육부 이전 다음 최신뉴스 증권 마켓 "'연준 피벗' 없이는 증시 상황 안 바뀔 것…현금 비중 높여라" [머니 이슈] 갖가지 악재에 얼어붙은 국내증시… 대응법은? 웰바이오텍, 매니 파퀴아오 vs D.K. YOO 매치 후원 "우크라이나 지원 나선다" [경이로운 소문] 러시아-우크라 갈등 최고조! 곡물 가격 확 뛴다? 에이프로젠, 30조원 규모 휴미라 고농도 제형 특허 출원 "생산원가 경쟁력 자신" "주식 팔고 OO 샀다"…개미도 외국인도 몰려간 곳 노장 성장호르몬의 '회춘'…동아에스티 바이오 성장 이끈다 일시적 2주택 미처분 가산세 없애고 하이브리드車 취득세 면제 연장 한올바이오파마 HL161 중국사업권, 하버바이오에서 CSPC로 이전 주가 70% 빠진 카카오…"4만원대로 추락" 장초반 신저가도 오늘의 꿀팁 많이 본 뉴스 일주일 1개월 6개월 1년 '방송 퇴출' 조형기, 한국 떠났나…美 한인타운서 찍힌 사진 보니 유혜영, '옥중 이혼' 나한일과 재결합했지만…"따로 산다" 왜? "남자로 보였는데…" 신봉선, 10세 연상 지상렬과 '썸' 결말은? 공감 엄앵란, 8년 전 박수홍에 "경제 독립해"…친형 100억 횡령 예견? 비공감 최정원, 자궁내막증 진단→자궁 적출…"수술 후 더 큰 문제 발생" "곽도원, 술상 엎고 후배 배우 비하·폭언…가족까지 괴롭혀" 주장 나와 송일국 삼둥이가 살던 '인천 송도 호수뷰' 아파트…매매가 얼마? 이휘재, 주요 예능 사실상 퇴출→캐나다행…"큰 상실감 느껴" 공감 "벨 눌러 아이 깨면 환불" 황당 요청에 '주문 취소' 응징한 사장님 비공감 '사별' 엄앵란, 5살 연하 의사와 '썸' 타나…"10년간 매주 만나" 조형기는 어디에…방송 퇴출→유튜브마저 중단 후 소식 끊겨 이승윤, '자연인' 거액 출연료 왜주나 했더니 "썩은 생선도 먹어" 이휘재, 주요 예능 사실상 퇴출→캐나다행…"큰 상실감 느껴" 공감 아내에 쓴 편지, 우표 대신 천원 넣었다가…우체국서 온 '감동' 답변 비공감 '故안재환과 사별' 정선희 "나 정도면 미혼…문란하게 살고파" 김신영, '평생 직장' 전국노래자랑 출연료는?…"회당 OOO만원" 고명환, 교통사고로 시한부 판정→"연매출 13억원" 사업가 변신 '방송 퇴출' 조형기, 한국 떠났나…美 한인타운서 찍힌 사진 보니 공감 김연아, 예비 시아버지 '정치성향'도 시끌…무슨 활동했길래 비공감 조형기는 어디에…방송 퇴출→유튜브마저 중단 후 소식 끊겨 오피니언 '복합경제위기' 해법은 없어도 돌파구는 있다 광화문 원희룡, '집값 너무 높다'고 말했을 뿐인데 우리가 보는 세상 포켓몬, 열풍이 역풍 된다? 기자수첩 IZE “내 맘이다!” 시원하게 외치는 개성만점 여성버디... the300 나희승 코레일 사장 "KTX 이용 유출 대상 민간인에 사과" theL 故 이예람 특검, 수사 결과 13일 오후 발표…전익수 기소 여부 주목 티타임즈 [30년 개발자의 애플 주식강의] 누가 차를 장악할까? 테슬라의 자율주행 vs 애플의 자동차 OS? 더리더 '여야 동수' 경기도의회 … 염종현 의장이 그리는 '협치' 스타일M 선미 vs 모델, 어깨 드러낸 오프숄더 룩…같은 옷 다른 느낌 스타뉴스 음주 재범+상습도박 재조명..신혜성, 하루아침에 날벼락[★NEWSing] MoneyS [르포] 제약바이오 채용박람회… 인사담당자가 강조한 '이것'은? 포토 / 영상 7 올가을 최저 기온에 목도리 패딩 등장 6 오늘부터 무비자 일본 관광 재개 30 드림캐쳐 '완벽한 퍼포먼스' 9 전여빈 '4차원 미모' 킹받게 매운 고추, 맵찔이도 외국인도 맛있게 먹을 수 있는 요리법 1020 울리는 댈입 댈구, 연 이자가 무려... '이 번호'로 로또 1등 433명 나온 필리핀 4K 시대에 게임 방송은 720p로 봐야 한다고?! 16 '아이폰14' 국내 출시 6 코스닥 700선 회복, 환율 1402.4원 마감 15 '주먹 쥔 파퀴아오' 9 레드벨벳 예리 '패딩+미니스커트 귀여운 공항패션' 커피 없는 일상, 현실이 될 수 있다고? 할머니도 놀란다는 요즘 애들 입맛 요즘 명품 로고들이 다 똑같아 보이는 이유 Q. 어제는 900원 오늘은 1000원인 것은? 7 '여가부 폐지·보훈부 격상·재외동포청 신설' 6 北, 이틀만에 또 탄도미사일 발사 45 화려한 'TMA 레드카펫' 20 부산국제영화제 찾은 이지은 '아이폰14' 공개 동시에 조롱거리 된 이유 포토카드 하나가 20만원? 팬덤이 키운 포카 시장 '진짜 한국 같아!' 도한놀이에 빠진 일본 MZ들 찍었다하면 인생샷! 핫플레이스의 정체는? 이전 다음 머니투데이 SERVICE 뉴스 경제정책 증권 정치 부동산 국제경제 사회 산업 IT 금융 벤처·스타트업 블록체인 문화 포토 영상 전체기사 증권 뉴스 시세/공시 포인트&amp;전략 펀드 종목대해부 베스트리포트 MY스톡 칼럼 데스크칼럼 사내칼럼 현장리포트 사외칼럼 SUCCESS SCIENCE 자동차 최신기사 신차소식 시승기 카라이프 연예 연예 스포츠 이슈 핫이슈 실시간급상승 베스트클릭 사람&amp; MT리포트 시세판 속보창 전문지·서비스 VIP 머니투데이 스타뉴스 스타일M 스포탈코리아 OSEN 키플랫폼 티타임즈 MnB창업 MT해양 자전거 the300 thebell theL 유니콘팩토리 MTN 노트펫 앱어워드 이로운넷 PIXTA 매거진 머니S 더리더 대학경제 로피시엘 레옹 IZE 캠페인 U클린 쿨머니 머니투데이 공식 SNS 채널 SNS MT 페이스북 MT 인스타그램 MT 트위터 MT 틱톡 MT 네이버포스트 MT 유튜브 싱글파이어 유튜브 부릿지 유튜브 부꾸미 유튜브 MT 비즈센터 머니투데이 회사소개 구독신청 개인정보처리방침 청소년보호정책 이용약관 광고안내 제휴안내 저작권규약 기사제보 고충처리 주소 서울특별시 종로구 청계천로 11 청계한국빌딩 (서린동)   제호 머니투데이   등록번호 서울 아 01084   등록일 2009.12.24사업자등록번호 101-81-50419   발행일 2020.01.01   ISSN 2636-0055대표이사/발행인/편집인 박종면   대표번호 02-724-7700   청소년 보호책임자 신택균 머니투데이의 모든 기사(콘텐츠)는 저작권법의 보호를 받으며, 무단 전재 복사 배포 등을 금지합니다.COPYRIGHT © MONEYTODAY ALL RIGHTS RESERVED. [인증범위]온라인 뉴스 서비스 운영(머니투데이)[유효기간]2020.11.04~2023.11.03</t>
+  </si>
+  <si>
+    <t>제주도의회, 문화예술을 통한 제주관광 ’의 새로운 길 모색 &lt; 제주 &lt; 전국 &lt; 기사본문 - 시사매거진 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 시작페이지 즐겨찾기 홈 로그인 회원가입 English 中文 日本語 العربية Español Français 번역 제공 검색 기사검색 검색 UPDATED.2022-10-11 14:55 (화) 실시간 뉴스 결혼정보회사 가연, 좋은 인연 위한 미팅파티 마련 진아름 결혼소감, ♥남궁민과 "성숙하고 예쁘게 살 것" 바비모, ‘시카 리페어 부스트 크림’ 출시 답변하는 이복현 금융감독원장 ‘마리엔펠트’ 30주년 기념 비스포크 행사 성료 금융감독원 국정감사 실시하는 정무위 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 이재명 "한미일 군사훈련, 좌시할 수 없는 국방참사·안보자해행위" 두산베어스, 김태형 감독과 결별... "조만간 사령탑 인선" 발언하는 양무진 북한대학원대학교 총장 광산구 "올겨울 함께 할 희망의 메시지를 찾습니다" 2022 광산아트페스티벌 ‘별무리 예술장터’ 개최 HOME 뉴스 정치 경제 사회 생활/문화 교육 세계 IT과학 만화 동영상 보도자료 오피니언 인터뷰 칼럼 스페셜 인물열전 명인명사 포토 포토 엔터테인먼트 연예 스포츠 방송 오늘의 날씨 책 여행·레저 제 292호(2022-10) 오세훈 서울시장이 말하는 ‘약자와의 동행, 매력 특별시’ 구독하기 본문영역 이전 기사보기 다음 기사보기 제주도의회, 문화예술을 통한 제주관광 ’의 새로운 길 모색 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 제주도의회, 문화예술을 통한 제주관광 ’의 새로운 길 모색 기자명 오형석 기자 입력 2021.06.13 16:25 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 '제주관광 미래성장포럼' 6차 정책 토론회 개최 제주도의회 '제주관광 미래성장포럼' 6차 정책 토론회 [시사매거진/제주] 제주관광 미래성장포럼 대표 오영희의원(국민의 힘, 비례)은 6월 10일(목) 오후 2시 제주특별자치도의회 의원회관 1층 대회의실에서 제주관광 미래성장 포럼 6차 토론회를 개최한다고 밝혔다. 오영희 대표는“「문화예술을 통한 제주관광」과 「예술여행도시 사례」라는 2가지 주제로 6차 정책토론회를 통해 ‘미래 제주관광의 새로운 길을 모색’하는 자리를 갖게 되었다. 제주의 경우 문화자원의 매력을 간직한 곳이 많음에도 불구하고 이를 활용한 정책의 부재로 이를 극복할 수 있는 지원 대책이 필요하며, 적극적인 관광객 유치와 홍보 등을 통해 문화관광 거점시설을 중심으로 지역문화관광이 활성화 될 수 있도록 공공과 민간의 협업이 필요한 시점이다”라고 말했다. 또한 “위드코로나시대에 제주문화 콘텐츠의 특성을 살려 문화예술관광분야의 새로운 패러다임 전환의 계기가 되었으면 하는 바람이고, 예술여행 도시의 사례를 통해 우리 제주의 문화예술공간을 지역의 이야기가 있는 어울림의 공간을 넘어 함께 풍성함을 만드는 공간으로 진화하는 시간이 되기를 바란다”고 했다. 이날 제주문화예술재단 이승택 이사장은 ‘문화예술을 통한 제주관광’을 주제로 첫 번째 주제발표를 하며, 이어진 두 번째 주제발표는 쥬스컴퍼니 이한호 대표가 ‘예술여행도시 사례’로 발표한다. 이어서 고은숙 제주관광공사 사장, 고선영 재주상회 대표, 박선주 동덕여자대학교 실용음악과 교수(tv조선 미스트롯2 심사위원), 김광수 미디어 연구소 소장이 토론자로 나선다. 제주관광 미래성장포럼은 오영희 대표(국민의 힘, 비례)를 비롯해 양병우 부대표(무소속, 대정읍), 고태순(더불어민주당, 아라동), 이경용(국민의 힘, 서홍·대륜동), 김창식(교육위, 제주시 서부), 강연호(국민의 힘, 표선면) 6명이 활동하고 있다. 한편 제주관광 미래성장포럼은 제주문화자원의 콘텐츠 발굴과 다양한 문화예술관광 사례를 통해 제주의 차별화된 예술여행 관광사업 기반구축 모색을 위해 제6차 토론회를 개최했다. 오형석 기자  yonsei6862@gmail.com 새시대 새언론 시사매거진 오형석 기자 yonsei6862@gmail.com 다른기사 보기 저작권자 © 시사매거진 무단전재 및 재배포 금지 당신만 안 본 뉴스 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 골프선수 유현주 프로, 인스타 속 여신 자태 '이종범 딸·이정후 여동생' 이가현 누구? 나이·직업·프로필 공개 송가인, 다음 콘서트는 천안...목포 인증샷 "흥겹고 즐거워" 오늘날씨 월요일, 강원도 "첫눈오나" 서울날씨 "8도 기온뚝" [2022 더팩트 뮤직 어워드] 8일 개막 '라인업·중계·시작시간은?' 로또1등당첨지역 1036회 "9명 28억씩" 대박 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 주요기사 국회, 감사원 국감 날 선 공방 예고 11일 코로나19 신규 확진자 1만 5476명 '위중증 313명·사망자 10명' 러시아, 우크라이나 미사일 공격... 유엔 긴급특별총회 소집 오늘날씨 화요일, 서울날씨 아침6도 기온뚝 '얼음, 눈오는 경기북부' 대통령실, 이재명 '친일 국방' 겨냥해 "말이 아닌 현실의 문제" 토트넘 손흥민, 케인과 43번째 합작골 '시즌 2호 도움' 팀은 승리 최신뉴스 결혼정보회사 가연, 좋은 인연 위한 미팅파티 마련 진아름 결혼소감, ♥남궁민과 "성숙하고 예쁘게 살 것" 바비모, ‘시카 리페어 부스트 크림’ 출시 답변하는 이복현 금융감독원장 ‘마리엔펠트’ 30주년 기념 비스포크 행사 성료 포토뉴스 결혼정보회사 가연, 좋은 인연 위한 미팅파티 마련 진아름 결혼소감, ♥남궁민과 "성숙하고 예쁘게 살 것" 바비모, ‘시카 리페어 부스트 크림’ 출시 답변하는 이복현 금융감독원장 인기뉴스 1 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 2 골프선수 유현주 프로, 인스타 속 여신 자태 3 '이종범 딸·이정후 여동생' 이가현 누구? 나이·직업·프로필 공개 4 송가인, 다음 콘서트는 천안...목포 인증샷 "흥겹고 즐거워" 5 오늘날씨 월요일, 강원도 "첫눈오나" 서울날씨 "8도 기온뚝" 6 [2022 더팩트 뮤직 어워드] 8일 개막 '라인업·중계·시작시간은?' 7 로또1등당첨지역 1036회 "9명 28억씩" 대박 8 선우은숙 재혼, 유영재 아나운서와 혼인신고... 나이·프로필 눈길 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 강남구 테헤란로25길 20, 8층 813호(역삼동,역삼현대벤쳐텔) 대표전화 : 02-790-5116 팩스 : 02-2086-7272 청소년보호책임자 : 김길수 법인명 : 시사매거진 제호 : 시사매거진 등록번호 : 강남 라 00906 등록일 : 1997-09-12 발행일 : 2017-05-01 발행인 : 김길수 편집인 : 김영규 사장 : 천진철 시사매거진 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 시사매거진. All rights reserved. mail to webmaster@sisamagazine.co.kr 위로 전체메뉴 전체기사 뉴스 전체 정치 경제 사회 생활/문화 교육 세계 IT과학 만화 동영상 오피니언 전체 인터뷰 칼럼 스페셜 인물열전 명인명사 포토 전체 포토 엔터테인먼트 전체 연예 스포츠 방송 책 여행·레저 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 제주형 웰니스 관광산업 활성화 사업 추진  &lt; 정치 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 정치 최종편집 2022-10-11 (화) 14:38 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 본문영역 이전 기사보기 다음 기사보기 제주도, 제주형 웰니스 관광산업 활성화 사업 추진 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치 제주도, 제주형 웰니스 관광산업 활성화 사업 추진 기자명 이은지 기자 입력 2021.06.06 11:45 수정 2021.06.06 19:03 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 전국 최초 웰니스 관광 관련 조례 제정 '멍때리기' 행사 미국 유명 일간지 보도 제주도는 민선 7기 공약사업인 제주형 웰니스 관광산업 활성화를 위한 사업을 추진하고 있다고 6일 밝혔다. 웰니스 관광은 웰빙(Wellbing)과 건강(Fitness) 또는 행복(Happiness)을 의미하는 웰니스(Wellness)와 관광이 결합된 개념이다. 제주도는 우선 자연·숲치유, 힐링·명상, 뷰티·스파, 만남·즐김치유 4대 분야를 제주형 웰니스 관광산업 활성화 과제로 선정했다. 지난달 20일에는 전국 최초로 웰니스 관광 산업 발굴과 홍보 지원 등 근거를 담은 '제주특별자치도 웰니스 관광 육성 및 지원조례'를 제정했다. 지난달 27일에는 웰니스 숲 힐링 주간 '서귀포 치유의 숲 웰니스 멍때리기 행사'를 온·오프라인으로 병행해 진행했다. 지난달 30일에는 미국 유명 일간지인 '워싱턴 포스트'에 '한국에서 팬데믹 스트레스에 지친 이들이 궁극의 휴식을 위해 경쟁하다'라는 제목으로 치유의 숲 웰니스 멍때리기 행사가 소개되기도 했다. 김재웅 도 관광국장은 "제주형 웰니스관광 경쟁력을 끌어올리고 지역과 마을관광 협력을 통한 도민의 소득 증대를 도모해 제주도가 대한민국과 전 세계의 웰니스 관광을 선도하는 지역이 될 수 있도록 노력해 나가겠다"고 말했다. 이은지 기자 이은지 기자 ez1707@daum.net 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 제주대병원 권역정신응급의료센터 개소 [본사내방] 2022년 10월 11일 한경농협, 취약계층 주택용 소방시설 기증 제주, 서울대 지역균형전형 비율 2.4%...전국 최하위 제주타요렌터카, 매월 국·내외 아동에 정기 후원 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 [제민포럼] 테슬라와 한라산소주 5 일본시장 활짝 제주관광 기대감속 우려도 6 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 7 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 8 장 발장 이야기 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 글로벌 선도 웰니스 관광 도시로 약진 - CCTV뉴스 - 황민승 기자 × 전체기사 특집 모아보기 News Focus On People Inside Product Zoom In D-Trend 스토리지 안전산업특집 OT보안특집 UPDATE : 2022-10-11 13:20 (화) 로그인 전체기사 정기구독신청 고객센터 광고문의 스토리지 OT보안 안전산업 News Focus On People Inside Product Zoom In D-Trend 검색 기사검색 검색 회원 로그인 회원가입 이전 다음 제주도, 글로벌 선도 웰니스 관광 도시로 약진 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME News 공공·정책 제주도, 글로벌 선도 웰니스 관광 도시로 약진 황민승 기자 승인 2021.06.07 09:57 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 전국 최초 웰니스 관광 조례 제정, 웰니스 관광인증 등 질적 성장 도모 제주특별자치도가 ‘청정과 공존’이라는 미래가치에 기반해 지역관광의 지속가능한 활성화를 위해 ‘웰니스’에 주목하고 있다. 제주도는 신체적·정신적·사회적 건강을 지향하는 ‘제주형 웰니스 관광 상품 발굴·육성’에 총력을 기울이고 있다고 7일 밝혔다. 웰니스에 대한 제주도의 타깃팅은 코로나19 이후 제주여행의 패턴이 개별여행, 가족여행 등 소규모 여행과 안전·힐링을 중시하는 방향으로 변화하고 있다는데 주목한 것이다. 특히 세계 웰니스연구소에 따르면 웰니스 관광의 연평균 성장률이 전체 관광 성장률(3.2%)의 2배 이상인 7.5%에 달할 것으로 전망되고 있다. 이에 제주도는 지난 2016년부터 제주형 웰니스 관광산업을 민선 7기 공약사업으로 선정해 추진하고 있다. 그동안 전문가 세미나, 관광업계 및 지역주민과의 의견수렴을 거쳐 제주형 웰니스 관광에 대한 사회적 기반을 마련하고 4대 관광분야를 선정했다. 자연⋅숲치유, 힐링⋅명상, 뷰티⋅스파, 만남⋅즐김치유가 그것이다. 또한 지난해 코로나19의 확산에 따라 도민과 관광객에게 ‘안전과 일상으로의 회복’ 등에 도움이 될 제주형 웰니스 관광지를 계절별로 총 45선을 선정해 언론홍보와 기획보도, SNS 등을 통해 적극 홍보하고 있다. 제주도는 올해 제주관광공사 등과 함께 민⋅관⋅학 거버넌스를 구축하고, 웰니스 관광 생태계 육성 및 제주관광의 핵심 산업으로 활성화시키기 위한 다양한 정책들을 펼치고 있다. 그 일환으로 지난달 20일에는 전국 최초로 '제주특별자치도 웰니스 관광 육성 및 지원조례'를 제정하기도 했다. 지난달 30일 미국 워싱턴 포스트가 ‘한국에서 팬데믹 스트레스에 지친 이들이 궁극의 휴식을 위해 경쟁하다’ 제하의 기사로 제주도의 ‘서귀포 치유의 숲 웰니스 멍때리기 행사’를 소개하는 등 해외에서도 제주의 웰니스 관광지에 대해 많은 관심을 보이고 있다. 제주도는 올해 하반기 웰니스 관광인증제를 운영해 제주형 웰니스 관광지 품질제고와 홍보지원을 강화할 계획이다. 이어 웰니스 관광분야에 대한 연구조사를 통해 제주 웰니스 사업체의 체계적 조사와 정책을 발굴해 나갈 방침이다. 김재웅 제주도 관광국장은 “제주형 웰니스 관광의 경쟁력을 끌어올리고 지역과 마을관광 협력을 통한 도민의 소득 증대를 도모함으로써 제주도가 대한민국과 전 세계의 웰니스 관광을 선도하는 지역이 될 수 있도록 노력해 나가겠다”고 밝혔다. Tag #제주도 #웰니스 #웰니스 관광 #숲멍 #제주관광공사 #숲치유 #즐김치유 저작권자 © CCTV뉴스 무단전재 및 재배포 금지 황민승 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 관련기사 제주도, 해양관광 메카로 약진...해양레저관광거점사업 착공 제주도, 렌터카 전수조사로 ‘전기차 미운행’ 실태 파악 나서 제주도, 어린이 안전통학로 ‘안전제주감귤존’ 운용 제주도, 지속가능 친환경 농업 생태계 조성 박차 제주도, 음식물쓰레기 기반 바이오가스 플랜트 건설 추진 제주도, 맞춤형 데이터로 지역기업 성장 돕는다 제주도, 한국판 그린뉴딜 스마트시티 세계에 뽐낸다 제주도, 민간의료기관과 선제적 치매예방관리 공조 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 가장 많이 본 뉴스 1[IT트렌드] 출입부터 결제까지, 무인 매장 지키는 보안 기술 각광 2[IT트렌드] 교통사고, 이제 AI·빅데이터로 막는다 3[기고] 빠르게 진화하는 사이버 보안 위협 요인의 진단 및 정보 보안 핫 이슈 4윈도우-리눅스 노리는 멀웨어 ‘카오스’ 주의 5안랩, 컴퓨터 드라이버 취약점 이용한 사이버 공격 사례 발표 6LGU+ 등 개인정보 보호법 어긴 8개 사업자에 3120만 원 벌금 부과 7인섹시큐리티, 디지털포렌식 ‘랜섬웨어-가상자산 분석 추적 세미나’ 연다 8스패로우, 연례 고객 초청 행사 ‘PUC 2022’ 성공적 개최 9비자, 코로나19 이후 온라인 금융 사기 양상 보고서 공개 10개인정보 보호법 어긴 바로고-누리집에 약 8600만 원 벌금 부과 이 시각 주요뉴스 세종시, ‘시민 참여로 지속 가능한 국제 안전 도시 만들기 대회’ 개최 세종시, ‘시민 참여로 지속 가능한 국제 안전 도시 만들기 대회’ 개최 독일 IT 보안청장, 러 정보 기관 접촉 혐의로 해임 수순 독일 IT 보안청장, 러 정보 기관 접촉 혐의로 해임 수순 러 해커 킬넷, 美 주요 공항에 디도스 공격 러 해커 킬넷, 美 주요 공항에 디도스 공격 매체소개 광고문의 기사제보 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 법인명 : (주) 테크월드 제호 : CCTV뉴스 08507 서울특별시 금천구 가산디지털1로 168, 1012-1호 (가산동, 우림라이온스밸리 C동) 대표전화 : 02)2026-5700 팩스 : 02)2026-5701 이메일 : webmaster@techworld.co.kr 등록번호 : 서울, 아 03078 등록일 : 2008-06-27 발행일 : 2009-02-19 발행·편집인 : 박한식 청소년보호책임자 : 박지성 Copyright © CCTV뉴스 All rights reserved. 위로</t>
+  </si>
+  <si>
+    <t>광양시관광협의회, 제주도여행사 등 MOU 성과 가시화 - 전남일보 영광 12.9°C 장성 11.5°C 담양 11.1°C 곡성 11.2°C 구례 11°C 함평 12.7°C 나주 11.7°C 화순 11.3°C 순천 12.4°C 광양 10.8°C 여수 12.9°C 신안 13.8°C 목포 14.4°C 영암 12.4°C 보성 11.3°C 해남 13.8°C 강진 12.6°C 장흥 12.6°C 고흥 12.9°C 진도 15.1°C 완도 14.5°C 오피니언 오피니언 사설 서석대 전일칼럼 취재수첩 테마칼럼 데스크칼럼 당명떼고 정책배틀 사이버펑크 정치 정치 대통령실 국회 정치칼럼 여론조사 선거 돋보기 선거 정치일반 행정 의회 행정 의회 광주시 광주자치구 전남도 광주의회 전남의회 사회 교육 사회 교육 사건사고 사회일반 5.18 환경복지 의료건강 날씨 광주시교육청 전남도교육청 대입수능 대학 스낵뉴스 전남 전남 지역이슈 지역속으로 목포시 여수시 순천시 나주시 광양시 담양군 곡성군 구례군 고흥군 보성군 화순군 장성군 강진군 해남군 영암군 무안군 함평군 영광군 장흥군 완도군 진도군 신안군 일주이슈 지속가능 지속가능 지속가능은 가능한가? 공 프로젝트 기획 시리즈 기획 시리즈 노샘의 남도역사 이야기 박하선의 사진풍경 백옥연의 문향 이돈삼의 마을이야기 이선의 큐레이터 노트 장민한의 동시대미술 수첩 조사라의 현대미술 산책 차노휘의 길위의 인생 황호균의 사찰문화재 바로알기 이윤선의 남도인문학 사람들 사람들 전일초대석 광주사람들 사람들 PDF 지면보기 오피니언 사설 서석대 전일칼럼 취재수첩 테마칼럼 데스크칼럼 당명떼고 정책배틀 사이버펑크 정치 대통령실 국회 정치칼럼 여론조사 선거 돋보기 선거 정치일반 행정 의회 광주시 광주자치구 전남도 광주의회 전남의회 사회 교육 사건사고 사회일반 5.18 환경복지 의료건강 날씨 광주시교육청 전남도교육청 대입수능 대학 스낵뉴스 전남 지역이슈 지역속으로 목포시 여수시 순천시 나주시 광양시 담양군 곡성군 구례군 고흥군 보성군 화순군 장성군 강진군 해남군 영암군 무안군 함평군 영광군 장흥군 완도군 진도군 신안군 일주이슈 지속가능 지속가능은 가능한가? 공프로젝트 기획시리즈 노샘의 남도역사 이야기 박하선의 사진풍경 백옥연의 문향 이돈삼의 마을이야기 이선의 큐레이터 노트 장민한의 동시대미술 수첩 조사라의 현대미술 산책 차노휘의 길위의 인생 황호균의 사찰문화재 바로알기 이윤선의 남도인문학 사람들 전일초대석 광주사람들 사람들 스포츠 KIA 타이거즈 광주FC 체육일반 문화 문화일반 비엔날레 공연 미술 책 문화 기획 경제 경제일반 기업 유통 건설부동산 농수축협·산림 조합 사진 영상 오늘의 포토 영상 뉴스 카드뉴스 게시판 전일게시판 전일알림 PDF 지면보기 광양시관광협의회, 제주도여행사 등 MOU 성과 가시화 시군별뉴스 광양시관광협의회, 제주도여행사 등 MOU 성과 가시화 제주도 여행객 1박 2일 광양투어 By 오선우 기자 sunwoo.oh@jnilbo.com 게재 2021-06-02 15:30:24 페이스북 트위터 카카오스토리 밴드 네이버블로그 카카오톡 라인 URL복사 지난달 말 1박2일 일정으로 광양을 찾은 제주도 여행객 16명이 기념사진을 촬영하고 있다. 광양시 제공 광양시관광협의회가 제주특별자치도 여행사, 국내여행안내사협회 등과 맺은 MOU 성과가 가시화되고 있다. 2일 광양시관광협의회에 따르면, 지난달 말 MOU 체결에 참석했던 6명을 포함한 제주도 여행객 16명이 1박2일 일정으로 광양을 여행했다. 이번 일정은 광양 9경 9미를 중심으로 순천, 남해 등 전남 동부권과 남해안남중권협의회에 속해 있는 시군과 연계해 구성됐다. 여행자들은 망덕포구, 이순신대교, 구봉산전망대, 서천꽃길, 느랭이골자연휴양림 등 광양 대표 관광지를 둘러보고 광양불고기, 닭숯불구이 등 광양의 맛을 한껏 즐겼다. 광양기정떡, 김부각 등 광양의 특산품 구매 기회도 놓치지 않았다. 한 참가자는 "지난 광양여행이 인상적이어서 딸과 꼭 다시 오고 싶었다"면서 "혼자만 먹기엔 아까웠던 광양음식을 딸과 함께 먹을 수 있어 흐뭇했다. 친절한 안내와 함께 진행됐던 뜻깊고 행복한 여행이었다"고 말했다. 박순기 관광과장은 "작년 제주특별자치도 여행사 등과 맺은 업무협약이 서서히 결실을 맺고 있다"며 "코로나가 진정되고 여행이 다시 활발해지면 그 성과는 더욱 커질 것"이라고 말했다. 협의회는 관광사업자, 관광 관련 사업자와 단체, 시민단체 및 시민 등이 지속 가능한 지역관광 활성화를 위해 참여하는 비영리 민간 주도 협의체로, 민관협력 거버넌스 체제로 운영된다. 지난해 10월 발기인대회와 창립총회를 거쳐, 올 1월부터 본격 운영되고 있으며 문체부 '지역관광 추진조직(DMO) 육성지원' 공모사업에 선정되는 등 실행역량을 확대하고 있다. 제주특별자치도 여행사, 국내여행안내사협회 등과 네트워크 구축을 위해 맺은 MOU에 이어 호남대, 전남대 등의 대학과 스마트관광 플랫폼 운영인력 양성을 위한 협약을 맺는 등 다각적인 노력을 기울이고 있다. 가장많이 읽은 뉴스 광주 학교·교육기관 6곳서 불법촬영 20대 잡혔다 "늘어나는 수요에…" 광주송정역 증축규모 대폭 확대 제103회 전국체전, 광주·전남 메달 레이스 '순항' "철거 위기 亞문화전당 미디어월, 존치 필요성 높다" 영암군 민속씨름단 운영관리비, 씨름단 '쌈짓돈'? 화정동 입주예정자들 "일상도 무너져" 눈물 호소 여순사건 희생자 첫 인정…유족 "늦었지만 환영, 후속조치도" '8시간 추가연장근로제' 폐지에 속타는 중소기업 광주서 70대 여성 숨진 채 발견…폭행 흔적 있어 '감전·충돌사고 우려' 학교 배전선로 지중화…전남 7.3%·세종 70.8% 회사소개 사회공헌 윤리강령 편집규약 고충처리인 제도 청소년 보호 정책 저작권·콘텐츠 사용 개인정보취급방침 광고 및 구독 문의 등록번호 광주 아-00186|등록연월일 2015년 1월 2일|발행인/편집인 이재욱|청소년 보호 책임자 최도철 광주 광역시 동구 제봉로 137 전남일보|대표전화 062-527-0015|제보 062-510-0393|광고 062-519-0710 본 사이트의 게재된 모든 기사의 판권은 본사가 보유하며,발행인의 사전허가 없이는 기사와 사진의 무단 전재복사를 금합니다. 독자 투고 및 건의 사항: webmaster@jnilbo.com© Copyright 1996-2020. 전남일보 All right reserved.</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 안전한 관광 환경 조성 힘쓴다 &lt; 경제/관광 &lt; 기사본문 - 제주매일 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 버튼 전체기사 뉴스 정치/행정 사회/교육 경제/관광 스포츠 문화 방송/연예 생활에 필요한 법률상식만을 콕!…콕!…콕! 기획 오피니언 국제 기획특집 포토/동영상 포토 동영상 PDF 지면보기 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 로그인 회원가입 모바일웹 RSS 최종편집 2022-10-11 14:45 (화) 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 안전한 관광 환경 조성 힘쓴다 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제/관광 제주도관광협회, 안전한 관광 환경 조성 힘쓴다 기자명 임아라 기자 입력 2021.06.11 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 영세업체 경쟁력 강화 사업 추진 제주관광협회 전경 코로나19로부터 안전한 제주관광을 위해 제주도와 제주도관광협회가 ‘도내 영세관광사업체 경쟁력 강화 지원사업’을 추진한다. 이번 사업은 도내 관광사업체의 경영환경 개선 및 지원을 통한 안전한 제주관광 환경을 조성하기 위해 마련됐다. 이번 사업은 도내 관광사업체에 필요 물품의 구매비를 70%(업체당 500만원)까지 지원한다. 지원 물품으로 소화기, 구급함, 심장제세동기 등 안전 장비와 체온측정기, 여행안내송수신기 등 서비스 장비가 있으며, 자세한 사항은 협회 홈페이지에서 확인 가능하다. 도관광협회 관계자는 “도내 코로나19 확진자 수가 증가함에 따라 관광객들이 안전하게 여행할 수 있도록 방역에 만전을 기하는 한편, 업계를 지원할 사업도 지속적으로 발굴해 나가겠다”고 밝혔다. 임아라 기자 ara4908@daum.net 다른기사 보기 저작권자 © 제주매일 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 최신뉴스 "곶자왈 공유화 기금모금 참여합시다" 제주도개발공사 상임감사에 양진철 교수 임명 서귀포시, 사무관 8명 승진 임용 경제난 속 서귀포시 읍면동 청사 무분별 신축 논란 ‘건강한 서귀포시 만들기 프로젝트’ 재정비 포토뉴스 "곶자왈 공유화 기금모금 참여합시다" 제주도개발공사 상임감사에 양진철 교수 임명 경제난 속 서귀포시 읍면동 청사 무분별 신축 논란 ‘건강한 서귀포시 만들기 프로젝트’ 재정비 인기뉴스 1 “눈을 의심했다” 휘발유·실내등유 가격 차 고작 100원 2 3년 만의 '노마스크' 탐라문화제 '팡파르' 3 ‘천년의 숨결’ 제61회 탐라문화제 막내렸다 4 오영훈 제주도지사 “분산에너지 특구 지정해 달라” 5 “내가 소개하는 작은도서관” 영상공모전 7작 시상 6 다혼디배움학교 현장 여론 존중돼야 7 3년 만에 열리는 제주광어 대축제 8 한국전력 전기요금 인상에 제주 양식업계 반발 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 월광로 37 대표전화 : 064-747-8111 팩스 : 064-747-8116 청소년보호책임자 : 이기봉 법인명 : (주)엔디소프트 제호 : 제주매일 등록번호 : 제주 가 - 00011 등록일 : 2012-05-09 발행일 : 2012-05-09 발행·편집인 : 장동훈 제주매일 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주매일. All rights reserved. mail to news@jejumaeil.net 위로 전체메뉴 전체기사 제8회 지선 전체 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 정치/행정 전체 4·13 총선을 달린다 제주정치돋보기 제주도의회 제8회 지방선거 사회/교육 전체 사회일반 교육 기획 [긴급진단] 제주산돼지고기 청정 이미지 경고등 [진단] 오라동에 비친 제주 난개발의 그림자 원도심 들여다보기 경제/관광 문화 전체 Living &amp; Life 스포츠 전체 전도축구대회 전국체전 전국장애학생체육대회 전국소년체육대회 2018 평창 동계올림픽 2018 평창 동계패럴림픽 기획특집 전체 마을공동체 사업 상생과 경제활성화를 주도한다 -제주매일 ·JDC 공동기획 범도민 바다환경보전 의식제고 프로젝트- 제주도민 생존이 걸린 바다(2021) 제주바다사랑프로젝트- 제주愛 바다愛 - 제주바다를 어떻게 지킬것인가(2020) 제주형 예비 유니콘기업 발굴 육성 - 제주매일 ·JDC 공동기획 살고 싶은 제주 다문화시대, 다양성이 존중되는 제주 만들기 생활에 필요한 법률상식만을 콕!…콕!…콕! 방송/연예 국제 기자수첩 오피니언 종교 전체 제주 순례길 따라 피플 사건사고 설왕설래 포토 Times in English news 이웃소식 만화/만평 전체 시사만화 매일만평 제주매일 포커스 6.4 지방선거 전체 도지사 교육감 도의원 교육의원 브라질월드컵 마라톤 4·13 총선을 달린다 사설 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 정부 2차 추경에 관광사업체 지원 특별출연 요청 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 14:46 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도, 정부 2차 추경에 관광사업체 지원 특별출연 요청 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 정치/행정 제주도, 정부 2차 추경에 관광사업체 지원 특별출연 요청 홍창빈 기자 headlinejeju@headlinejeju.co.kr 승인 2021.06.11 11:31 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 원희룡 지사-좌남수 의장, 김부겸 총리 만나 요청"국제항공노선 중단으로 피해 관광사업체 국가지원 필요" 원희룡 제주도지사와 좌남수 제주도의회 의장이 11일 김부겸 총리를 만나 제주도민 백신 우선접종 건의문을 전달하고 있다. ⓒ헤드라인제주 코로나19 바이러스 유입 차단을 위해 지난해 2월부터 제주도의 외국인 무사증 입국제도 및 국제항공노선 운항이 전면 중단되면서 외국인 관련 관광사업체가 심각한 위기를 맞고 있는 가운데, 제주도가 이들 사업체에 대해 국가 차원의 재정지원을 요청했다. 원희룡 제주도지사와 좌남수 제주도의회 의장은 11일 오전 서울정부청사를 방문해 김부겸 국무총리를 만나 국제 항공노선 중단 등 국가 감염병 예방조치로 인해 막대한 경제적 손실을 입은 관광사업체 피해지원을 위한 국가 재정 출연 문제에 대해 협의했다. 제주는 지난해 무사증 일시정지와 국제항공노선 운행 중단에 따라 제주를 방문하는 외국인이 감소하면서 제주관광진흥기금의 주요 수입원이었던 출국납무금과 카지노납부금이 전년 대비 각 79.7%, 99.6% 감소하며 고갈 위기를 맞고 있다. 반면, 어려움에 처한 관광사업체 경영안정을 위한 관광진흥기금 융자 지원 및 상환 유예에 따른 이자보전금 수요는 급증했다. 이에 제주도는 코로나19 대응과 제주관광진흥기금 재원마련을 위해 정부 2차 추경에 기금 감소분(200억원)을 일회적으로 국가 일반재정에서 특별출연해줄 것을 기획재정부와 문화체육관광부에 요청해 왔다. 이날 김 총리 면담 자리에서 원 지사는 국가재정 출연금 필요성을 설명하며 2차 추경에 반영해줄 것을 요청했다.  &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 홍창빈 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 관련기사 김부겸 총리 "제주도민 백신 우선 접종 건의, 검토하겠다" 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주 병설유치원 매운급식 논란..."아이들이 밥을 못 먹어" 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 3 서귀포시, 2022년 교통유발부담금 21억원 부과 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 7 세상을 웃게 만드는 친절 8 제주시, 하반기 사무관 승진의결자 6명 승진 임용 9 서귀포시, 사무관 승진의결자 8명 승진임용 10 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 1 안녕하세요 2 네 3 네 4 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 5 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 6 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 7 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 8 지역발전의 초석이 되었으면 한다 9 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 10 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 이달의 친절 관광인 4인 선정 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 14:46 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회, 이달의 친절 관광인 4인 선정 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도관광협회, 이달의 친절 관광인 4인 선정 이창준 기자 headlinejeju@headlinejeju.co.kr 승인 2021.06.02 12:38 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도관광협회(회장 부동석)는 지난 1일 제주종합비즈니스센터 3층 대회의실에서 '칭찬합시다, 이달의 친절 베스트 관광인' 4명을 선정하고 선정패와 친절 키움 꽃 화분을 전달했다고 2일 밝혔다. 이번 베스트 관광인으로 선정된 4인은 △양성철 주식회사 상효원 과정 △윤도국 탐라승마장 교관 △최재혁 크라운컨트리클럽 과장 △강주남 제주민속식품 사월의 꿩 대표다. 이들은 관광객들에게 친절한 서비스를 제공하고 코로나19 자체방역에 힘쓰며 동종업계에 모범이 돼 이번 친절 베스트 관광인으로 선정됐다. 제주도관광협회 관계자는 "앞으로도 제주 관광 친절 서비스 및 코로나19 방역에 모범이 되는 친절 베스트 관광인을 매월 선정해 수범 사례를 공유하고 이를 계기로 제주 관광 종사자들의 친절 및 서비스 마인드를 한 단계 높여나가도록 하겠다"고 전했다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 이창준 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주 병설유치원 매운급식 논란..."아이들이 밥을 못 먹어" 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 3 서귀포시, 2022년 교통유발부담금 21억원 부과 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 7 세상을 웃게 만드는 친절 8 제주시, 하반기 사무관 승진의결자 6명 승진 임용 9 서귀포시, 사무관 승진의결자 8명 승진임용 10 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 1 안녕하세요 2 네 3 네 4 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 5 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 6 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 7 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 8 지역발전의 초석이 되었으면 한다 9 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 10 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>광양시관광협의회+제주도여행사, MOU 성과 가시화 - 투어코리아 - No.1 여행·축제 뉴스 × 전체기사 이슈 전체 정책 지역 사회 피플 여행 전체 국내여행 해외여행 맛집멋집 리조트 펜션 휴양림 호텔레스토랑 Green Tour 여행사 축제 전체 국내인기축제 세계축제 라이프 전체 팁뉴스 문화 패션아웃도어 레포츠 의료관광 관광청 경제 최종편집 : 2022-10-11 14:34 (화) 처음으로 로그인 회원가입 facebook twitter rss post kakaoch instagram in-naver 전체기사 이슈 정책 지역 사회 피플 여행 국내여행 해외여행 맛집멋집 리조트 펜션 휴양림 호텔레스토랑 Green Tour 여행사 축제 국내인기축제 세계축제 라이프 팁뉴스 문화 패션아웃도어 레포츠 의료관광 관광청 경제 기사검색 검색 실시간 경주시, 총 상금 1600만원 내건 ‘2022 경주 숏폼 영상 공모전’ 실시 마리아나관광청, 인플루언서·크리에이터' 여행경비 지원 프로그램 발표 태국 디렉터 &amp; 아티스트 Mr. ROM, 서울에서 첫 개인 사진전 ‘REBORN’ 진행 담양 죽녹원, 내비게이션 검색량 1위..전남 대표 관광지 ‘입증’ 감빛 곱게 물든 전북 '단풍 천리길' 11개 코스 걸으며 힐링 대전 0시 뮤직페스티벌, 관광객 등 50만 명 찾아..내년 축제 기대감 높여 도시민박업·한옥체험업 창업의 모든 것 '서울스테이 사업설명회' 18일 개최 대한민국 특별귀화자 1호 인요한, 2023순천만국제정원박람회 홍보대사 위촉 고양시, CJ라이브시티 조기 완공 추진 '민관 TF팀' 첫 회의 개최 풍속·해학 등 김홍도 예술혼 재현 '안산 김홍도축제' 4년만에 오프라인 개최 3년만에 만나는' 서울억새축제'서 은빛 감성 가을 낭만 즐겨요! 고창문화관광재단, 고창형 플리마켓 '고창한장 단풍마켓' 개최 핫뉴스 철원군, 고석정꽃밭·주상절리길 인기에 '천만 관광객 시대' 눈앞 "거 참 재밌네!"...오감이 흥겨운 안동국제탈춤페스티벌 그곳에 가면...해양도시 포항여행 매력에 쏙 빠진다! 올 가을, 우리는 ‘백제문화제 판타지아’에 빠진다 공주 금강신관공원 코스모스 활짝 감성 채워주는 공주 힐링스폿! "가을여행 멀리 가지마세요" 서울 도심 속 공원으로 가족소풍을! [포토] 핑크뮬리 유혹하는 함평 석두마을 올가을, ‘대전효문화뿌리축제’에서 뿌리 찾는 즐거움에 빠져볼까! 서울여행 인기...일본 최대 관광박람회서 서울홍보관 북적북적 '수트라하버 리조트', MZ세대 겨냥 해외 골프패키지 홈쇼핑 판매 10월, 축제 분위기로 핫 한 '여수' 여행 재미에 빠져 봐~ 이전 다음 광양시관광협의회+제주도여행사, MOU 성과 가시화 페이스북 트위터 카카오스토리 카카오톡 URL복사 기사공유하기 상태바 HOME 이슈 정책 광양시관광협의회+제주도여행사, MOU 성과 가시화 김지혜 기자 승인 2021.06.02 12:06 댓글 0 페이스북 트위터 카카오스토리 카카오톡 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 URL복사 × 광양시관광협의회와 제주도여행사의 NOU 성과로 제주에서 관광을 찾은 행객들 기념촬영 전남 광양시관광협의회가 지난해 12월 제주도 여행사, 국내여행안내사협회 등과 맺은 MOU 성과가 나타나고 있다. 2일 광양시관광협의회에 따르면 지난 5월 말 제주도 여행객 16명이 1박 2일 일정으로 광양여행을 즐겼다. 여행 코스는 광양 9경 9미를 중심으로 순천, 남해 등 전남 동부권과 남해안남중권협의회에 속해 있는 시군과 연계했다. 여행자들은 망덕포구, 이순신대교, 구봉산전망대, 서천꽃길, 느랭이골자연휴양림 등 광양 대표 관광지를 둘러보고 광양불고기, 닭숯불구이 등 광양의 맛을 한껏 즐겼다. 광양기정떡, 김부각 등 광양의 특산품 구매 기회도 놓치지 않았다. 한 여행자는 “1년에 한 번씩은 반드시 딸과 여행을 하는데, 지난 광양여행이 인상적이어서 딸과 함께 꼭 다시 오고 싶었다”고 밝혔다. 이어 “혼자만 먹기엔 아까웠던 광양음식을 딸과 함께 먹을 수 있어 흐뭇했고, 친절한 안내도 마음에 들어 뜻깊고 행복한 여행이 됐다”며 만족을 표했다. 박순기 관광과장은 “코로나19가 사그라들고 여행이 다시 활발해지면 제주도 여행사들과 등과 맺은 MOU 성과느가 더욱 커질 것으로 기대하고 있다”고 말했다. 한편 광양시관광협의회는 관광사업자, 관광 관련 사업자와 단체, 시민단체 및 시민 등이 지속 가능한 지역관광 활성화를 위해 조직한 비영리 민간 주도 협의체로, 민관협력 거버넌스 체제로 운영된다. 지난해 10월, 발기인대회와 창립총회를 거쳐, 올 1월부터 본격 운영되고 있으며 문체부‘지역관광 추진조직(DMO) 육성지원’ 공모사업에 선정되는 등 실행역량을 확대하고 있다. 저작권자 © 투어코리아 - No.1 여행·축제 뉴스 무단전재 및 재배포 금지 김지혜 기자 다른기사 보기 페이스북 트위터 카카오스토리 카카오톡 URL복사 기사공유하기 당신만 안 본 뉴스 철원군, 고석정꽃밭·주상절리길 인기에 '천만 관광객 시대' 눈앞 "거 참 재밌네!"...오감이 흥겨운 안동국제탈춤페스티벌 그곳에 가면...해양도시 포항여행 매력에 쏙 빠진다! 올 가을, 우리는 ‘백제문화제 판타지아’에 빠진다 공주 금강신관공원 코스모스 활짝 감성 채워주는 공주 힐링스폿! "가을여행 멀리 가지마세요" 서울 도심 속 공원으로 가족소풍을! 철원군, 고석정꽃밭·주상절리길 인기에 '천만 관광객 시대' 눈앞 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요 에디터 초이스 TRIP 신비로운 남원 서어나무숲에서 즐기는 가을 향기 BIZ 반짝이는 내 차를 위해, 세차 산업의 역사 FOOD 절대 갈변하지 않는 밤 보관 특급비법 CULTURE '월수금화목토' 아직은 질리지 않는 박민영표 로맨틱 코미디 LIFE 동요대회 입상한 노노카짱의 근황 투어코리아 Cover 145호 2022-10-01 구독신청 지난호보기 기사제보 광고문의 기자회원 신청 투어코리아 SNS 주요기사 경주시, 총 상금 1600만원 내건 ‘2022 경주 숏폼 영상 공모전’ 실시 마리아나관광청, 인플루언서·크리에이터' 여행경비 지원 프로그램 발표 태국 디렉터 &amp; 아티스트 Mr. ROM, 서울에서 첫 개인 사진전 ‘REBORN’ 진행 담양 죽녹원, 내비게이션 검색량 1위..전남 대표 관광지 ‘입증’ 감빛 곱게 물든 전북 '단풍 천리길' 11개 코스 걸으며 힐링 대전 0시 뮤직페스티벌, 관광객 등 50만 명 찾아..내년 축제 기대감 높여 투어코리아가 만난사람 [인터뷰] 박일호 밀양시장 “관광객이 감동하는 밀양 만들기 위해 고민” 국내축제 3년만에 만나는' 서울억새축제'서 은빛 감성 가을 낭만 즐겨요! 세계축제 진정한 미식가 축제 ‘싱가포르 푸드 페스티벌’ 팬데믹 이후 첫 대면 개최 국내여행 그곳에 가면...해양도시 포항여행 매력에 쏙 빠진다! 테마여행 올가을, 댕댕이와 크루즈 여행떠나요! 아시아 인스타그램 ‘좋아요’ 부르는 '힙한 홍콩 카페' 어디? 유럽 가을 낭만 더하는 이스탄불의 거리 탑3 미국·캐나다·중남미 배우 이기우 추천 캘리포니아 펫 프렌들리 여행지, '아빌라 비치' 중동·아프리카 로맨스 인 두바이? 사막에서 별빛 샤워, 관람차에서 야경 만끽! 오세아니아 '럭셔리 항공 투어'로 호주의 대자연 색다르게 즐겨봐! 전문가칼럼 [119기고] 공동주택 화재 안전은 피난설비 올바른 숙지부터 시작 최신뉴스 경주시, 총 상금 1600만원 내건 ‘2022 경주 숏폼 영상 공모전’ 실시 마리아나관광청, 인플루언서·크리에이터' 여행경비 지원 프로그램 발표 태국 디렉터 &amp; 아티스트 Mr. ROM, 서울에서 첫 개인 사진전 ‘REBORN’ 진행 담양 죽녹원, 내비게이션 검색량 1위..전남 대표 관광지 ‘입증’ 감빛 곱게 물든 전북 '단풍 천리길' 11개 코스 걸으며 힐링 포토뉴스 경주시, 총 상금 1600만원 내건 ‘2022 경주 숏폼 영상 공모전’ 실시 마리아나관광청, 인플루언서·크리에이터' 여행경비 지원 프로그램 발표 태국 디렉터 &amp; 아티스트 Mr. ROM, 서울에서 첫 개인 사진전 ‘REBORN’ 진행 담양 죽녹원, 내비게이션 검색량 1위..전남 대표 관광지 ‘입증’ 인기뉴스 1 철원군, 고석정꽃밭·주상절리길 인기에 '천만 관광객 시대' 눈앞 2 "거 참 재밌네!"...오감이 흥겨운 안동국제탈춤페스티벌 3 그곳에 가면...해양도시 포항여행 매력에 쏙 빠진다! 4 올 가을, 우리는 ‘백제문화제 판타지아’에 빠진다 5 공주 금강신관공원 코스모스 활짝 6 감성 채워주는 공주 힐링스폿! 7 "가을여행 멀리 가지마세요" 서울 도심 속 공원으로 가족소풍을! 8 [포토] 핑크뮬리 유혹하는 함평 석두마을 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 법인명 : (주)태건미디어 사업자 등록번호 : 105-87-36240 서울특별시 종로구 송월길 136 301호 발행·편집인 : 유경훈 청소년보호책임자 : 조성란 대표전화 : 02-326-0002 이메일 : webmaster@tournews21.com 투어코리아 정기간행물 등록번호 : 종로 라 00420 등록일 : 2009-12-14 투어코리아뉴스 인터넷신문 등록번호 : 서울 아 03491 등록일 : 2014-12-18 발행일 : 2014-12-18 투어코리아 - No.1 여행·축제 뉴스 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 투어코리아 - No.1 여행·축제 뉴스. All rights reserved. mail to webmaster@tournews21.com 위로</t>
   </si>
   <si>
     <t>광양시관광협의회, 제주도여행사 등과 맺은 MOU 성과 가시화 Powered by HOSTWAY 뉴스레터 구독신청 베타경제 베타뉴스TV 로그인 회원가입 Last Update : 전체기사 하드웨어 소프트웨어 엔터프라이즈 윈도우 모바일 소셜/인터넷 모빌리티 과학 가전 교육 종합 전체기사 리뷰 가전리뷰 기획기사 벤치마크 구입가이드 탐방 인터뷰 칼럼/사설 팁테크 이벤트 동영상 전체기사 뉴스 탐방/인터뷰 이벤트 리뷰 기획기사 기자수첩/칼럼 종합 전체기사 종합 블록체인 정책 산업 중소기업 건설/부동산 국제경제 증권 금융 경제일반 생활경제 재계 제약/의료 전체기사 용산소식 제주소식 경기도소식 서울소식 대구 경북 충북소식 강원소식 충남소식 부산경남소식 광주소식 전북소식 전남소식 전체기사 문화 연예 스포츠 정치 전남소식 광양시관광협의회, 제주도여행사 등과 맺은 MOU 성과 가시화 방계홍 기자 chunsapan2@naver.com 기사 입력 : 2021-06-02 18:01:12 ▲ 제주도여행사 등과 맺은 MOU 성과 가시화 © 광양시 MOU 체결 참석자 6명 포함한 제주도 여행객, 1박 2일 광양투어 참가 [베타뉴스=방계홍 기자] 광양시관광협의회가 제주특별자치도 여행사, 국내여행안내사협회 등과 맺은 MOU 성과가가시화되고 있다. 지난 5월 말, MOU 체결에 참석했던 6명을 포함한 제주도 여행객 16명이 1박 2일일정으로 광양을 여행했다. 이번 일정은 광양 9경 9미를 중심으로 순천, 남해 등 전남 동부권과 남해안남중권협의회에속해 있는 시군과 연계해 구성됐다. 여행자들은 망덕포구, 이순신대교, 구봉산전망대, 서천꽃길, 느랭이골자연휴양림 등광양 대표 관광지를 둘러보고 광양불고기, 닭숯불구이 등 광양의 맛을 한껏 즐겼다. 또한, 광양기정떡, 김부각 등 광양의 특산품 구매 기회도 놓치지 않았다. 한 참가자는 “1년에 한 번씩은 반드시 딸과 여행하는데, 지난 광양여행이 인상적이어서 딸과 꼭 다시 오고 싶었다”고 밝혔다. 이어 “혼자만 먹기엔 아까웠던 광양음식을 딸과 함께 먹을 수 있어 흐뭇했다”며, “친절한안내와 함께 진행됐던 뜻깊고 행복한 여행이었다”고 덧붙였다. 박순기 관광과장은 “작년 제주특별자치도 여행사 등과 맺은 업무협약이 서서히 결실을 맺고 있다”며, “코로나가 진정되고 여행이 다시 활발해지면 그 성과는 더욱 커질 것이다”고 말했다. 광양시관광협의회는 관광사업자, 관광 관련 사업자와 단체, 시민단체 및 시민 등이지속 가능한 지역관광 활성화를 위해 참여하는 비영리 민간 주도 협의체로, 민관협력 거버넌스 체제로 운영된다. 지난해 10월, 발기인대회와 창립총회를 거쳐, 올 1월부터 본격 운영되고 있으며 문체부‘지역관광 추진조직(DMO) 육성지원’ 공모사업에 선정되는 등 실행역량을 확대하고 있다. 또한, 제주특별자치도 여행사, 국내여행안내사협회 등과 네트워크 구축을 위해 체결한 MOU에 이어 호남대, 전남대 등의 대학과 스마트관광 플랫폼 운영인력 양성을 위한 협약을 맺었다. 베타뉴스 방계홍 기자 (chunsapan2@naver.com) Copyrights ⓒ BetaNews.net Google 뉴스피드에 Betanews를 추가하세요. 독점 비디오를 보려면 Youtube에서 베타뉴스TV를 구독하세요 목록 위로 용산소식 제주소식 경기도소식 서울소식 대구 경북 충북소식 강원소식 충남소식 부산경남소식 광주소식 전북소식 전남소식 전남소식 &gt;&gt; 전남뉴스 개인정보취급방침 회사소개 연혁 찾아오는길 기사제보 광고문의 기사문의 RSS 구독하기 ㆍ(주)베타뉴스 ㆍ제호 : 베타뉴스 ㆍ발행일 : 2001년 9월 29일 ㆍ등록번호 : 서울아00247 ㆍ등록일 : 2006년 9월 8일 ㆍ발행인 겸 편집인 : 이직 ㆍ주소 : 04316 서울시 용산구 원효로 237 화전빌딩 3층 (주)베타뉴스 ㆍ광고문의 : 마케팅국장 김진호 ㆍ청소년보호책임자 : 박미선 ㆍ사업자번호 : 106-86-07377 ㆍ통신판매업 신고 : 용산 제00314호 ㆍ전화 : 02-3211-3040 ~1 ㆍFAX : 02-714-3042 ㆍ문의메일 : leejik@betanews.net Copyright(C) 1999-2017. BetaNews co. ltd. All rights reserved</t>
   </si>
   <si>
-    <t>제주도관광협회, '도내 영세관광사업체 경쟁력 강화 지원사업' 추진 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 11:14 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회, '도내 영세관광사업체 경쟁력 강화 지원사업' 추진 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도관광협회, '도내 영세관광사업체 경쟁력 강화 지원사업' 추진 이창준 기자 headlinejeju@headlinejeju.co.kr 승인 2021.06.10 11:11 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도관광협회(회장 부동석)는 제주특별자치도와 함께 제주관광 안전 이미지를 향상시키고자 '도내 영세관광사업체 경쟁력 강화 지원사업'을 추진한다고 10일 밝혔다. '도내 영세관광사업체 경쟁력 강화 지원사업'은 코로나19 방역과 안전에 대한 국민적 관심이 높아지고, 제주 관광객 규모가 코로나 상황 이전으로 회복되어 많은 관광객들이 제주를 찾을 것으로 예상됨에 따라 안전한 제주관광 환경을 조성하기 위해 추진된 사업이다. 도내 관광사업체의 경영환경 개선 및 지원을 위해 필요 물품의 구매비를 70%까지 지원한다. 지원 물품으로 소화기, 구급함, 심장제세동기 등 안전 장비와 체온측정기, 여행안내송수신기 등 서비스 장비다. 보다 자세한 사항은 협회 홈페이지(www.visitjeju.or.kr)-공지사항에서 확인 가능하다. 제주도관광협회 관계자는 "도내 코로나19 확진자 수가 증가함에 따라 관광객들이 안전하게 여행할 수 있도록 방역에 만전을 기하겠다.업계를 지원할 사업도 지속적으로 발굴해 나가겠다"고 밝혔다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 이창준 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 "제주 보전지역 정기조사 부실투성이...도의회, 재조사 요구하라" 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 7 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 참으로 무식한 시민단체라고 할 수 밖에... 공장도 없애야 하고 자동차도 다 없애자고 주장하고. 제주도행 비행기도 운항 중단해야 한다고 주장하는 거랑 뭐가 다른지... 누가 저렇게 하라고 시민단체에게 지시하는 사람이 있나요. 2 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 3 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 4 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 5 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 6 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 7 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 8 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 9 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 10 축하합니다. 대단하십니다. 부럽습니다~~~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
-  </si>
-  <si>
-    <t>제주도관광협회, 이달의 친절 관광인 4인 선정 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 11:14 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회, 이달의 친절 관광인 4인 선정 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도관광협회, 이달의 친절 관광인 4인 선정 이창준 기자 headlinejeju@headlinejeju.co.kr 승인 2021.06.02 12:38 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도관광협회(회장 부동석)는 지난 1일 제주종합비즈니스센터 3층 대회의실에서 '칭찬합시다, 이달의 친절 베스트 관광인' 4명을 선정하고 선정패와 친절 키움 꽃 화분을 전달했다고 2일 밝혔다. 이번 베스트 관광인으로 선정된 4인은 △양성철 주식회사 상효원 과정 △윤도국 탐라승마장 교관 △최재혁 크라운컨트리클럽 과장 △강주남 제주민속식품 사월의 꿩 대표다. 이들은 관광객들에게 친절한 서비스를 제공하고 코로나19 자체방역에 힘쓰며 동종업계에 모범이 돼 이번 친절 베스트 관광인으로 선정됐다. 제주도관광협회 관계자는 "앞으로도 제주 관광 친절 서비스 및 코로나19 방역에 모범이 되는 친절 베스트 관광인을 매월 선정해 수범 사례를 공유하고 이를 계기로 제주 관광 종사자들의 친절 및 서비스 마인드를 한 단계 높여나가도록 하겠다"고 전했다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 이창준 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 "제주 보전지역 정기조사 부실투성이...도의회, 재조사 요구하라" 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 7 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 참으로 무식한 시민단체라고 할 수 밖에... 공장도 없애야 하고 자동차도 다 없애자고 주장하고. 제주도행 비행기도 운항 중단해야 한다고 주장하는 거랑 뭐가 다른지... 누가 저렇게 하라고 시민단체에게 지시하는 사람이 있나요. 2 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 3 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 4 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 5 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 6 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 7 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 8 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 9 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 10 축하합니다. 대단하십니다. 부럽습니다~~~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
-  </si>
-  <si>
-    <t>광양시관광협의회, 제주도여행사 등과 맺은 MOU 성과 가시화 &lt; 국내 &lt; 여행/레저 &lt; 기사본문 - 디스커버리뉴스(DISCOVERYNEWS) 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 버튼 뉴스 여행/레저 국내 해외 골프 경제 숙박/교통 항공 열차 자동차 크루즈 호텔 리조트 사회 라이프 기획 문화 포토 포토 영상 기사검색 검색 로그인 회원가입 Updated2022-10-04 11:15 (화) 기사제보 독자투고 광고문의 본문영역 이전 기사보기 다음 기사보기 광양시관광협의회, 제주도여행사 등과 맺은 MOU 성과 가시화 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 여행/레저 국내 광양시관광협의회, 제주도여행사 등과 맺은 MOU 성과 가시화 기자명 정기환 기자 입력 2021.06.02 11:34 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 - MOU 체결 참석자 6명 포함한 제주도 여행객, 1박 2일 광양투어 참가 [디스커버리뉴스=정기환 기자] 광양시관광협의회가 제주특별자치도 여행사, 국내여행안내사협회 등과 맺은 MOU 성과가 가시화되고 있다. 지난 5월 말, MOU 체결에 참석했던 6명을 포함한 제주도 여행객 16명이 1박 2일 일정으로 광양을 여행했다. 이번 일정은 광양 9경 9미를 중심으로 순천, 남해 등 전남 동부권과 남해안남중권협의회에 속해 있는 시군과 연계해 구성됐다. 여행자들은 망덕포구, 이순신대교, 구봉산전망대, 서천꽃길, 느랭이골자연휴양림 등 광양 대표 관광지를 둘러보고 광양불고기, 닭숯불구이 등 광양의 맛을 한껏 즐겼다. 또한, 광양기정떡, 김부각 등 광양의 특산품 구매 기회도 놓치지 않았다. 한 참가자는 “1년에 한 번씩은 반드시 딸과 여행하는데, 지난 광양여행이 인상적이어서 딸과 꼭 다시 오고 싶었다”고 밝혔다. 이어 “혼자만 먹기엔 아까웠던 광양음식을 딸과 함께 먹을 수 있어 흐뭇했다”며, “친절한 안내와 함께 진행됐던 뜻깊고 행복한 여행이었다”고 덧붙였다. 박순기 관광과장은 “작년 제주특별자치도 여행사 등과 맺은 업무협약이 서서히 결실을 맺고 있다”며, “코로나가 진정되고 여행이 다시 활발해지면 그 성과는 더욱 커질 것이다”고 말했다. 광양시관광협의회는 관광사업자, 관광 관련 사업자와 단체, 시민단체 및 시민 등이 지속 가능한 지역관광 활성화를 위해 참여하는 비영리 민간 주도 협의체로, 민관협력 거버넌스 체제로 운영된다. 지난해 10월, 발기인대회와 창립총회를 거쳐, 올 1월부터 본격 운영되고 있으며 문체부‘지역관광 추진조직(DMO) 육성지원’ 공모사업에 선정되는 등 실행역량을 확대하고 있다. 또한, 제주특별자치도 여행사, 국내여행안내사협회 등과 네트워크 구축을 위해 맺은 MOU에 이어 호남대, 전남대 등의 대학과 스마트관광 플랫폼 운영인력 양성을 위한 협약을 맺는 등 다각적인 노력을 기울이고 있다. 정기환 기자 jeong9200@gmail.com 다른기사 보기 저작권자 © 디스커버리뉴스(DISCOVERYNEWS) 무단전재 및 재배포 금지 개의 댓글 회원로그인 댓글 내용입력 0 / 400 등록 댓글 정렬 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 종로구 삼일대로 461 (운현궁 SK 허브) 102동 312호 대표전화 : ☎ 070-7706-9365 (주중18시까지/토,일휴무), 070-7706-9354 팩스 : 02-749-3207 법인명 : 미디어썬 제호 : 디스커버리뉴스(DISCOVERYNEWS) 등록번호 : 서울. 아02715 등록일 : 2013-07-02 발행일 : 2013-07-10 발행·편집인 : 강성덕 편집 부국장 : 정기환 부사장 : 이명수 청소년보호책임자 : 임영규 문의 및 보도자료 : jeong9200@discoverynews.kr 디스커버리뉴스(DISCOVERYNEWS) 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 디스커버리뉴스(DISCOVERYNEWS). All rights reserved. 위로 전체메뉴 전체기사 뉴스 여행/레저 전체 국내 해외 골프 경제 숙박/교통 전체 항공 열차 자동차 크루즈 호텔 리조트 사회 라이프 포토 전체 포토 영상 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>광양시관광협의회, 제주도여행사 등과 맺은 MOU 성과 가시화 | 위키트리 위키트리 사회 menu clear 경제 일반 산업 전자 자동차 IT·통신·게임 에너지·화학 조선·철강·중공업 항공·물류 건설·부동산 유통 금융·증권 제약·바이오 엔터 방송 셀럽 라이프 일반 리빙 푸드 패션뷰티 게임 동물 건강 스포츠 사회 일반 교육 정치 문화 일반 영화 음악 월드 토픽 한류 지역취재본부 전체 광주전남 부산경남 경기북부 대구경북 전북 세종대전충청 경북동부 베스트클릭 제보 경제 엔터 라이프 스포츠 사회 정치 문화 월드 지역취재본부 검색 광양시관광협의회, 제주도여행사 등과 맺은 MOU 성과 가시화 2021-06-03 06:37 add remove print link MOU 체결 참석자 6명 포함한 제주도 여행객, 1박 2일 광양투어 참가 광양시관광협의회가 제주특별자치도 여행사, 국내여행안내사협회 등과 맺은 MOU 성과가 가시화되고 있다. 지난 5월 말, MOU 체결에 참석했던 6명을 포함한 제주도 여행객 16명이 1박 2일 일정으로 광양을 여행했다. 이번 일정은 광양 9경 9미를 중심으로 순천, 남해 등 전남 동부권과 남해안남중권협의회에 속해 있는 시군과 연계해 구성됐다. 여행자들은 망덕포구, 이순신대교, 구봉산전망대, 서천꽃길, 느랭이골자연휴양림 등 광양 대표 관광지를 둘러보고 광양불고기, 닭숯불구이 등 광양의 맛을 한껏 즐겼다. 또한, 광양기정떡, 김부각 등 광양의 특산품 구매 기회도 놓치지 않았다. 한 참가자는 “1년에 한 번씩은 반드시 딸과 여행하는데, 지난 광양여행이 인상적이어서 딸과 꼭 다시 오고 싶었다”고 밝혔다. 이어 “혼자만 먹기엔 아까웠던 광양음식을 딸과 함께 먹을 수 있어 흐뭇했다”며, “친절한 안내와 함께 진행됐던 뜻깊고 행복한 여행이었다”고 덧붙였다. 박순기 관광과장은 “작년 제주특별자치도 여행사 등과 맺은 업무협약이 서서히 결실을 맺고 있다”며, “코로나가 진정되고 여행이 다시 활발해지면 그 성과는 더욱 커질 것이다”고 말했다. 광양시관광협의회는 관광사업자, 관광 관련 사업자와 단체, 시민단체 및 시민 등이 지속 가능한 지역관광 활성화를 위해 참여하는 비영리 민간 주도 협의체로, 민관협력 거버넌스 체제로 운영된다. 지난해 10월, 발기인대회와 창립총회를 거쳐, 올 1월부터 본격 운영되고 있으며 문체부‘지역관광 추진조직(DMO) 육성지원’ 공모사업에 선정되는 등 실행역량을 확대하고 있다. 또한, 제주특별자치도 여행사, 국내여행안내사협회 등과 네트워크 구축을 위해 맺은 MOU에 이어 호남대, 전남대 등의 대학과 스마트관광 플랫폼 운영인력 양성을 위한 협약을 맺는 등 다각적인 노력을 기울이고 있다. 광양시관광협의회 제주특별자치도 여행사 국내여행안내사협회 home 노해섭 기자 nogary@wikitree.co.kr 기사제보 copyright '위키트리'라는 출처를 표시하는 경우에 한하여, 누구라도 위키트리 컨텐츠를 제한 없이 이용할 수 있습니다. 위키트리는 뉴스 스토리텔링 가이드라인을 엄격히 준수합니다. 서브 콘텐츠 영역 WIKITREE TV 네이티브 광고 베스트 베스트 클릭 푸터 메뉴 keyboard_arrow_down WIKITREE HOME PAGE TAGSHOP 제보 파운데이션 COMPANY SOCIAL AD SERVICE WIKITREE NOW RECRUIT VERTICAL 펫 오늘은머니 새모네모 뉴스마켓 바바바 SITE 약관 및 운영원칙 개인정보취급방침 청소년보호정책 사이트맵 서울시 마포구 성암로 189 (상암동, K-biz DMC타워) 13층 (주)소셜뉴스 | 02-3789-8900 | 등록번호: 서울 아 01019 | 등록일자: 2009. 11. 10 최초 발행일: 2010. 02. 02 | 발행인 · 편집인 : 이원호 | 편집국장 : 서기찬 | 청소년 보호 책임자 : 손기영 크리에이티브커먼즈 저작자표시-동일조건변경허락 2.0에 따라 이용하실수 있습니다. © Social News Co., Ltd. All Right Reserved. 위키트리 페이스북 위키트리 트위터 위키트리 인스타그램 위키트리 유튜브 위키트리 인스타그램</t>
-  </si>
-  <si>
-    <t>[인터뷰] 원창묵 원주시장 “제주도 넘어서는 관광 제일 도시 만들 것” - 이뉴스투데이 × 전체기사 금융 전체 정책·일반 금융공기업 은행 증권 보험 여신 산업 전체 정책·일반 재계 건설·부동산 자동차·항공·철도 조선·해운·철강 에너지·정유·화학 중기·벤처 IT과학 전체 정책·일반 전기·전자 정보통신 게임·방송 소프트웨어·보안 의료·제약 블록체인·암호화폐 스타트업라운지 생활경제 전체 정책·일반 유통소비자 여행레저 뷰티패션 정치사회 전체 정치 사회 국제 윤석열정부 D+@ 문재인정부D+@ 기획 전체 소문e답 신상e후 솔Car말 e분양 주말e여행 주말e영화 신박한 車담 이츠스토리 상권뽀개기 기타 기획 교육문화 전체 교육 문화 연예 스포츠 오피니언 전체 e사람 기자수첩 칼럼 기고 피플 전체 인사 부고 동정 전국 전체 수도권취재본부 경기취재본부 인천취재본부 충청취재본부 충북취재본부 대전세종취재본부 전북취재본부 광주전남취재본부 강원취재본부 대구경북취재본부 부산경남취재본부 기타 포토 이뉴스TV 전체 씨카고 이츠스토리 육갑박살 콕e영상 위클리e뉴스 기타영상 보도자료 최종편집 : 2022-10-04 11:14 (화) 검색어를 입력해주세요. 검색 독서신문·Readersnews 이뉴스TV 에이원뉴스 전체 금융 정책·일반 금융공기업 은행 증권 보험 여신 산업 정책·일반 재계 건설·부동산 자동차·항공·철도 조선·해운·철강 에너지·정유·화학 중기·벤처 IT과학 정책·일반 전기·전자 정보통신 게임·방송 소프트웨어·보안 의료·제약 블록체인·암호화폐 스타트업라운지 생활경제 정책·일반 유통소비자 여행레저 뷰티패션 정치사회 정치 사회 국제 윤석열정부 D+@ 문재인정부D+@ 기획 소문e답 신상e후 솔Car말 e분양 주말e여행 주말e영화 신박한 車담 이츠스토리 상권뽀개기 기타 기획 교육문화 교육 문화 연예 스포츠 오피니언 e사람 기자수첩 칼럼 기고 피플 인사 부고 동정 전국 수도권취재본부 경기취재본부 인천취재본부 충청취재본부 충북취재본부 대전세종취재본부 전북취재본부 광주전남취재본부 강원취재본부 대구경북취재본부 부산경남취재본부 기타 포토 이뉴스TV 씨카고 이츠스토리 육갑박살 콕e영상 위클리e뉴스 기타영상 보도자료 기획 뉴스 영상 이전 다음 [인터뷰] 원창묵 원주시장 “제주도 넘어서는 관광 제일 도시 만들 것” 페이스북 트위터 카카오톡 URL복사 기사공유하기 상태바 HOME 전국 강원취재본부 [인터뷰] 원창묵 원주시장 “제주도 넘어서는 관광 제일 도시 만들 것” 1400억 투입 간현관광지 종합개발사업 올해 마무리 인구 100만 광역시 기틀 임기 내 마련 캠프롱에 국립과학관‧시립미술관 등 조성 우정연 기자 승인 2021.06.02 08:01 댓글 0 페이스북 트위터 카카오톡 URL복사 기사공유하기 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × [편집자주] 신종 코로나바이러스 감염증(코로나19)을 기점으로 경제, 문화, 교육, 복지, 관광 등 많은 분야에서 변화가 가속화되고 있다. 민선 7기 1년을 남겨둔 강원지역 지자체장들을 만나 그동안의 성과와 현재, 앞으로 지역이 나아갈 길에 대해 들어봤다. 질문에 답하는 원창묵 원주시장. [이뉴스투데이 강원취재본부 우정연 기자] 원창묵 원주시장은 3선 시장으로 지난 11년간 ‘관광 제일 도시 원주’를 목표로 괄목할만한 성장세를 이뤄왔다. 원 시장은 “수도권에서 40분대 진입이 가능한 원주는 간현관광지 종합개발사업과 폐철도를 활용한 치악산 바람길숲, 반곡~금대 관광지 조성사업 등이 마무리되면 제주도를 넘어서는 관광도시가 될 것”이라고 말했다. 이어 “여주~원주 복선 전철 연장과 관광 개발사업, 걸어서 5분 거리 공원 조성 등 일자리 확충과 정주 환경을 개선해 인구 100만 광역시를 만들기 위한 기틀을 임기 내에 마련하겠다”고 덧붙였다. 그는 폐철도를 활용해 관광열차를 만들고 옛 미군기지 캠프롱 터에 생명의료 테마의 전문 국립과학관, 시립미술관 건립 등을 통해 일자리 창출과 관광객 유입 효과를 기대하고 있다. 다음은 원 시장과의 일문일답. - 민선 7기 3년의 주요 성과와 남은 과제는. 민선 5기 초선 시장 때부터 기획하고 구상했던 사업들이 하나둘씩 결실을 보고 있다. 특히 지난해는 코로나19 등 위기상황을 겪으면서도 많은 성과를 이룬 한 해였다. 우선 서울 강남까지 40분대에 도달할 수 있는 여주-원주 복선화 철도 사업이 확정됐다. 이로써 원주는 전국에서 유일하게 고속철도가 복선으로 3개 역에 정차하는 사실상 수도권 도시로 발돋움하게 됐다. 앞으로 산업과 경제·물류의 중심도시가 될 뿐만 아니라 문화‧관광 제일 도시로의 비약적인 성장을 이룰 것이다. 원주 전체를 관광지로 만드는 프로젝트를 진행 중이다. 지난 2018년 개통한 소금산 출렁다리는 현재까지 280만이 찾으며 지역 대표 관광지로 급부상했다. 간현관광지를 전국 최고명품 관광단지로 업그레이드하기 위한 개발 공사가 한창이다. ‘소금산 스카이밸리’로 케이블카와 하늘정원, 음악분수, 유리다리, 전망대, 잔도, 에스컬레이터, 미디어 사파이어 등이 추가로 설치된다. 반곡~금대 지구 관광 활성화 사업을 통해 중앙선 폐선로 부지와 판부면 금대리 일원을 관광명소로 개발 중이다. 파빌리온, 플라워가든, 4D 관광열차, 똬리굴 테마 관광시설, 슈퍼트리, 하늘 전망대 등을 조성할 계획이다. 원주시를 중부내륙의 문화예술 거점도시로 만들기 위한 캠프롱 일대 문화체육공원 조성사업이 남아있다. 2019년 옛 미군기지 캠프롱 부지 반환 결정 후 지난해 국립전문과학관 건립이 확정됐고 올해 시립미술관 건립이 문체부 최종심의 통과라는 성과를 거뒀다. 가족 단위 관광객이 맘껏 즐길 수 있는 과학관과 미술관 등을 포함한 문화예술 허브로 대한민국에서 가장 특색 있는 문화 체육공원으로 만들겠다. 1400억원이 투입되는 정지뜰 호수공원이 전액 국책사업으로 확정됐고 디지털 헬스케어의 전진기지 역할을 할 부론 국가산업단지 후보지 지정과 기본설계 및 타당성 용역을 진행 중이다. 원주천 댐이 착공에 들어갔고 1군사령부 부지 4만㎡와 국군병원 터 10만㎡도 시민에게 환원됐으며 군부지 120만㎡에 대한 정부 도시개발도 확정됐다. 이 외에도 유네스코 문학 창의도시 가입 및 법정 문화도시 선정, 학성동‧중앙동･봉산동 도시재생사업 선정, 400km의 원주 굽잇길‧140km 치악산 둘레길 전 구간 개통과 무실~만종 간 서부순환도로 개통, 단계천 생태하천 복원사업 착공, 정부 농촌협약 공모사업(300억) 선정 등 시민 생활에 변화를 가져올 여러 성과가 있었다. - 달라진 관광, 문화 등에 맞춰 준비하는 정책은. 코로나19로 인해 ‘비대면’이 일상이 되면서 여행 및 관광업계는 침체의 늪에서 벗어나지 못하고 있지만 붐비지 않는 탁 트인 공간을 찾아다니는 가족 단위 관광객이 많아 새로운 도약을 할 수 있을 것이라 본다. 도보여행이 가능한 원주 굽잇길과 치악산 둘레길을 전면 개통했다. 굽잇길 400km와 둘레길 130km, 총연장 530km로 코스마다 즐길 거리가 달라 자연 속에서 힐링하며 걷다 보면 살아 숨 쉬는 원주의 역사와 문화까지 만날 수 있다. 전국에서 단 한 곳만 선정하는 국립전문과학관 공모에 선정되면서 군사시설이었던 옛 캠프롱 부지에 생명‧의료를 테마로 하는 과학관을 건립할 수 있게 됐다. 수십 년간 자연이 만든 울창한 숲이 있어 수목원같이 드넓은 부지에서 아이들이 마음껏 뛰놀며 과학적 상상력을 키워가는 공간으로 만들 예정이다. 시립미술관 역시 설립 타당성 최종평가를 통과했다. 캠프롱의 잘 보존된 숲을 적극적으로 활용, 미술 작품을 조화롭게 배치하고 휴식공간을 함께 조성해 포스트 코로나 시대에 안심할 수 있는 야외놀이터로 꾸미겠다. 중앙근린공원 1, 2구역에 이어 가현동 국군병원 터에 체육공원 등이 생기는 2023년이면 원주지역 공원 면적은 국내에서 가장 많은 도시가 된다. - 간현관광지 종합개발사업이 마무리되면 어떤 변화가 있는지. 1400억원이 투입된 간현관광지 종합개발사업이 연말까지 마무리되면 일 년 내내 주야간 언제든 즐길 수 있는 가족 단위 체험형 관광지로 새롭게 탄생한다. 연간 200만 명 이상 찾는 제주도 부럽지 않은 여행지가 될 것으로 기대한다. 출렁다리가 끝나는 지점에 조성하는 하늘정원과 폭 250m, 높이 70m의 자연 암벽을 스크린 삼아 펼쳐지는 미디어 파사드쇼, 음악분수, 물놀이시설, 글램핑장은 올 상반기 우선 개장할 계획이다. 유리다리와 전망대, 잔도, 데크 산책로도 오는 10~11월이면 준공된다. 통합건축물에는 내수면 생태체험관과 친환경 첨단 그린 스마트센터, 로컬푸드 직매장, 옻‧한지 전시 판매장 등 다양한 시설이 케이블카 탑승장과 함께 들어설 예정이다. 물놀이장을 만들고 야간에 펼쳐지는 미디어파사드와 레이저쇼에 댄싱카니발을 가미한다면 문화도시 원주를 전국에 알려 관광객은 더 늘어날 전망이다. 케이블카 탑승 전후로 로컬푸드 직매장과 식당 등도 이용할 수 있다. - 지역 관광지와 경제 활성화 연계방안은. 치악산 둘레길과 원주 굽잇길, 레일바이크, 뮤지엄 산, 강원감영 등 기존 관광자원과 현재 진행 중인 간현관광지 종합개발사업, 반곡~금대지구 관광 활성화 사업 등 ‘원주형 관광 뉴딜사업’을 연계하면 1박 2일 이상 체류할 수 있는 관광자원이 되기 때문에 지역 경제발전에 큰 도움이 될 것으로 본다. 소금산 스카이밸리의 통합이용권 가격을 3만 원 정도로 책정할 계획이다. 연간 관광객을 약 200만 명으로 예상하기 때문에 입장 인원만으로도 경제 활성화 효과가 매우 클 것으로 예상된다. - 시민에게 하고 싶은 말. 지난 11년간 시민 성원으로 원주 발전을 위한 많은 일을 해냈다. 앞으로 추진할 사업도 시민들의 협조 없이는 어렵다. 국군병원 부지나 산현리 자작나무 수목원 등은 마을과 긴밀한 협조가 이뤄져야 한다. 지난달 개통한 치악산 둘레길을 시민들이 함께 가꿔주길 당부한다. 140km에 달해 행정이 나서 하나하나 관리하기에는 한계가 있다. 치악산 둘레길은 대한민국 최고의 길이다. 전국 마니아들이 찾는 ‘걷기 성지’가 되도록 SNS 등을 통한 홍보에 동참해 달라. 끝으로 3월부터 시작된 코로나19 백신 접종이 순조롭게 진행되고 있다. 오는 7월부터는 일반 시민을 대상으로 백신 접종에 돌입하는 만큼, 집단면역 형성을 통한 일상회복을 위해 시민들의 적극적인 동참 바란다. 앞으로도 감염병 예방을 최우선 과제로 삼고 역점사업을 완성하기 위해 최선을 다하겠다. Tag #원창묵 #원주시장 #관광 #제일 #도시 저작권자 © 이뉴스투데이 무단전재 및 재배포 금지 우정연 기자 wooj2705@naver.com 다른기사 보기 페이스북 트위터 카카오톡 URL복사 기사공유하기 [[ARTICLEREPLY]] 주요기사 스마트카라, 친환경 캠페인 ‘스마트카라 Farm’ 과일 수확 행사 개최 스마트카라, 친환경 캠페인 ‘스마트카라 Farm’ 과일 수확 행사 개최 3년 만에 돌아온 영월 김삿갓 문화제 성료 3년 만에 돌아온 영월 김삿갓 문화제 성료 인천 서구, 보육교사 업무향상 ‘거점형 어린이집 운영지원 사업' 추진 인천 서구, 보육교사 업무향상 ‘거점형 어린이집 운영지원 사업' 추진 의왕시, 일자리박람회 성공적 개최 의왕시, 일자리박람회 성공적 개최 하남시의회 도시건설위, ‘3생(生) 행정사무감사’ 마무리 하남시의회 도시건설위, ‘3생(生) 행정사무감사’ 마무리 태백시, 10월 기획공연 뮤지컬 ‘달꽃만발’ 개최 태백시, 10월 기획공연 뮤지컬 ‘달꽃만발’ 개최 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 비회원 글쓰기 계정인증을 통해 댓글을 남기실 수 있습니다. 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 인기뉴스 1“이 경고등 갑자기 왜 켜졌지?” 2대통령실, ‘외교 참사’ 논란 거리두기…“민생 집중할 때” 3면역력 필수 시대…식품업계, 건강기능식품 시장 ‘정조준’ 4올해 무역수지 480억달러 적자 전망…IMF 직전의 2.3배 5당정, ‘탄력호출료’ 확대...심야택시난 해결 팔걷었다 6잘 나가는 스타트업, 경쟁력·성장성 다 잡은 노하우는? 최신뉴스 1스마트카라, 친환경 캠페인 ‘스마트카라 Farm’ 과일 수확 행사 개최 23년 만에 돌아온 영월 김삿갓 문화제 성료 3인천 서구, 보육교사 업무향상 ‘거점형 어린이집 운영지원 사업' 추진 4의왕시, 일자리박람회 성공적 개최 5하남시의회 도시건설위, ‘3생(生) 행정사무감사’ 마무리 매체소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS top 서울특별시 서초구 논현로31길 14 (서울미디어빌딩) 대표전화 : 02-523-8541 팩스 : 02-522-6725 청소년보호책임자 : 김봉연 법인명 : (주)서울미디어그룹 제호 : 이뉴스투데이 등록번호 : 서울 아 00339 등록일 : 2007-03-20 발행일 : 2005-05-23 발행인 : 방재홍 편집인 : 방두철 ⌜열린보도원칙⌟ 당 매체는 독자와 취재원 등 뉴스 이용자의 권리 보장을 위해 반론이나 정정보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다. 고충처리인 김봉연 070-4699-7210 tongno@enewstoday.co.kr 이뉴스투데이 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 이뉴스투데이. All rights reserved. mail to webmaster@enewstoday.co.kr 위로</t>
-  </si>
-  <si>
-    <t>제주도관광협회, 영세관광사업체 경쟁력 강화 지원 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-04 11:15 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주특별자치도 문화예술진흥원장에 제주 출신 김태관 전문 공연 기획자가 내정됐다.제주도는 지난달 28일 도 문화예술진흥원장 최종 임용후보자를 응시번호로 공개했고, 본지 취재 결... 4일부터 요양시설 접촉면회 재허용 4일부터 요양시설 접촉면회 재허용 4일부터 요양병원·시설 입소자와 가족들이 다시 접촉 면회를 할 수 있게 됐다.3일 정부와 제주특별자치도에 따르면 4일부터 요양병원·시설, 정신병원·시설 등 감염취약시설의 코로나19... SNS P  D  F 지면보기 이전 다음 제주도관광협회, 영세관광사업체 경쟁력 강화 지원 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 경제 경제일반 제주도관광협회, 영세관광사업체 경쟁력 강화 지원 김지우 기자 승인 2021.06.10 13:35 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주특별자치도와 제주도관광협회(회장 부동석)는 위드 코로나 시대 제주관광 안전 이미지 제고를 위한 도내 영세관광사업체 경쟁력 강화 지원사업을 추진한다고 10일 밝혔다. 지원 물품은 소화기와 구급함, 심장제세동기, 체온측정기, 여행안내송수신기 등 경영환경 개선을 위해 필요한 물품으로 구매비의 70%까지 지원한다. 도관광협회 관계자는 “도내 코로나19 확진자 수가 증가함에 따라 관광객들이 안전하게 여행할 수 있도록 방역에 만전을 기하겠다”며 “업계를 지원할 사업도 지속적으로 발굴해 나가겠다”고 밝혔다. 김지우 기자  jibregas@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 김지우 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1암보험 약관에 규정하는 알고 있어야 할 사항들 2디지털 자산 제도화 분기점, 투자는 어떻게(?) 3세계 최초 '국제농기계 전동화.자율주행 엑스포' 한 달 앞으로 4경제 비상사태, 비상한 대처 있어야 한다 5버스 준공영제 대폭 손질…도민 부담 전가 ‘우려’ 64일부터 요양시설 접촉면회 재허용 7제주고·제주여상, 전도사격대회 고등부 단체전 정상 8깊어가는 가을, 코스모스 활짝 9기업경기 내리막, 민·관 머리 맞대 돌파구 찾아야 10김경학 의장 “도민복지 증진 지방자치 본질…민생의정 구현 총력” 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
-  </si>
-  <si>
-    <t>여름방학 휴가철 맞아 제주도 찾는 관광객 급증... 지역감염 확산 우려 속에 예방접종 완료자도 실외 노마스크 안돼 - CIVICNEWS(시빅뉴스) × 전체기사 뉴스 전체 정치 경제 사회 문화 스포츠 국제 교육 미디어 사람&amp; 시빅다이제스트 지자체 소식 취재수첩 기획 전체 저널리즘 세계-한국 언론 이슈 톺아보기 김민남의 생각이 멈추는 곳 장원호 박사의 그리운 대한민국 박창희 변리사의 특별한 특허 이야기 김선환 샘의 대학입시/진로진학 결정적 코치 나의 버킷리스트 시빅뉴스의 일요 터치 핫플레이스 이철우 교수의 에너지와 국제정치 북녘말 남녘말 글로벌 탐방 황령산칼럼 전체 박기철 칼럼 송문석 칼럼 정태철 칼럼 차용범 칼럼 진재운 칼럼 박창희 칼럼 권만우 칼럼 오피니언 전체 시빅칼럼 시빅광장 시빅건강칼럼 카드뉴스 전체 카드뉴스 포토뉴스 동영상 전체 줌인 시빅TV 콘텐츠 DB 전체 스트레이트 르뽀 캠퍼스 화이트보드 어른들이 모르는 비행 청소년의 세계 news roundup 문화올레길 051FM 11X 시비빅 라이브 강동수의 자투리 시사인문 장원호의 50달러 미국유학 조나단의 상상이상 시 한 모금, 말 한 모금 삿포로 도시 브랜드 이야기 부산의 현대인물을 찾아서 시빅드론 정해영의 법률산책 문진우의 사진이야기 서창덕의 영성기행 김윤환의 책과 사람 아이 러브 펫 강성보 칼럼 양혜승 칼럼 이광우 칼럼 UPDATED. 2022-10-04 10:39 (화) 로그인 회원가입 모바일웹 tiwt facebook naver youtube 모바일웹 전체 뉴스 정치 경제 사회 문화 스포츠 국제 교육 미디어 사람&amp; 시빅다이제스트 지자체 소식 취재수첩 기획 저널리즘 세계-한국 언론 이슈 톺아보기 김민남의 생각이 멈추는 곳 장원호 박사의 그리운 대한민국 박창희 변리사의 특별한 특허 이야기 김선환 샘의 대학입시/진로진학 결정적 코치 나의 버킷리스트 시빅뉴스의 일요 터치 핫플레이스 황령산칼럼 박기철 칼럼 송문석 칼럼 정태철 칼럼 차용범 칼럼 진재운 칼럼 박창희 칼럼 오피니언 시빅광장 시빅건강칼럼 시빅칼럼 카드뉴스 카드뉴스 포토뉴스 동영상 줌인 시빅TV 콘텐츠 DB 스트레이트 르뽀 캠퍼스 화이트보드 어른들이 모르는 비행 청소년의 세계 문화올레길 051FM 11X 시비빅 라이브 강동수의 자투리 시사인문 장원호의 50달러 미국유학 조나단의 상상이상 시 한 모금, 말 한 모금 삿포로 도시 브랜드 이야기 부산의 현대인물을 찾아서 시빅드론 정해영의 법률산책 문진우의 사진이야기 서창덕의 영성기행 김윤환의 책과 사람 아이 러브 펫 강성보 칼럼 양혜승 칼럼 이광우 칼럼 기사검색 검색 뉴스 정치 경제 사회 문화 스포츠 국제 교육 미디어 사람&amp; 시빅다이제스트 지자체 소식 취재수첩 기획 저널리즘 세계-한국 언론 이슈 톺아보기 김민남의 생각이 멈추는 곳 장원호 박사의 그리운 대한민국 박창희 변리사의 특별한 특허 이야기 김선환 샘의 대학입시/진로진학 결정적 코치 나의 버킷리스트 시빅뉴스의 일요 터치 핫플레이스 황령산칼럼 박기철 칼럼 송문석 칼럼 정태철 칼럼 차용범 칼럼 진재운 칼럼 박창희 칼럼 오피니언 시빅광장 시빅건강칼럼 시빅칼럼 카드뉴스 카드뉴스 포토뉴스 동영상 줌인 시빅TV 콘텐츠 DB 스트레이트 르뽀 캠퍼스 화이트보드 어른들이 모르는 비행 청소년의 세계 문화올레길 051FM 11X 시비빅 라이브 강동수의 자투리 시사인문 장원호의 50달러 미국유학 조나단의 상상이상 시 한 모금, 말 한 모금 삿포로 도시 브랜드 이야기 부산의 현대인물을 찾아서 시빅드론 정해영의 법률산책 문진우의 사진이야기 서창덕의 영성기행 김윤환의 책과 사람 아이 러브 펫 강성보 칼럼 양혜승 칼럼 이광우 칼럼 이전 다음 여름방학 휴가철 맞아 제주도 찾는 관광객 급증... 지역감염 확산 우려 속에 예방접종 완료자도 실외 노마스크 안돼 페이스북 트위터 카카오스토리 기사공유하기 상태바 HOME 뉴스 사회 여름방학 휴가철 맞아 제주도 찾는 관광객 급증... 지역감염 확산 우려 속에 예방접종 완료자도 실외 노마스크 안돼 취재기자 성민주 승인 2021.06.29 17:10 댓글 0 페이스북 트위터 카카오스토리 기사공유하기 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 올해 지난 28일까지 539만 명이 넘는 내국인 관광객이 제주도 방문해 시민들 “방역수칙만 잘 지키면, 사회적 피로 풀기엔 제주 여행이 최적” 지난 28일 관광객 등 외부 요인으로 제주지역 6명의 추가 확진자 발생 변이 바이러스 확진자도 증가...오는 8월까지 마스크 착용 의무화 유지 제주도를 찾은 한 관광객이 여행 가방을 끌고 걸어가고 있다. 코로나19 사회적 피로를 풀기 위해 제주도 여행을 찾는 관광객이 증가하고 있다(사진: pixabay 무료 이미지). 사회적 거리두기가 완화되지 않았지만, 제주지역은 코로나19 시대 이전의 관광세를 회복해가고 있다. 여름방학 시즌이 열리면서, 해외여행 대신 제주도를 찾는 관광객들이 증가하면서다. 이에 따라, 관광객이 몰리는 여름철에 지역감염으로 인한 코로나19 재확산에 대한 우려의 목소리가 많다. 작년 1월 제주도행 비행기를 타기 위해 관광객들이 줄을 서서 기다리고 있다. 올해는 작년보다 100만여 명 많은 관광객이 제주도를 방문하고 있다(사진: 취재기자 성민주). 제주도 관광협회의 통계에 따르면, 올해 들어 지난 28일까지 제주를 찾은 내국인 관광객은 539만 명이 넘는다. 지난해 같은 기간 약 349만 명보다 200만 명 정도 더 많은 관광객이 제주를 방문한 수치다. 내국인 기준 일별 통계로는 24일 4만 2045명, 25일 4만 2361명, 26일 4만 340명, 27일 4만 1515명, 28일 3만 9416명 등이 제주를 찾았다. 하루 4만여 명 이상이 제주공항을 통해 들어오고 있다. 실제 최근에 제주도 여행을 갔다 온 시민들의 경험담도 적지 않다. 이들은 해외여행을 사실상 가지 못하는 상황이기 때문에 방역수칙만 잘 지킨다면, 코로나19로 인한 사회적 피로도를 풀기에 제주도가 딱인 국내 여행지라는 입장을 보이고 있다. 권지영(23, 부산시 사하구) 씨는 “제주도 여행을 가고 싶어서 돈을 모아 놨는데, 코로나19 때문에 못 가고 있었지만 지인 인스타만 봐도 이미 여러 명이 제주도에 있어서 이번 기회에 가기로 마음을 먹게 됐다”며 “국내선 비행기에서부터 사람이 정말 많았고 제주도에도 관광객으로 붐볐는데, 사진 찍을 때 말고는 마스크를 벗고 다니는 사람은 딱히 못 봤다”고 말했다. 김다경(22, 울산시 중구) 씨도 “성수기 전에 일찍 갔다 오는 게 더 좋을 것 같아서 최근에 후딱 다녀왔는데, 워터파크 내에서도 사람들이 전부 마스크를 끼는 등 방역수칙을 잘 지키는 것 같았다”며 “방역수칙만 제대로 잘 지킨다면 해외여행도 못 가고 있는 상황에 좋은 것 같고 나도 잠시 갔다 왔지만 가길 정말 잘한 것 같다”고 말했다. 이처럼 사회적 피로를 풀기 위해 제주도를 찾는 입도 관광객이 늘고 있지만, 코로나19 확진자도 추가적으로 계속 늘어나 우려되는 상황이 발생하고 있다. 28일 제주지역에서는 총 981건의 코로나19 진단검사가 진행됐고, 이 가운데 관광객 등 외부 요인으로 6명(제주 1257~1262번)의 확진자가 발생했다. 29일 오전 11시 기준 제주지역 누적 확진자 수는 1262명이다. 하루 새 6명의 확진자가 추가로 나오면서 이달에만 220명이 코로나19 확진 판정을 받았다. 제주시 관계자는 “이달의 신규 확진자 중 21명 정도는 입도객 등 외부 유입으로 인해 코로나19 바이러스가 전파돼 감염된 것으로 추정되는데, 최근 하루 평균 4만 명이 넘는 입도객이 방문하면서 관광객 확진자도 증가하고 있는 것”이라며 “이에 따라 코로나19 취약 시설 138곳을 대상으로 방역실태에 대한 집중점검을 실시했더니 행정처분 1건, 행정지도 5건 등 총 6건의 위반상황을 적발했다”고 밝혔다. 또한 제주지역에서 변이 바이러스 감염 사례 15건도 추가로 확인됐다. 신규 확진자 32.3%가 변이 바이러스 감염으로 추정되는 상황이며, 이를 포함해 변이(알파, 델타) 바이러스 확진자는 누적 104명으로 늘어났다. 관광객 급증에 따른 지역감염 우려로 인해 제주도에서는 마스크 착용을 계속 의무화할 방침이다. 제주특별자치도에 따르면, 정부가 예방접종 완료자 일상회복 지원 방안으로 7월 1일부터 실외에서 마스크를 벗을 수 있도록 허용했지만, 휴가철 입도객 증가와 지역감염 우려 등에 맞춰 제주지역은 오는 8월까지 예방접종 완료자도 실내·외에서 마스크를 벗을 수 없다. 마스크 착용 외에 개편된 1단계 거리두기는 오는 7월 1일부터 2주간 그대로 적용된다. 6명까지 사적모임이 허용되며, 유흥시설·홀덤펍, 식당·카페, 노래연습장, 실내체육시설, 목욕장업, 직접판매홍보관은 밤 10시 이후 영업 제한이 해제돼 사실상 24시간 영업도 가능해진다. 한편, 방역수칙 위반 사업자는 300만 원 이하, 이용자는 10만 원 이하의 과태료가 부과된다. 감염 우려가 높은 경우 개별 사업장에 대해 집합금지 처분도 내려진다. Tag #제주도 #여름철 #휴가 #사회적 피로 #코로나19 #변이 바이러스 #델타 #알파 #제주지역 #관광지 #관광객 #마스크 #노마스크 저작권자 © CIVICNEWS(시빅뉴스) 무단전재 및 재배포 금지 취재기자 성민주 다른기사 보기 페이스북 트위터 카카오스토리 기사공유하기 관련기사 코로나 비웃는 울산 태화강 국가정원의 밤... 삼삼오오 '술판' 벌여 땀 차고 답답한 마스크 벗고 해수욕장 가고 싶지만 코로나가 무서워 실행은 "글쎄" 부산 민락수변공원, 밤마다 야외 술자리로 ‘북적’...수영구청, 18일부터 야간 취식금지 행정명령 발동 20일 ‘거리 두기 개편안' 발표...7월 5일부터 적용 예정 "여기는 술집 안 부럽네!"...젊은이들, 코로나 위험 피해 부산시 온천천으로 몰린다 "7월부터 비수도권은 인원 제한없이 사적 모임도 가능" 부산지역 오늘(24일)부터 일주일간 8인까지 사적모임 허용 해외 유행 ‘델타 플러스’ 변이 바이러스 국내 유입 우려 방역수칙 위반 반복되면 동종 업종 전체 제한 방침 논란... “서로 감시하는 연좌제” vs “코로나19 종식 위해 당연” "사이판 가도 자가격리 없다"...트래블 버블 이용해서 여행가기 3차 대유행 이후 또다시 찾아온 코로나19 확산세... 예방접종자 대상 야외 노마스크 이대로 괜찮을까? '나는 언제쯤 백신 맞을 수 있나?'...7월 백신접종계획 코로나 신규 확진자 700명대...수도권은 조이고 비수도권은 풀고 도쿄 올림픽 무관중으로... 유로 2020에선 '노마스크 응원' 논란 다시 번지는 코로나 4차 유행...근본 대책은 오로지 백신 뿐 서울의 일상이 멈췄다...수도권, 가장 강력한 사회적 거리두기 4단계 적용 "해외여행 못 가서 아쉽죠?"... 영화, 드라마 등 넘어 전시회까지 해외여행 대리만족 문화콘텐츠 인기 시원하고 달달한 음료, 빙과류 소비 많은 여름철 당류 과다 섭취 주의 항공업계 '무착륙 관광비행' 마케팅 성과 거두자 '확대 시행' 추진 '열돔'에 갇힌 한반도...일사병, 열사병 등 '온열질환' 주의보 진화하는 플레이리스트...'휴가때' '밤 산책때' 입맛대로 듣는다 "코로나 3단계 이상땐 위약금 없이 호텔 등 예약 취소 가능" 여름철 해수욕장 물놀이 사고 많아...바닷 속 불청객 '이안류' 주의 "8~9월 벌 쏘임 환자 급증"...여름철 벌 쏘임 사고 안전수칙은? 물놀이 사고 났을 때 직접 구하려 하지 말고 즉시 119에 신고 너도 나도 떠나는 휴가철...터널 사고 발생 시 '행동요령' 가이드 "가고 싶은 여행지 여기 있었네"...영화로 떠나는 '집콕 휴가' 마스크 속 고약한 '입냄새' 제거하는 방법 Best 5 “주인님, 제가 대신 여행 다녀올게요”... 인형이 대신 해외여행 간다 백신 접종하면 유럽, 싱가포르, 태국 등 곧 여행 가능 지방공항 국제선 확대 운영... 이르면 내달부터 단계적 재개 '한-스페인 여행상담회 개최'... 코로나 이후 관광 특화상품 개발 지원키로 [겨울 해안길 코스 4선] ‘만경창파’의 울산 동해안을 가다 방학 맞은 대학생들...‘갓생’은 잠시 미뤄두고 ‘욜로 라이프’ 찾아 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 많이 본 뉴스 1미국 MLB 올스타팀 내한 경기 확정...오는 11월 11, 12일 이틀간 ‘MLB 월드투어 코리아시리즈 2022’ 부산에서 열린다 2전기차 수는 갈수록 느는데 고속도로 휴게소는 충전 전쟁 중 3[박기철 칼럼] 포지타노 마을이 매력적인 까닭 4tvN ‘작은 아씨들’ 화제...연출, 배우, 전개 등 흥미로운 요소 가득 5부산역서 부산세계시민축제 개최... '세계문화 체험' 기회 6‘원전으로부터 안전한 도시를!’...'더 30㎞포럼' 부산서 출범 활동 시작 7계속되는 전장연 도시철도 시위, 시민들의 공감과 신뢰 얻지 못하면 역효과 날 수도 8걸으면서 쓰레기 줍기...경성대 미컴과 학생들의 줍깅! 9바닥까지 간 대한민국 교권, 이제는 바로 잡아야 할 때 10부산이 붐! 전통이 붐! ‘2022 부산민속예술제’ 개최...부산시민공원에서 다양한 행사 진행돼 최신기사 무원칙에다 꼼수와 졸속으로 나란히 당헌 개정한 여야...한국 정당 민주주의 도대체 어디로 가려고 이러나 무원칙에다 꼼수와 졸속으로 나란히 당헌 개정한 여야...한국 정당 민주주의 도대체 어디로 가려고 이러나 성균관 차례상 표준안 발표로 한결 편안해진 지난 추석 명절… 지나친 음식 준비로 스트레스 받는 ‘명절 증후군’ 없어져야 성균관 차례상 표준안 발표로 한결 편안해진 지난 추석 명절… 지나친 음식 준비로 스트레스 받는 ‘명절 증후군’ 없어져야 나이키, 재판매 목적의 구매 행위 '리셀' 금지 조치... 리셀시장에 지각변동 올까 나이키, 재판매 목적의 구매 행위 '리셀' 금지 조치... 리셀시장에 지각변동 올까 반려동물 입양하듯 나만의 반려해변을 입양하세요 반려동물 입양하듯 나만의 반려해변을 입양하세요 [박기철 칼럼] 포지타노 마을이 매력적인 까닭 [박기철 칼럼] 포지타노 마을이 매력적인 까닭 2030세대의 돈 모으기법 ‘짠테크’ 열풍... 명절 선물세트 당근마켓에 팔고, 빈 병 모아 술값 보태기도 2030세대의 돈 모으기법 ‘짠테크’ 열풍... 명절 선물세트 당근마켓에 팔고, 빈 병 모아 술값 보태기도 글로벌 창업 축제 ‘COMEUP’ 주요 프로그램 부산에서 열려 글로벌 창업 축제 ‘COMEUP’ 주요 프로그램 부산에서 열려 매체소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 부산광역시 남구 수영로 309 경성대학교 23호관 301호 대표전화 : 051-663-5129 팩스 : 051-663-5129 법인명 : 시빅뉴스 제호 : CIVICNEWS(시빅뉴스) 등록번호 : 부산 아 00147 등록일 : 최초등록 2013-03-15, 재등록 2016-05-09 사업자 등록번호 : 617-82-12810 대표·발행인 : 권만우 편집인 : 권만우 편집국장 : 송문석 논설주간 : 박창희 CIVICNEWS(시빅뉴스) 모든 콘텐츠(기사, 사진, 영상)는 저작권법의 보호를 받은 바, 무단 전재와 복사 및 배포 등을 금합니다.CIVICNEWS(시빅뉴스)는 사단법인 인터넷신문위원회의 기사 및 광고 부문 자율규약을 준수합니다. Copyright © 2022 CIVICNEWS(시빅뉴스). All rights reserved. mail to civic_news@naver.com 위로</t>
-  </si>
-  <si>
-    <t>카드업계 “제주도 관광객 잡아라”…제주 특화카드 눈길 닫기 Search #글로벌 #시승기 #애플 #삼성전자 #유럽 #카드뉴스 닫기 전체기사 글로벌비즈 종합 금융 증권 산업 ICT 부동산·공기업 유통경제 ESG경영 오피니언 GETV 전체기사 글로벌비즈 미국·북미 중국 일본 아시아·호주 유럽 중남미·중동·아프리카 국제 글로벌CEO 종합 정치 경제 사회 전국 인물동정·인사·부고 기타 금융 은행 보험 카드 제2금융 금융일반 증권 해외증시 시황·전망 해외증시 특징주 해외증시 일반 국내증시 시황·전망 국내증시 특징주 국내증시 일반 암호화폐 산업 경제단체 전기·전자 자동차 중화학 항공·조선 반도체·디스플레이 철강 산업일반 ICT 통신·뉴미디어 IT일반 과학일반 게임 부동산·공기업 건설·부동산 분양 공기업 부동산일반 유통경제 식음료 패션∙뷰티 소비자 제약·바이오 유통일반 생활일반 ESG경영 기업지배구조 ESG일반 오피니언 기고 데스크칼럼 기자수첩 GETV 시승기 증권 메뉴 카드업계 “제주도 관광객 잡아라”…제주 특화카드 눈길 글로벌모터즈 온타임즈 PDF지면보기 English 中文 금융 facebook twitter youtube 검색 메뉴 은행 보험 카드 제2금융 금융일반 공유 0 카드업계 “제주도 관광객 잡아라”…제주 특화카드 눈길 이보라 기자 입력2021-06-27 08:00 카드업계 “제주도 관광객 잡아라”…제주 특화카드 눈길이미지 확대보기올해 제주도를 찾는 관광객 규모가 신종 코로나바이러스 감염증(코로나19) 이전 수준으로 회복하고 있는 가운데 제주도 특화카드에 관심이 쏠리고 있다. 사진=신한카드, KB국민카드, 우리카드 올해 제주도를 찾는 관광객 규모가 신종 코로나바이러스 감염증(코로나19) 이전 수준으로 회복하고 있는 가운데 제주도 특화카드에 관심이 쏠리고 있다. 카드사들은 올해 백신 접종으로 지난해와 달리 국내여행 등 외부활동이 늘 것으로 예상되면서 제주도 관광객을 겨냥한 카드를 선보였다. 27일 카드업계에 따르면 신한카드는 제주도민·여행객, 제주도에 자주 방문하는 고객에게 필요한 혜택을 담은 ‘신한카드 혼디모앙(이하 혼디모앙 카드)’을 판매 중이다. ‘혼디모앙’은 ‘한데 모으다’라는 의미를 가진 제주도 방언으로 최근 5년간 신한카드 제주 현지 빅데이터 분석을 통해 제주 지역에 거주·방문하는 고객들의 소비 패턴을 반영한 서비스를 새롭게 개발, 맞춤형 상품으로 설계됐다. 먼저 혼디모앙 카드는 전월 실적이나 한도 제한 없이 일시불·할부 이용금액의 0.2%가 마이신한포인트로 적립되며, 특히 제주도 내 가맹점을 이용하는 경우는 최대 0.6%를 한도 제한 없이 추가 적립해준다. 여기에 추가해 최대 월 5만 원 한도 내에서 실외골프장 5%, 에이바우트 커피 10%, 제주신화월드 5% 포인트 적립해준다. 제스코마트, 뉴월드마트(마트로), 농협 하나로마트·클럽 등 지역 유통점 이용 시에도 최대 10% 적립이 가능하다. KB국민카드는 제주도 지역 화폐인 ‘탐나는전’과 체크카드 기능을 한 장의 카드에 담은 하이브리드(Hybrid) 체크카드 ‘KB국민 탐나는전 체크카드’를 판매하고 있다. 이 카드는 제주도 지역 화폐 전용 모바일 애플리케이션인 ‘탐나는전’을 통해 충전한 금액을 제주도 내 지역 화폐 가맹점에서 이용할 수 있으며, 전국 신용카드 가맹점에서 체크카드로 결제할 수 있는 것이 특징이다. 우리카드는 제주도 여행객을 타깃으로 한 ‘카드의정석 유니마일 인 제주’를 판매 중이다. 해당 카드는 전용 홈페이지에서 항공권, 숙박, 입장권, 외식 결제 시 5% 추가 할인 혜택을 제공하며 국내선 항공권의 경우 발권 수수료까지 면제된다. 제주항공, 진에어, 티웨이항공, 에어서울에서의 초과 위탁수하물 5㎏ 무료 혜택과 에어부산 위탁수하물 우선 처리 혜택도 제공된다. 저비용항공사 통합 마일리지 제도인 유니마일 적립 혜택도 가능하다. 저비용항공사, 면세점 이용금액의 3%와 2%가 각각 적립되며, 적립된 유니마일은 국내 저비용항공사에서 항공권 구매와 기타 유료 서비스 결제에 이용 가능하다. 이보라 글로벌이코노믹 기자 lbr00@g-enews.com 아르헨티나 뉴스 기본정보 무역 투자 비즈니스 여행 아르헨티나 티에라델푸에고 특별제도 연장 2021.10.30 아르헨티나, 수입대금 선결제 제한조치 발표 2021.10.21 우루과이, 해상풍력발전 추진 2021.10.19 중남미, 경제회복 2021.10.07 우루과이, 중국과 자유무역협상(FTA) 추진 발표 2021.09.18 헤드라인 뉴스 [초점] ﻿美, 이번주 '역대 최강' 중국 반도체 수출 규제 [뉴욕증시] 국채 수익률 하락 나스닥 2.27% 급등 [뉴욕 e종목] 테슬라 투매 나왔나…주가 8.6% 폭락 글로벌비즈 러시아, 이탈리아에 러시아산 천연가스 3일부터 공급중단 日 미쓰비시중공업, 보다 안전한 원자로 개발 착수 일본제철, 아르셀로미탈과 손잡고 인도 철강 생산 확대에 74억달러 투자 G-Ship Story 대선조선, 수은으로부터 RG 발급 받았다…6500만달러 상당 대우조선해양, 건조 중인 LNG선 화물창 실시간 관리한다 현대글로비스, 물류부터 해운까지 新사업 착착...지배구조 개편 신호탄 G-Military 폴란드, SNT모티브 K4 고속유탄기관총 구매 공식 발표…지상군 화력강화 美, 濠와 공기흡입식 극초음속 미사일 공동개발 루마니아, 한국의 K9자주포와 K2흑표전차 구매 희망 미래의 한류 스타 내로라하는 국내외 유명 안무가 총출동…춤의 진수 선보인다 양소영, 저돌적 추진력과 가공할 연습량 소지한 연기자…연기는 난생처럼 '잘하고 싶은 일' 봉다룬, 판소리·현대무용 연기에 심취…항상 목말라하는 공연계의 '히딩크' 오늘의 주요뉴스 크레딧스위스 CDS 치솟고 주가 폭락 삼성전자, 테슬라에 공급될 반도체 놓고 TSMC와 격돌…TSMC에 물... 日 엔화, 달러당 145엔 돌파…이전 개입 수준에 근접 [초점] 중국, 'AI굴기' 가시화…인재교육·재정지원 강화 일본맥도널드, 7일부터 전매장 종이 빨대·목재 식기 순차 도입 Hot 포토 김보라, '핀란드 파파' 여주인공 발탁…김우석과 호흡 블랙핑크 케이팝 최초 '빌보드 200' 메인 1위 석권 아이유·수지, 수해복구 성금 1억원씩 기부 우주소녀 '엠카' 출격…'라스트 시퀀스' 무대 많이 본 기사 1 엘에리안 "각국 중앙은행 금리인상 중단기대는 헛된 꿈" 2 ‘수수료 장사’ 은행·증권사 5년간 접대비 1.6조원 지출 3 美경기침체 우려는 호재?···원·달러 환율 1420원대로 진정 4 금감원, 금융사고 예방 내부통제 개선···명령휴가제 의무화 5 양정숙 의원 "금융지주, 수익구조 개선보다 예대마진으로 이익 극대화" 글로벌 슈퍼리치 제프 베조스 전처 매켄지 스콧, 756억원 상당 비벌리힐스 저택 자선단체에 기부 할리우드 스타 소피아 베르가라, 비벌리힐스 맨션 257억원에 매각 예정 프로골퍼 비제이 싱, 300억 원 상당 하와이 저택 매각 예정 카메론 디아즈x벤지 메이든 커플, 몬테시토 맨션 1267만 달러에 구입 리얼시승기 아이오닉6 "수려한 디자인에 잘 다듬어진 주행성능 갖춰" 기아 셀토스 부분변경 "이미 완벽한데, 더 좋아졌네?" 벤츠 C200 4매틱 "젊어진 S클래스" 포르쉐 마칸 GTS "강렬한 존재감에 도로위 시선 집중" 금융 실시간 뉴스 5분전 수협은행, 'Sh플러스알파적금×찐카드' 리워드 이벤트 실시 美경기침체 우려는 호재?···원·달러 환율 1420원대로 진정 신보 '공동 프로젝트 보증' 지원···반도체 건설업 경쟁력 강화 2시간전 기보, 투자연계보증 확대 등 벤처투자시장 활성화 기여 안심전환대출, 6일부터 주택가 4억 이하로 확대 시행 권준학 농협은행장, 금융사고예방 위한 내부통제 점검 실시 22시간전 은행권 장애인 의무고용 소홀···토스뱅크 '전무(全無)' 양정숙 의원 "금융지주, 수익구조 개선보다 예대마진으로 이익 극대화" 글로벌이코노믹 패밀리 사이트 온타임즈 글로벌모터즈 신문사소개 윤리강령 기사제보 광고문의 이메일무단수집거부 개인정보취급방침 청소년보호 및 고충처리인 불편신고 (우)04004 서울특별시 마포구 월드컵로62 서교동 한림빌딩 2층 (주)그린미디어 | 제호 : 글로벌이코노믹 | 대표전화 : 02-323-7474 등록번호 : 서울 아 02232 | 등록·발행일자 : 2012년 8월 9일 | 발행·편집인 : 박형준 | 편집국장 : 진성기 | 청소년보호책임자 : 이인수 글로벌이코노믹을 통해 제공되는 모든 콘텐츠(기사 및 사진)를 무단 사용·복사·배포시 저작권법에 저촉되며, 법적 제재를 받을 수 있습니다. Copyright © 2011 글로벌이코노믹. All rights reserved. mail to webmaster@g-enews.com</t>
+    <t>제주도관광협회, '도내 영세관광사업체 경쟁력 강화 지원사업' 추진 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 14:46 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회, '도내 영세관광사업체 경쟁력 강화 지원사업' 추진 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도관광협회, '도내 영세관광사업체 경쟁력 강화 지원사업' 추진 이창준 기자 headlinejeju@headlinejeju.co.kr 승인 2021.06.10 11:11 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도관광협회(회장 부동석)는 제주특별자치도와 함께 제주관광 안전 이미지를 향상시키고자 '도내 영세관광사업체 경쟁력 강화 지원사업'을 추진한다고 10일 밝혔다. '도내 영세관광사업체 경쟁력 강화 지원사업'은 코로나19 방역과 안전에 대한 국민적 관심이 높아지고, 제주 관광객 규모가 코로나 상황 이전으로 회복되어 많은 관광객들이 제주를 찾을 것으로 예상됨에 따라 안전한 제주관광 환경을 조성하기 위해 추진된 사업이다. 도내 관광사업체의 경영환경 개선 및 지원을 위해 필요 물품의 구매비를 70%까지 지원한다. 지원 물품으로 소화기, 구급함, 심장제세동기 등 안전 장비와 체온측정기, 여행안내송수신기 등 서비스 장비다. 보다 자세한 사항은 협회 홈페이지(www.visitjeju.or.kr)-공지사항에서 확인 가능하다. 제주도관광협회 관계자는 "도내 코로나19 확진자 수가 증가함에 따라 관광객들이 안전하게 여행할 수 있도록 방역에 만전을 기하겠다.업계를 지원할 사업도 지속적으로 발굴해 나가겠다"고 밝혔다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 이창준 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주 병설유치원 매운급식 논란..."아이들이 밥을 못 먹어" 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 3 서귀포시, 2022년 교통유발부담금 21억원 부과 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 7 세상을 웃게 만드는 친절 8 제주시, 하반기 사무관 승진의결자 6명 승진 임용 9 서귀포시, 사무관 승진의결자 8명 승진임용 10 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 1 안녕하세요 2 네 3 네 4 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 5 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 6 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 7 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 8 지역발전의 초석이 되었으면 한다 9 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 10 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>광양시관광협의회, 제주도여행사 등과 맺은 MOU 성과 가시화 &lt; 국내 &lt; 여행/레저 &lt; 기사본문 - 디스커버리뉴스(DISCOVERYNEWS) 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 버튼 뉴스 여행/레저 국내 해외 골프 경제 숙박/교통 항공 열차 자동차 크루즈 호텔 리조트 사회 라이프 기획 문화 포토 포토 영상 기사검색 검색 로그인 회원가입 Updated2022-10-11 14:55 (화) 기사제보 독자투고 광고문의 본문영역 이전 기사보기 다음 기사보기 광양시관광협의회, 제주도여행사 등과 맺은 MOU 성과 가시화 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 여행/레저 국내 광양시관광협의회, 제주도여행사 등과 맺은 MOU 성과 가시화 기자명 정기환 기자 입력 2021.06.02 11:34 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 - MOU 체결 참석자 6명 포함한 제주도 여행객, 1박 2일 광양투어 참가 [디스커버리뉴스=정기환 기자] 광양시관광협의회가 제주특별자치도 여행사, 국내여행안내사협회 등과 맺은 MOU 성과가 가시화되고 있다. 지난 5월 말, MOU 체결에 참석했던 6명을 포함한 제주도 여행객 16명이 1박 2일 일정으로 광양을 여행했다. 이번 일정은 광양 9경 9미를 중심으로 순천, 남해 등 전남 동부권과 남해안남중권협의회에 속해 있는 시군과 연계해 구성됐다. 여행자들은 망덕포구, 이순신대교, 구봉산전망대, 서천꽃길, 느랭이골자연휴양림 등 광양 대표 관광지를 둘러보고 광양불고기, 닭숯불구이 등 광양의 맛을 한껏 즐겼다. 또한, 광양기정떡, 김부각 등 광양의 특산품 구매 기회도 놓치지 않았다. 한 참가자는 “1년에 한 번씩은 반드시 딸과 여행하는데, 지난 광양여행이 인상적이어서 딸과 꼭 다시 오고 싶었다”고 밝혔다. 이어 “혼자만 먹기엔 아까웠던 광양음식을 딸과 함께 먹을 수 있어 흐뭇했다”며, “친절한 안내와 함께 진행됐던 뜻깊고 행복한 여행이었다”고 덧붙였다. 박순기 관광과장은 “작년 제주특별자치도 여행사 등과 맺은 업무협약이 서서히 결실을 맺고 있다”며, “코로나가 진정되고 여행이 다시 활발해지면 그 성과는 더욱 커질 것이다”고 말했다. 광양시관광협의회는 관광사업자, 관광 관련 사업자와 단체, 시민단체 및 시민 등이 지속 가능한 지역관광 활성화를 위해 참여하는 비영리 민간 주도 협의체로, 민관협력 거버넌스 체제로 운영된다. 지난해 10월, 발기인대회와 창립총회를 거쳐, 올 1월부터 본격 운영되고 있으며 문체부‘지역관광 추진조직(DMO) 육성지원’ 공모사업에 선정되는 등 실행역량을 확대하고 있다. 또한, 제주특별자치도 여행사, 국내여행안내사협회 등과 네트워크 구축을 위해 맺은 MOU에 이어 호남대, 전남대 등의 대학과 스마트관광 플랫폼 운영인력 양성을 위한 협약을 맺는 등 다각적인 노력을 기울이고 있다. 정기환 기자 jeong9200@gmail.com 다른기사 보기 저작권자 © 디스커버리뉴스(DISCOVERYNEWS) 무단전재 및 재배포 금지 개의 댓글 회원로그인 댓글 내용입력 0 / 400 등록 댓글 정렬 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 종로구 삼일대로 461 (운현궁 SK 허브) 102동 312호 대표전화 : ☎ 070-7706-9365 (주중18시까지/토,일휴무), 070-7706-9354 팩스 : 02-749-3207 법인명 : 미디어썬 제호 : 디스커버리뉴스(DISCOVERYNEWS) 등록번호 : 서울. 아02715 등록일 : 2013-07-02 발행일 : 2013-07-10 발행·편집인 : 강성덕 편집 부국장 : 정기환 부사장 : 이명수 청소년보호책임자 : 임영규 문의 및 보도자료 : jeong9200@discoverynews.kr 디스커버리뉴스(DISCOVERYNEWS) 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 디스커버리뉴스(DISCOVERYNEWS). All rights reserved. 위로 전체메뉴 전체기사 뉴스 여행/레저 전체 국내 해외 골프 경제 숙박/교통 전체 항공 열차 자동차 크루즈 호텔 리조트 사회 라이프 포토 전체 포토 영상 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>광양시관광협의회, 제주도여행사 등과 맺은 MOU 성과 가시화 | 위키트리 위키트리 사회 menu clear 경제 일반 산업 전자 자동차 IT·통신·게임 에너지·화학 조선·철강·중공업 항공·물류 건설·부동산 유통 금융·증권 제약·바이오 엔터 방송 셀럽 라이프 일반 리빙 푸드 패션뷰티 게임 동물 건강 스포츠 사회 일반 교육 정치 문화 일반 영화 음악 월드 토픽 한류 지역취재본부 전체 부산경남 경기북부 광주전남 경북동부 대구경북 전북 세종대전충청 베스트클릭 제보 경제 엔터 라이프 스포츠 사회 정치 문화 월드 지역취재본부 검색 광양시관광협의회, 제주도여행사 등과 맺은 MOU 성과 가시화 2021-06-03 06:37 add remove print link MOU 체결 참석자 6명 포함한 제주도 여행객, 1박 2일 광양투어 참가 광양시관광협의회가 제주특별자치도 여행사, 국내여행안내사협회 등과 맺은 MOU 성과가 가시화되고 있다. 지난 5월 말, MOU 체결에 참석했던 6명을 포함한 제주도 여행객 16명이 1박 2일 일정으로 광양을 여행했다. 이번 일정은 광양 9경 9미를 중심으로 순천, 남해 등 전남 동부권과 남해안남중권협의회에 속해 있는 시군과 연계해 구성됐다. 여행자들은 망덕포구, 이순신대교, 구봉산전망대, 서천꽃길, 느랭이골자연휴양림 등 광양 대표 관광지를 둘러보고 광양불고기, 닭숯불구이 등 광양의 맛을 한껏 즐겼다. 또한, 광양기정떡, 김부각 등 광양의 특산품 구매 기회도 놓치지 않았다. 한 참가자는 “1년에 한 번씩은 반드시 딸과 여행하는데, 지난 광양여행이 인상적이어서 딸과 꼭 다시 오고 싶었다”고 밝혔다. 이어 “혼자만 먹기엔 아까웠던 광양음식을 딸과 함께 먹을 수 있어 흐뭇했다”며, “친절한 안내와 함께 진행됐던 뜻깊고 행복한 여행이었다”고 덧붙였다. 박순기 관광과장은 “작년 제주특별자치도 여행사 등과 맺은 업무협약이 서서히 결실을 맺고 있다”며, “코로나가 진정되고 여행이 다시 활발해지면 그 성과는 더욱 커질 것이다”고 말했다. 광양시관광협의회는 관광사업자, 관광 관련 사업자와 단체, 시민단체 및 시민 등이 지속 가능한 지역관광 활성화를 위해 참여하는 비영리 민간 주도 협의체로, 민관협력 거버넌스 체제로 운영된다. 지난해 10월, 발기인대회와 창립총회를 거쳐, 올 1월부터 본격 운영되고 있으며 문체부‘지역관광 추진조직(DMO) 육성지원’ 공모사업에 선정되는 등 실행역량을 확대하고 있다. 또한, 제주특별자치도 여행사, 국내여행안내사협회 등과 네트워크 구축을 위해 맺은 MOU에 이어 호남대, 전남대 등의 대학과 스마트관광 플랫폼 운영인력 양성을 위한 협약을 맺는 등 다각적인 노력을 기울이고 있다. 광양시관광협의회 제주특별자치도 여행사 국내여행안내사협회 home 노해섭 기자 nogary@wikitree.co.kr 기사제보 copyright '위키트리'라는 출처를 표시하는 경우에 한하여, 누구라도 위키트리 컨텐츠를 제한 없이 이용할 수 있습니다. 위키트리는 뉴스 스토리텔링 가이드라인을 엄격히 준수합니다. 서브 콘텐츠 영역 WIKITREE TV 네이티브 광고 베스트 베스트 클릭 푸터 메뉴 keyboard_arrow_down WIKITREE HOME PAGE TAGSHOP 제보 파운데이션 COMPANY SOCIAL AD SERVICE WIKITREE NOW RECRUIT VERTICAL 펫 오늘은머니 새모네모 뉴스마켓 바바바 SITE 약관 및 운영원칙 개인정보취급방침 청소년보호정책 사이트맵 서울시 마포구 성암로 189 (상암동, K-biz DMC타워) 13층 (주)소셜뉴스 | 02-3789-8900 | 등록번호: 서울 아 01019 | 등록일자: 2009. 11. 10 최초 발행일: 2010. 02. 02 | 발행인 · 편집인 : 이원호 | 편집국장 : 서기찬 | 청소년 보호 책임자 : 손기영 크리에이티브커먼즈 저작자표시-동일조건변경허락 2.0에 따라 이용하실수 있습니다. © Social News Co., Ltd. All Right Reserved. 위키트리 페이스북 위키트리 트위터 위키트리 인스타그램 위키트리 유튜브 위키트리 인스타그램</t>
+  </si>
+  <si>
+    <t>[인터뷰] 원창묵 원주시장 “제주도 넘어서는 관광 제일 도시 만들 것” - 이뉴스투데이 × 전체기사 금융 전체 정책·일반 금융공기업 은행 증권 보험 여신 산업 전체 정책·일반 재계 건설·부동산 자동차·항공·철도 조선·해운·철강 에너지·정유·화학 중기·벤처 IT과학 전체 정책·일반 전기·전자 정보통신 게임·방송 소프트웨어·보안 의료·제약 블록체인·암호화폐 스타트업라운지 생활경제 전체 정책·일반 유통소비자 여행레저 뷰티패션 정치사회 전체 정치 사회 국제 윤석열정부 D+@ 문재인정부D+@ 기획 전체 소문e답 신상e후 솔Car말 e분양 주말e여행 주말e영화 신박한 車담 이츠스토리 상권뽀개기 기타 기획 교육문화 전체 교육 문화 연예 스포츠 오피니언 전체 e사람 기자수첩 칼럼 기고 피플 전체 인사 부고 동정 전국 전체 수도권취재본부 경기취재본부 인천취재본부 충청취재본부 충북취재본부 대전세종취재본부 전북취재본부 광주전남취재본부 강원취재본부 대구경북취재본부 부산경남취재본부 기타 포토 이뉴스TV 전체 씨카고 이츠스토리 육갑박살 콕e영상 위클리e뉴스 기타영상 보도자료 최종편집 : 2022-10-11 14:31 (화) 검색어를 입력해주세요. 검색 독서신문·Readersnews 이뉴스TV 에이원뉴스 전체 금융 정책·일반 금융공기업 은행 증권 보험 여신 산업 정책·일반 재계 건설·부동산 자동차·항공·철도 조선·해운·철강 에너지·정유·화학 중기·벤처 IT과학 정책·일반 전기·전자 정보통신 게임·방송 소프트웨어·보안 의료·제약 블록체인·암호화폐 스타트업라운지 생활경제 정책·일반 유통소비자 여행레저 뷰티패션 정치사회 정치 사회 국제 윤석열정부 D+@ 문재인정부D+@ 기획 소문e답 신상e후 솔Car말 e분양 주말e여행 주말e영화 신박한 車담 이츠스토리 상권뽀개기 기타 기획 교육문화 교육 문화 연예 스포츠 오피니언 e사람 기자수첩 칼럼 기고 피플 인사 부고 동정 전국 수도권취재본부 경기취재본부 인천취재본부 충청취재본부 충북취재본부 대전세종취재본부 전북취재본부 광주전남취재본부 강원취재본부 대구경북취재본부 부산경남취재본부 기타 포토 이뉴스TV 씨카고 이츠스토리 육갑박살 콕e영상 위클리e뉴스 기타영상 보도자료 기획 뉴스 영상 이전 다음 [인터뷰] 원창묵 원주시장 “제주도 넘어서는 관광 제일 도시 만들 것” 페이스북 트위터 카카오톡 URL복사 기사공유하기 상태바 HOME 전국 강원취재본부 [인터뷰] 원창묵 원주시장 “제주도 넘어서는 관광 제일 도시 만들 것” 1400억 투입 간현관광지 종합개발사업 올해 마무리 인구 100만 광역시 기틀 임기 내 마련 캠프롱에 국립과학관‧시립미술관 등 조성 우정연 기자 승인 2021.06.02 08:01 댓글 0 페이스북 트위터 카카오톡 URL복사 기사공유하기 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × [편집자주] 신종 코로나바이러스 감염증(코로나19)을 기점으로 경제, 문화, 교육, 복지, 관광 등 많은 분야에서 변화가 가속화되고 있다. 민선 7기 1년을 남겨둔 강원지역 지자체장들을 만나 그동안의 성과와 현재, 앞으로 지역이 나아갈 길에 대해 들어봤다. 질문에 답하는 원창묵 원주시장. [이뉴스투데이 강원취재본부 우정연 기자] 원창묵 원주시장은 3선 시장으로 지난 11년간 ‘관광 제일 도시 원주’를 목표로 괄목할만한 성장세를 이뤄왔다. 원 시장은 “수도권에서 40분대 진입이 가능한 원주는 간현관광지 종합개발사업과 폐철도를 활용한 치악산 바람길숲, 반곡~금대 관광지 조성사업 등이 마무리되면 제주도를 넘어서는 관광도시가 될 것”이라고 말했다. 이어 “여주~원주 복선 전철 연장과 관광 개발사업, 걸어서 5분 거리 공원 조성 등 일자리 확충과 정주 환경을 개선해 인구 100만 광역시를 만들기 위한 기틀을 임기 내에 마련하겠다”고 덧붙였다. 그는 폐철도를 활용해 관광열차를 만들고 옛 미군기지 캠프롱 터에 생명의료 테마의 전문 국립과학관, 시립미술관 건립 등을 통해 일자리 창출과 관광객 유입 효과를 기대하고 있다. 다음은 원 시장과의 일문일답. - 민선 7기 3년의 주요 성과와 남은 과제는. 민선 5기 초선 시장 때부터 기획하고 구상했던 사업들이 하나둘씩 결실을 보고 있다. 특히 지난해는 코로나19 등 위기상황을 겪으면서도 많은 성과를 이룬 한 해였다. 우선 서울 강남까지 40분대에 도달할 수 있는 여주-원주 복선화 철도 사업이 확정됐다. 이로써 원주는 전국에서 유일하게 고속철도가 복선으로 3개 역에 정차하는 사실상 수도권 도시로 발돋움하게 됐다. 앞으로 산업과 경제·물류의 중심도시가 될 뿐만 아니라 문화‧관광 제일 도시로의 비약적인 성장을 이룰 것이다. 원주 전체를 관광지로 만드는 프로젝트를 진행 중이다. 지난 2018년 개통한 소금산 출렁다리는 현재까지 280만이 찾으며 지역 대표 관광지로 급부상했다. 간현관광지를 전국 최고명품 관광단지로 업그레이드하기 위한 개발 공사가 한창이다. ‘소금산 스카이밸리’로 케이블카와 하늘정원, 음악분수, 유리다리, 전망대, 잔도, 에스컬레이터, 미디어 사파이어 등이 추가로 설치된다. 반곡~금대 지구 관광 활성화 사업을 통해 중앙선 폐선로 부지와 판부면 금대리 일원을 관광명소로 개발 중이다. 파빌리온, 플라워가든, 4D 관광열차, 똬리굴 테마 관광시설, 슈퍼트리, 하늘 전망대 등을 조성할 계획이다. 원주시를 중부내륙의 문화예술 거점도시로 만들기 위한 캠프롱 일대 문화체육공원 조성사업이 남아있다. 2019년 옛 미군기지 캠프롱 부지 반환 결정 후 지난해 국립전문과학관 건립이 확정됐고 올해 시립미술관 건립이 문체부 최종심의 통과라는 성과를 거뒀다. 가족 단위 관광객이 맘껏 즐길 수 있는 과학관과 미술관 등을 포함한 문화예술 허브로 대한민국에서 가장 특색 있는 문화 체육공원으로 만들겠다. 1400억원이 투입되는 정지뜰 호수공원이 전액 국책사업으로 확정됐고 디지털 헬스케어의 전진기지 역할을 할 부론 국가산업단지 후보지 지정과 기본설계 및 타당성 용역을 진행 중이다. 원주천 댐이 착공에 들어갔고 1군사령부 부지 4만㎡와 국군병원 터 10만㎡도 시민에게 환원됐으며 군부지 120만㎡에 대한 정부 도시개발도 확정됐다. 이 외에도 유네스코 문학 창의도시 가입 및 법정 문화도시 선정, 학성동‧중앙동･봉산동 도시재생사업 선정, 400km의 원주 굽잇길‧140km 치악산 둘레길 전 구간 개통과 무실~만종 간 서부순환도로 개통, 단계천 생태하천 복원사업 착공, 정부 농촌협약 공모사업(300억) 선정 등 시민 생활에 변화를 가져올 여러 성과가 있었다. - 달라진 관광, 문화 등에 맞춰 준비하는 정책은. 코로나19로 인해 ‘비대면’이 일상이 되면서 여행 및 관광업계는 침체의 늪에서 벗어나지 못하고 있지만 붐비지 않는 탁 트인 공간을 찾아다니는 가족 단위 관광객이 많아 새로운 도약을 할 수 있을 것이라 본다. 도보여행이 가능한 원주 굽잇길과 치악산 둘레길을 전면 개통했다. 굽잇길 400km와 둘레길 130km, 총연장 530km로 코스마다 즐길 거리가 달라 자연 속에서 힐링하며 걷다 보면 살아 숨 쉬는 원주의 역사와 문화까지 만날 수 있다. 전국에서 단 한 곳만 선정하는 국립전문과학관 공모에 선정되면서 군사시설이었던 옛 캠프롱 부지에 생명‧의료를 테마로 하는 과학관을 건립할 수 있게 됐다. 수십 년간 자연이 만든 울창한 숲이 있어 수목원같이 드넓은 부지에서 아이들이 마음껏 뛰놀며 과학적 상상력을 키워가는 공간으로 만들 예정이다. 시립미술관 역시 설립 타당성 최종평가를 통과했다. 캠프롱의 잘 보존된 숲을 적극적으로 활용, 미술 작품을 조화롭게 배치하고 휴식공간을 함께 조성해 포스트 코로나 시대에 안심할 수 있는 야외놀이터로 꾸미겠다. 중앙근린공원 1, 2구역에 이어 가현동 국군병원 터에 체육공원 등이 생기는 2023년이면 원주지역 공원 면적은 국내에서 가장 많은 도시가 된다. - 간현관광지 종합개발사업이 마무리되면 어떤 변화가 있는지. 1400억원이 투입된 간현관광지 종합개발사업이 연말까지 마무리되면 일 년 내내 주야간 언제든 즐길 수 있는 가족 단위 체험형 관광지로 새롭게 탄생한다. 연간 200만 명 이상 찾는 제주도 부럽지 않은 여행지가 될 것으로 기대한다. 출렁다리가 끝나는 지점에 조성하는 하늘정원과 폭 250m, 높이 70m의 자연 암벽을 스크린 삼아 펼쳐지는 미디어 파사드쇼, 음악분수, 물놀이시설, 글램핑장은 올 상반기 우선 개장할 계획이다. 유리다리와 전망대, 잔도, 데크 산책로도 오는 10~11월이면 준공된다. 통합건축물에는 내수면 생태체험관과 친환경 첨단 그린 스마트센터, 로컬푸드 직매장, 옻‧한지 전시 판매장 등 다양한 시설이 케이블카 탑승장과 함께 들어설 예정이다. 물놀이장을 만들고 야간에 펼쳐지는 미디어파사드와 레이저쇼에 댄싱카니발을 가미한다면 문화도시 원주를 전국에 알려 관광객은 더 늘어날 전망이다. 케이블카 탑승 전후로 로컬푸드 직매장과 식당 등도 이용할 수 있다. - 지역 관광지와 경제 활성화 연계방안은. 치악산 둘레길과 원주 굽잇길, 레일바이크, 뮤지엄 산, 강원감영 등 기존 관광자원과 현재 진행 중인 간현관광지 종합개발사업, 반곡~금대지구 관광 활성화 사업 등 ‘원주형 관광 뉴딜사업’을 연계하면 1박 2일 이상 체류할 수 있는 관광자원이 되기 때문에 지역 경제발전에 큰 도움이 될 것으로 본다. 소금산 스카이밸리의 통합이용권 가격을 3만 원 정도로 책정할 계획이다. 연간 관광객을 약 200만 명으로 예상하기 때문에 입장 인원만으로도 경제 활성화 효과가 매우 클 것으로 예상된다. - 시민에게 하고 싶은 말. 지난 11년간 시민 성원으로 원주 발전을 위한 많은 일을 해냈다. 앞으로 추진할 사업도 시민들의 협조 없이는 어렵다. 국군병원 부지나 산현리 자작나무 수목원 등은 마을과 긴밀한 협조가 이뤄져야 한다. 지난달 개통한 치악산 둘레길을 시민들이 함께 가꿔주길 당부한다. 140km에 달해 행정이 나서 하나하나 관리하기에는 한계가 있다. 치악산 둘레길은 대한민국 최고의 길이다. 전국 마니아들이 찾는 ‘걷기 성지’가 되도록 SNS 등을 통한 홍보에 동참해 달라. 끝으로 3월부터 시작된 코로나19 백신 접종이 순조롭게 진행되고 있다. 오는 7월부터는 일반 시민을 대상으로 백신 접종에 돌입하는 만큼, 집단면역 형성을 통한 일상회복을 위해 시민들의 적극적인 동참 바란다. 앞으로도 감염병 예방을 최우선 과제로 삼고 역점사업을 완성하기 위해 최선을 다하겠다. Tag #원창묵 #원주시장 #관광 #제일 #도시 저작권자 © 이뉴스투데이 무단전재 및 재배포 금지 우정연 기자 wooj2705@naver.com 다른기사 보기 페이스북 트위터 카카오톡 URL복사 기사공유하기 [[ARTICLEREPLY]] 주요기사 산청군, 주민등록 사실조사 실시... 12월 30일까지 진행 산청군, 주민등록 사실조사 실시... 12월 30일까지 진행 화성시 ‘베트남 하이브리드 시장개척단’, 4300만불 수출상담 성공 화성시 ‘베트남 하이브리드 시장개척단’, 4300만불 수출상담 성공 웰컴저축은행, 정기예금 금리 최고 4.45%로 인상 웰컴저축은행, 정기예금 금리 최고 4.45%로 인상 산청군, 농업소득증대사업 신청·접수 산청군, 농업소득증대사업 신청·접수 토스플레이스, 7인치 터치 디스플레이 단말기 최초 공개 토스플레이스, 7인치 터치 디스플레이 단말기 최초 공개 화성시, ‘2022 화성 반려문화 축제’ 10월 15일 개최 화성시, ‘2022 화성 반려문화 축제’ 10월 15일 개최 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 비회원 글쓰기 계정인증을 통해 댓글을 남기실 수 있습니다. 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 인기뉴스 1김정은, 尹 ‘담대한 구상’ 일축…핵실험 강행 예고 2‘타다 금지법’ 뒤집은 국토부…“타다조차 외면” 3‘킹달러’ 직격탄…철강·해운업계 비상 4방탄소년단 부산 콘서트 특수에 숙박·유통업계도 ‘방긋’ 5[알쓸금융] 왜 1개월 만기 적금은 없을까? 6반도체 생태계 강화 나선 삼성·SK하이닉스…중소 지원해 자생력 키운다 최신뉴스 1산청군, 주민등록 사실조사 실시... 12월 30일까지 진행 2화성시 ‘베트남 하이브리드 시장개척단’, 4300만불 수출상담 성공 3웰컴저축은행, 정기예금 금리 최고 4.45%로 인상 4산청군, 농업소득증대사업 신청·접수 5토스플레이스, 7인치 터치 디스플레이 단말기 최초 공개 매체소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS top 서울특별시 서초구 논현로31길 14 (서울미디어빌딩) 대표전화 : 02-523-8541 팩스 : 02-522-6725 청소년보호책임자 : 김봉연 법인명 : (주)서울미디어그룹 제호 : 이뉴스투데이 등록번호 : 서울 아 00339 등록일 : 2007-03-20 발행일 : 2005-05-23 발행인 : 방재홍 편집인 : 방두철 ⌜열린보도원칙⌟ 당 매체는 독자와 취재원 등 뉴스 이용자의 권리 보장을 위해 반론이나 정정보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다. 고충처리인 김봉연 070-4699-7210 tongno@enewstoday.co.kr 이뉴스투데이 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 이뉴스투데이. All rights reserved. mail to webmaster@enewstoday.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 영세관광사업체 경쟁력 강화 지원 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 14:55 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 제주경찰, 찾아가는 가해자 교화 프로그램 운영 제주경찰, 찾아가는 가해자 교화 프로그램 운영 제주경찰청(청장 이상률)은 11일부터 '찾아가는 가해자 교화 프로그램'을 운영한다.찾아가는 가해자 교화 프로그램은 경찰서 유치장에 유치된 '고위험군 여성폭력 ... SNS P  D  F 지면보기 이전 다음 제주도관광협회, 영세관광사업체 경쟁력 강화 지원 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 경제 경제일반 제주도관광협회, 영세관광사업체 경쟁력 강화 지원 김지우 기자 승인 2021.06.10 13:35 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주특별자치도와 제주도관광협회(회장 부동석)는 위드 코로나 시대 제주관광 안전 이미지 제고를 위한 도내 영세관광사업체 경쟁력 강화 지원사업을 추진한다고 10일 밝혔다. 지원 물품은 소화기와 구급함, 심장제세동기, 체온측정기, 여행안내송수신기 등 경영환경 개선을 위해 필요한 물품으로 구매비의 70%까지 지원한다. 도관광협회 관계자는 “도내 코로나19 확진자 수가 증가함에 따라 관광객들이 안전하게 여행할 수 있도록 방역에 만전을 기하겠다”며 “업계를 지원할 사업도 지속적으로 발굴해 나가겠다”고 밝혔다. 김지우 기자  jibregas@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 김지우 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주선수단, 전국체육대회 메달 목표 달성 3제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 10제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+  </si>
+  <si>
+    <t>여름방학 휴가철 맞아 제주도 찾는 관광객 급증... 지역감염 확산 우려 속에 예방접종 완료자도 실외 노마스크 안돼 - CIVICNEWS(시빅뉴스) × 전체기사 뉴스 전체 정치 경제 사회 문화 스포츠 국제 교육 미디어 사람&amp; 시빅다이제스트 지자체 소식 취재수첩 기획 전체 저널리즘 세계-한국 언론 이슈 톺아보기 김민남의 생각이 멈추는 곳 장원호 박사의 그리운 대한민국 박창희 변리사의 특별한 특허 이야기 김선환 샘의 대학입시/진로진학 결정적 코치 나의 버킷리스트 시빅뉴스의 일요 터치 핫플레이스 이철우 교수의 에너지와 국제정치 북녘말 남녘말 글로벌 탐방 황령산칼럼 전체 박기철 칼럼 송문석 칼럼 정태철 칼럼 차용범 칼럼 진재운 칼럼 박창희 칼럼 권만우 칼럼 오피니언 전체 시빅칼럼 시빅광장 시빅건강칼럼 카드뉴스 전체 카드뉴스 포토뉴스 동영상 전체 줌인 시빅TV 콘텐츠 DB 전체 스트레이트 르뽀 캠퍼스 화이트보드 어른들이 모르는 비행 청소년의 세계 news roundup 문화올레길 051FM 11X 시비빅 라이브 강동수의 자투리 시사인문 장원호의 50달러 미국유학 조나단의 상상이상 시 한 모금, 말 한 모금 삿포로 도시 브랜드 이야기 부산의 현대인물을 찾아서 시빅드론 정해영의 법률산책 문진우의 사진이야기 서창덕의 영성기행 김윤환의 책과 사람 아이 러브 펫 강성보 칼럼 양혜승 칼럼 이광우 칼럼 UPDATED. 2022-10-10 19:39 (월) 로그인 회원가입 모바일웹 tiwt facebook naver youtube 모바일웹 전체 뉴스 정치 경제 사회 문화 스포츠 국제 교육 미디어 사람&amp; 시빅다이제스트 지자체 소식 취재수첩 기획 저널리즘 세계-한국 언론 이슈 톺아보기 김민남의 생각이 멈추는 곳 장원호 박사의 그리운 대한민국 박창희 변리사의 특별한 특허 이야기 김선환 샘의 대학입시/진로진학 결정적 코치 나의 버킷리스트 시빅뉴스의 일요 터치 핫플레이스 황령산칼럼 박기철 칼럼 송문석 칼럼 정태철 칼럼 차용범 칼럼 진재운 칼럼 박창희 칼럼 오피니언 시빅광장 시빅건강칼럼 시빅칼럼 카드뉴스 카드뉴스 포토뉴스 동영상 줌인 시빅TV 콘텐츠 DB 스트레이트 르뽀 캠퍼스 화이트보드 어른들이 모르는 비행 청소년의 세계 문화올레길 051FM 11X 시비빅 라이브 강동수의 자투리 시사인문 장원호의 50달러 미국유학 조나단의 상상이상 시 한 모금, 말 한 모금 삿포로 도시 브랜드 이야기 부산의 현대인물을 찾아서 시빅드론 정해영의 법률산책 문진우의 사진이야기 서창덕의 영성기행 김윤환의 책과 사람 아이 러브 펫 강성보 칼럼 양혜승 칼럼 이광우 칼럼 기사검색 검색 뉴스 정치 경제 사회 문화 스포츠 국제 교육 미디어 사람&amp; 시빅다이제스트 지자체 소식 취재수첩 기획 저널리즘 세계-한국 언론 이슈 톺아보기 김민남의 생각이 멈추는 곳 장원호 박사의 그리운 대한민국 박창희 변리사의 특별한 특허 이야기 김선환 샘의 대학입시/진로진학 결정적 코치 나의 버킷리스트 시빅뉴스의 일요 터치 핫플레이스 황령산칼럼 박기철 칼럼 송문석 칼럼 정태철 칼럼 차용범 칼럼 진재운 칼럼 박창희 칼럼 오피니언 시빅광장 시빅건강칼럼 시빅칼럼 카드뉴스 카드뉴스 포토뉴스 동영상 줌인 시빅TV 콘텐츠 DB 스트레이트 르뽀 캠퍼스 화이트보드 어른들이 모르는 비행 청소년의 세계 문화올레길 051FM 11X 시비빅 라이브 강동수의 자투리 시사인문 장원호의 50달러 미국유학 조나단의 상상이상 시 한 모금, 말 한 모금 삿포로 도시 브랜드 이야기 부산의 현대인물을 찾아서 시빅드론 정해영의 법률산책 문진우의 사진이야기 서창덕의 영성기행 김윤환의 책과 사람 아이 러브 펫 강성보 칼럼 양혜승 칼럼 이광우 칼럼 이전 다음 여름방학 휴가철 맞아 제주도 찾는 관광객 급증... 지역감염 확산 우려 속에 예방접종 완료자도 실외 노마스크 안돼 페이스북 트위터 카카오스토리 기사공유하기 상태바 HOME 뉴스 사회 여름방학 휴가철 맞아 제주도 찾는 관광객 급증... 지역감염 확산 우려 속에 예방접종 완료자도 실외 노마스크 안돼 취재기자 성민주 승인 2021.06.29 17:10 댓글 0 페이스북 트위터 카카오스토리 기사공유하기 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 올해 지난 28일까지 539만 명이 넘는 내국인 관광객이 제주도 방문해 시민들 “방역수칙만 잘 지키면, 사회적 피로 풀기엔 제주 여행이 최적” 지난 28일 관광객 등 외부 요인으로 제주지역 6명의 추가 확진자 발생 변이 바이러스 확진자도 증가...오는 8월까지 마스크 착용 의무화 유지 제주도를 찾은 한 관광객이 여행 가방을 끌고 걸어가고 있다. 코로나19 사회적 피로를 풀기 위해 제주도 여행을 찾는 관광객이 증가하고 있다(사진: pixabay 무료 이미지). 사회적 거리두기가 완화되지 않았지만, 제주지역은 코로나19 시대 이전의 관광세를 회복해가고 있다. 여름방학 시즌이 열리면서, 해외여행 대신 제주도를 찾는 관광객들이 증가하면서다. 이에 따라, 관광객이 몰리는 여름철에 지역감염으로 인한 코로나19 재확산에 대한 우려의 목소리가 많다. 작년 1월 제주도행 비행기를 타기 위해 관광객들이 줄을 서서 기다리고 있다. 올해는 작년보다 100만여 명 많은 관광객이 제주도를 방문하고 있다(사진: 취재기자 성민주). 제주도 관광협회의 통계에 따르면, 올해 들어 지난 28일까지 제주를 찾은 내국인 관광객은 539만 명이 넘는다. 지난해 같은 기간 약 349만 명보다 200만 명 정도 더 많은 관광객이 제주를 방문한 수치다. 내국인 기준 일별 통계로는 24일 4만 2045명, 25일 4만 2361명, 26일 4만 340명, 27일 4만 1515명, 28일 3만 9416명 등이 제주를 찾았다. 하루 4만여 명 이상이 제주공항을 통해 들어오고 있다. 실제 최근에 제주도 여행을 갔다 온 시민들의 경험담도 적지 않다. 이들은 해외여행을 사실상 가지 못하는 상황이기 때문에 방역수칙만 잘 지킨다면, 코로나19로 인한 사회적 피로도를 풀기에 제주도가 딱인 국내 여행지라는 입장을 보이고 있다. 권지영(23, 부산시 사하구) 씨는 “제주도 여행을 가고 싶어서 돈을 모아 놨는데, 코로나19 때문에 못 가고 있었지만 지인 인스타만 봐도 이미 여러 명이 제주도에 있어서 이번 기회에 가기로 마음을 먹게 됐다”며 “국내선 비행기에서부터 사람이 정말 많았고 제주도에도 관광객으로 붐볐는데, 사진 찍을 때 말고는 마스크를 벗고 다니는 사람은 딱히 못 봤다”고 말했다. 김다경(22, 울산시 중구) 씨도 “성수기 전에 일찍 갔다 오는 게 더 좋을 것 같아서 최근에 후딱 다녀왔는데, 워터파크 내에서도 사람들이 전부 마스크를 끼는 등 방역수칙을 잘 지키는 것 같았다”며 “방역수칙만 제대로 잘 지킨다면 해외여행도 못 가고 있는 상황에 좋은 것 같고 나도 잠시 갔다 왔지만 가길 정말 잘한 것 같다”고 말했다. 이처럼 사회적 피로를 풀기 위해 제주도를 찾는 입도 관광객이 늘고 있지만, 코로나19 확진자도 추가적으로 계속 늘어나 우려되는 상황이 발생하고 있다. 28일 제주지역에서는 총 981건의 코로나19 진단검사가 진행됐고, 이 가운데 관광객 등 외부 요인으로 6명(제주 1257~1262번)의 확진자가 발생했다. 29일 오전 11시 기준 제주지역 누적 확진자 수는 1262명이다. 하루 새 6명의 확진자가 추가로 나오면서 이달에만 220명이 코로나19 확진 판정을 받았다. 제주시 관계자는 “이달의 신규 확진자 중 21명 정도는 입도객 등 외부 유입으로 인해 코로나19 바이러스가 전파돼 감염된 것으로 추정되는데, 최근 하루 평균 4만 명이 넘는 입도객이 방문하면서 관광객 확진자도 증가하고 있는 것”이라며 “이에 따라 코로나19 취약 시설 138곳을 대상으로 방역실태에 대한 집중점검을 실시했더니 행정처분 1건, 행정지도 5건 등 총 6건의 위반상황을 적발했다”고 밝혔다. 또한 제주지역에서 변이 바이러스 감염 사례 15건도 추가로 확인됐다. 신규 확진자 32.3%가 변이 바이러스 감염으로 추정되는 상황이며, 이를 포함해 변이(알파, 델타) 바이러스 확진자는 누적 104명으로 늘어났다. 관광객 급증에 따른 지역감염 우려로 인해 제주도에서는 마스크 착용을 계속 의무화할 방침이다. 제주특별자치도에 따르면, 정부가 예방접종 완료자 일상회복 지원 방안으로 7월 1일부터 실외에서 마스크를 벗을 수 있도록 허용했지만, 휴가철 입도객 증가와 지역감염 우려 등에 맞춰 제주지역은 오는 8월까지 예방접종 완료자도 실내·외에서 마스크를 벗을 수 없다. 마스크 착용 외에 개편된 1단계 거리두기는 오는 7월 1일부터 2주간 그대로 적용된다. 6명까지 사적모임이 허용되며, 유흥시설·홀덤펍, 식당·카페, 노래연습장, 실내체육시설, 목욕장업, 직접판매홍보관은 밤 10시 이후 영업 제한이 해제돼 사실상 24시간 영업도 가능해진다. 한편, 방역수칙 위반 사업자는 300만 원 이하, 이용자는 10만 원 이하의 과태료가 부과된다. 감염 우려가 높은 경우 개별 사업장에 대해 집합금지 처분도 내려진다. Tag #제주도 #여름철 #휴가 #사회적 피로 #코로나19 #변이 바이러스 #델타 #알파 #제주지역 #관광지 #관광객 #마스크 #노마스크 저작권자 © CIVICNEWS(시빅뉴스) 무단전재 및 재배포 금지 취재기자 성민주 다른기사 보기 페이스북 트위터 카카오스토리 기사공유하기 관련기사 코로나 비웃는 울산 태화강 국가정원의 밤... 삼삼오오 '술판' 벌여 땀 차고 답답한 마스크 벗고 해수욕장 가고 싶지만 코로나가 무서워 실행은 "글쎄" 부산 민락수변공원, 밤마다 야외 술자리로 ‘북적’...수영구청, 18일부터 야간 취식금지 행정명령 발동 20일 ‘거리 두기 개편안' 발표...7월 5일부터 적용 예정 "여기는 술집 안 부럽네!"...젊은이들, 코로나 위험 피해 부산시 온천천으로 몰린다 "7월부터 비수도권은 인원 제한없이 사적 모임도 가능" 부산지역 오늘(24일)부터 일주일간 8인까지 사적모임 허용 해외 유행 ‘델타 플러스’ 변이 바이러스 국내 유입 우려 방역수칙 위반 반복되면 동종 업종 전체 제한 방침 논란... “서로 감시하는 연좌제” vs “코로나19 종식 위해 당연” "사이판 가도 자가격리 없다"...트래블 버블 이용해서 여행가기 3차 대유행 이후 또다시 찾아온 코로나19 확산세... 예방접종자 대상 야외 노마스크 이대로 괜찮을까? '나는 언제쯤 백신 맞을 수 있나?'...7월 백신접종계획 코로나 신규 확진자 700명대...수도권은 조이고 비수도권은 풀고 도쿄 올림픽 무관중으로... 유로 2020에선 '노마스크 응원' 논란 다시 번지는 코로나 4차 유행...근본 대책은 오로지 백신 뿐 서울의 일상이 멈췄다...수도권, 가장 강력한 사회적 거리두기 4단계 적용 "해외여행 못 가서 아쉽죠?"... 영화, 드라마 등 넘어 전시회까지 해외여행 대리만족 문화콘텐츠 인기 시원하고 달달한 음료, 빙과류 소비 많은 여름철 당류 과다 섭취 주의 항공업계 '무착륙 관광비행' 마케팅 성과 거두자 '확대 시행' 추진 '열돔'에 갇힌 한반도...일사병, 열사병 등 '온열질환' 주의보 진화하는 플레이리스트...'휴가때' '밤 산책때' 입맛대로 듣는다 "코로나 3단계 이상땐 위약금 없이 호텔 등 예약 취소 가능" 여름철 해수욕장 물놀이 사고 많아...바닷 속 불청객 '이안류' 주의 "8~9월 벌 쏘임 환자 급증"...여름철 벌 쏘임 사고 안전수칙은? 물놀이 사고 났을 때 직접 구하려 하지 말고 즉시 119에 신고 너도 나도 떠나는 휴가철...터널 사고 발생 시 '행동요령' 가이드 "가고 싶은 여행지 여기 있었네"...영화로 떠나는 '집콕 휴가' 마스크 속 고약한 '입냄새' 제거하는 방법 Best 5 “주인님, 제가 대신 여행 다녀올게요”... 인형이 대신 해외여행 간다 백신 접종하면 유럽, 싱가포르, 태국 등 곧 여행 가능 지방공항 국제선 확대 운영... 이르면 내달부터 단계적 재개 '한-스페인 여행상담회 개최'... 코로나 이후 관광 특화상품 개발 지원키로 [겨울 해안길 코스 4선] ‘만경창파’의 울산 동해안을 가다 방학 맞은 대학생들...‘갓생’은 잠시 미뤄두고 ‘욜로 라이프’ 찾아 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 많이 본 뉴스 1[박기철 칼럼] 포지타노 마을이 매력적인 까닭 2서울서 2030부산세계박람회 ‘X4 쇼케이스’ 개최...전소미 아린 등 X4 멤버의 사인회 열려 32030세대의 돈 모으기법 ‘짠테크’ 열풍... 명절 선물세트 당근마켓에 팔고, 빈 병 모아 술값 보태기도 4부산역서 부산세계시민축제 개최... '세계문화 체험' 기회 5tvN ‘작은 아씨들’ 화제...연출, 배우, 전개 등 흥미로운 요소 가득 6글로벌 창업 축제 ‘COMEUP’ 주요 프로그램 부산에서 열려 7[독자투고] ‘공인중개사 중개 보조원'이 부동산 매물 불법 중개, 이대로 괜찮나 82030인분 비빔밥으로 세계 한인들 부산세계박람회 유치 기원 9[내일(5일) 날씨] 모레(6일)까지 전국 대체로 흐리다 10구독형 서비스 도입한 한글과컴퓨터 ‘한컴독스’ 출시 최신기사 "나만의 메뉴로 승부!"... 대학생 ‘베이커리 크리에이터’의 창업 스토리 "나만의 메뉴로 승부!"... 대학생 ‘베이커리 크리에이터’의 창업 스토리 [송문석 칼럼] 대통령의 언어, 리더의 대화법 [송문석 칼럼] 대통령의 언어, 리더의 대화법 3년 만에 개최되는 ‘제23회 부산 국제관광전’...세줄일기 배준호 대표 만날 수 있어 3년 만에 개최되는 ‘제23회 부산 국제관광전’...세줄일기 배준호 대표 만날 수 있어 영원한 조선의 4번 타자 이대호, 오는 8일 마지막 경기 펼치고 그라운드 떠난다 영원한 조선의 4번 타자 이대호, 오는 8일 마지막 경기 펼치고 그라운드 떠난다 [내일(8일) 날씨] 오늘 저녁까지 순간풍속 매우 강하게 분다 [내일(8일) 날씨] 오늘 저녁까지 순간풍속 매우 강하게 분다 '따닥!' 경쾌한 스트라이크로 스트레스 타파...볼링에 빠진 사람들 '따닥!' 경쾌한 스트라이크로 스트레스 타파...볼링에 빠진 사람들 [내일(7일) 날씨] 전국적으로 구름 많고 일부 지역 비 오는 곳 있겠다 [내일(7일) 날씨] 전국적으로 구름 많고 일부 지역 비 오는 곳 있겠다 매체소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 부산광역시 남구 수영로 309 경성대학교 23호관 301호 대표전화 : 051-663-5129 팩스 : 051-663-5129 법인명 : 시빅뉴스 제호 : CIVICNEWS(시빅뉴스) 등록번호 : 부산 아 00147 등록일 : 최초등록 2013-03-15, 재등록 2016-05-09 사업자 등록번호 : 617-82-12810 대표·발행인 : 권만우 편집인 : 권만우 편집국장 : 송문석 논설주간 : 박창희 CIVICNEWS(시빅뉴스) 모든 콘텐츠(기사, 사진, 영상)는 저작권법의 보호를 받은 바, 무단 전재와 복사 및 배포 등을 금합니다.CIVICNEWS(시빅뉴스)는 사단법인 인터넷신문위원회의 기사 및 광고 부문 자율규약을 준수합니다. Copyright © 2022 CIVICNEWS(시빅뉴스). All rights reserved. mail to civic_news@naver.com 위로</t>
+  </si>
+  <si>
+    <t>카드업계 “제주도 관광객 잡아라”…제주 특화카드 눈길 닫기 Search #글로벌 #시승기 #애플 #삼성전자 #유럽 #카드뉴스 닫기 전체기사 글로벌비즈 종합 금융 증권 산업 ICT 부동산·공기업 유통경제 ESG경영 오피니언 GETV 전체기사 글로벌비즈 미국·북미 중국 일본 아시아·호주 유럽 중남미·중동·아프리카 국제 글로벌CEO 종합 정치 경제 사회 전국 인물동정·인사·부고 기타 금융 은행 보험 카드 제2금융 금융일반 증권 해외증시 시황·전망 해외증시 특징주 해외증시 일반 국내증시 시황·전망 국내증시 특징주 국내증시 일반 암호화폐 산업 경제단체 전기·전자 자동차 중화학 항공·조선 반도체·디스플레이 철강 산업일반 ICT 통신·뉴미디어 IT일반 과학일반 게임 부동산·공기업 건설·부동산 분양 공기업 부동산일반 유통경제 식음료 패션∙뷰티 소비자 제약·바이오 유통일반 생활일반 ESG경영 기업지배구조 ESG일반 오피니언 기고 데스크칼럼 기자수첩 GETV 시승기 증권 메뉴 카드업계 “제주도 관광객 잡아라”…제주 특화카드 눈길 글로벌모터즈 온타임즈 PDF지면보기 English 中文 금융 facebook twitter youtube 검색 메뉴 은행 보험 카드 제2금융 금융일반 공유 0 카드업계 “제주도 관광객 잡아라”…제주 특화카드 눈길 이보라 기자 입력2021-06-27 08:00 카드업계 “제주도 관광객 잡아라”…제주 특화카드 눈길이미지 확대보기올해 제주도를 찾는 관광객 규모가 신종 코로나바이러스 감염증(코로나19) 이전 수준으로 회복하고 있는 가운데 제주도 특화카드에 관심이 쏠리고 있다. 사진=신한카드, KB국민카드, 우리카드 올해 제주도를 찾는 관광객 규모가 신종 코로나바이러스 감염증(코로나19) 이전 수준으로 회복하고 있는 가운데 제주도 특화카드에 관심이 쏠리고 있다. 카드사들은 올해 백신 접종으로 지난해와 달리 국내여행 등 외부활동이 늘 것으로 예상되면서 제주도 관광객을 겨냥한 카드를 선보였다. 27일 카드업계에 따르면 신한카드는 제주도민·여행객, 제주도에 자주 방문하는 고객에게 필요한 혜택을 담은 ‘신한카드 혼디모앙(이하 혼디모앙 카드)’을 판매 중이다. ‘혼디모앙’은 ‘한데 모으다’라는 의미를 가진 제주도 방언으로 최근 5년간 신한카드 제주 현지 빅데이터 분석을 통해 제주 지역에 거주·방문하는 고객들의 소비 패턴을 반영한 서비스를 새롭게 개발, 맞춤형 상품으로 설계됐다. 먼저 혼디모앙 카드는 전월 실적이나 한도 제한 없이 일시불·할부 이용금액의 0.2%가 마이신한포인트로 적립되며, 특히 제주도 내 가맹점을 이용하는 경우는 최대 0.6%를 한도 제한 없이 추가 적립해준다. 여기에 추가해 최대 월 5만 원 한도 내에서 실외골프장 5%, 에이바우트 커피 10%, 제주신화월드 5% 포인트 적립해준다. 제스코마트, 뉴월드마트(마트로), 농협 하나로마트·클럽 등 지역 유통점 이용 시에도 최대 10% 적립이 가능하다. KB국민카드는 제주도 지역 화폐인 ‘탐나는전’과 체크카드 기능을 한 장의 카드에 담은 하이브리드(Hybrid) 체크카드 ‘KB국민 탐나는전 체크카드’를 판매하고 있다. 이 카드는 제주도 지역 화폐 전용 모바일 애플리케이션인 ‘탐나는전’을 통해 충전한 금액을 제주도 내 지역 화폐 가맹점에서 이용할 수 있으며, 전국 신용카드 가맹점에서 체크카드로 결제할 수 있는 것이 특징이다. 우리카드는 제주도 여행객을 타깃으로 한 ‘카드의정석 유니마일 인 제주’를 판매 중이다. 해당 카드는 전용 홈페이지에서 항공권, 숙박, 입장권, 외식 결제 시 5% 추가 할인 혜택을 제공하며 국내선 항공권의 경우 발권 수수료까지 면제된다. 제주항공, 진에어, 티웨이항공, 에어서울에서의 초과 위탁수하물 5㎏ 무료 혜택과 에어부산 위탁수하물 우선 처리 혜택도 제공된다. 저비용항공사 통합 마일리지 제도인 유니마일 적립 혜택도 가능하다. 저비용항공사, 면세점 이용금액의 3%와 2%가 각각 적립되며, 적립된 유니마일은 국내 저비용항공사에서 항공권 구매와 기타 유료 서비스 결제에 이용 가능하다. 이보라 글로벌이코노믹 기자 lbr00@g-enews.com 쿠바 뉴스 기본정보 무역 투자 비즈니스 여행 쿠바, 파리클럽과의 채무상환 재조정 합의 2021.11.27 쿠바 통계청 2020년 주요 통계치 발표 2021.09.25 쿠바, 민간 중소기업 설립을 통한 경제 활성화 추진 2021.09.08 쿠바, 코로나19 경제난에 대규모 반정부 시위 2021.07.21 미 대선결과에 따른 쿠바 내 영향 2020.11.13 헤드라인 뉴스 대만 TSMC 주가 하락 충격 HSBC, 중국 서부 청두와 항저우에 지점설치 美, 부실한 아기 복지…옷·음식·기저귀 공급 부족 글로벌비즈 中인민은행, 경기부양 위해 9월 장기대출 PSL 21조원 제공 엔달러 환율 또 급등 일본 재무성 긴급 외환시장 개입 목표선 돌파 국제민간항공기구, '2050년까지 탄소중립' 합의...중국·인도, 기한 연장 요구 G-Ship Story 대선조선, 수은으로부터 RG 발급 받았다…6500만달러 상당 대우조선해양, 건조 중인 LNG선 화물창 실시간 관리한다 현대글로비스, 물류부터 해운까지 新사업 착착...지배구조 개편 신호탄 G-Military 인니 정부, 프랑스 라팔제치고 KF-21 개발에 매달리나 美육군의 업그레이드된 M1A2 SEPv4 에이브람스 탱크 프로토타입 '유출' 낙탄사고 일으킨 현무 미사일…K-국방 신뢰성 해칠까 우려 미래의 한류 스타 내로라하는 국내외 유명 안무가 총출동…춤의 진수 선보인다 양소영, 저돌적 추진력과 가공할 연습량 소지한 연기자…연기는 난생처럼 '잘하고 싶은 일' 봉다룬, 판소리·현대무용 연기에 심취…항상 목말라하는 공연계의 '히딩크' 오늘의 주요뉴스 코인베이스, 싱가포르 라이선스 획득 "주요 이정표" [초점] 미국 LNG 산업 폭발적 성장…유럽서 러시아 가스 대체 아우디, 美에 전기차 생산 거점 구상 중 글래스노드 "비트코인 '바닥'은 고래비용 기반 1만6천달러" [초점] ﻿美, OPEC+ 원유감산에 '묘책'이 없는 이유는? Hot 포토 김보라, '핀란드 파파' 여주인공 발탁…김우석과 호흡 블랙핑크 케이팝 최초 '빌보드 200' 메인 1위 석권 아이유·수지, 수해복구 성금 1억원씩 기부 우주소녀 '엠카' 출격…'라스트 시퀀스' 무대 많이 본 기사 1 한국은행, 기준금리 빅스텝 여부 관심 집중 2 힘 실린 美 연준의 긴축···원·달러 환율, 1409원으로 상승 출발 3 韓, 튀르키예에 7.8억달러 송금···통화스와프 일환으로 추정 4 KB부코핀은행, 인니 금감원에서 건전성 부문 ‘최고 등급’ 획득 5 집값 하락 전망에 주택연금 가입 ‘붐’ 글로벌 슈퍼리치 제프 베조스 전처 매켄지 스콧, 756억원 상당 비벌리힐스 저택 자선단체에 기부 할리우드 스타 소피아 베르가라, 비벌리힐스 맨션 257억원에 매각 예정 프로골퍼 비제이 싱, 300억 원 상당 하와이 저택 매각 예정 카메론 디아즈x벤지 메이든 커플, 몬테시토 맨션 1267만 달러에 구입 리얼시승기 아이오닉6 "수려한 디자인에 잘 다듬어진 주행성능 갖춰" 기아 셀토스 부분변경 "이미 완벽한데, 더 좋아졌네?" 벤츠 C200 4매틱 "젊어진 S클래스" 포르쉐 마칸 GTS "강렬한 존재감에 도로위 시선 집중" 금융 실시간 뉴스 1시간전 이복현 금감원장 "가계부채관리 제대로 못해 아쉬워" 키이우 공습에 확대된 불안심리, 원·달러 환율 1430원 돌파하며 '폭주' 원·달러 환율, 급격한 상승세 보이며 1433원 돌파 1일전 "환율급등 원인 복합적...경제심리 악화·위안화 절하도 영향" 8월 기업대출 고정금리 비중 30% 넘어 집값 하락 전망에 주택연금 가입 ‘붐’ 3일전 선물·증권사 ‘7조원 이상 외환송금’ 조사 확대 한국은행, 기준금리 빅스텝 여부 관심 집중 글로벌이코노믹 패밀리 사이트 온타임즈 글로벌모터즈 신문사소개 윤리강령 기사제보 광고문의 이메일무단수집거부 개인정보취급방침 청소년보호 및 고충처리인 불편신고 (우)04004 서울특별시 마포구 월드컵로62 서교동 한림빌딩 2층 (주)그린미디어 | 제호 : 글로벌이코노믹 | 대표전화 : 02-323-7474 등록번호 : 서울 아 02232 | 등록·발행일자 : 2012년 8월 9일 | 발행·편집인 : 박형준 | 편집국장 : 진성기 | 청소년보호책임자 : 이인수 글로벌이코노믹을 통해 제공되는 모든 콘텐츠(기사 및 사진)를 무단 사용·복사·배포시 저작권법에 저촉되며, 법적 제재를 받을 수 있습니다. Copyright © 2011 글로벌이코노믹. All rights reserved. mail to webmaster@g-enews.com</t>
   </si>
 </sst>
 </file>
@@ -431,7 +593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -453,7 +615,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -464,7 +626,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -475,7 +637,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -486,7 +648,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -494,10 +656,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -505,10 +664,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -516,10 +675,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -527,10 +686,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -538,10 +697,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -549,10 +708,334 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
         <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
